--- a/tabelas_analise/tabela_base.xlsx
+++ b/tabelas_analise/tabela_base.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW646"/>
+  <dimension ref="A1:CD646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,6 +735,41 @@
       <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>08-jun</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>09-jun</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>10-jun</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>11-jun</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>12-jun</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>13-jun</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>14-jun</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>15-jun</t>
         </is>
       </c>
     </row>
@@ -818,6 +853,13 @@
       <c r="BU2" t="inlineStr"/>
       <c r="BV2" t="inlineStr"/>
       <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="inlineStr"/>
+      <c r="BY2" t="inlineStr"/>
+      <c r="BZ2" t="inlineStr"/>
+      <c r="CA2" t="inlineStr"/>
+      <c r="CB2" t="inlineStr"/>
+      <c r="CC2" t="inlineStr"/>
+      <c r="CD2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -899,6 +941,13 @@
       <c r="BU3" t="inlineStr"/>
       <c r="BV3" t="inlineStr"/>
       <c r="BW3" t="inlineStr"/>
+      <c r="BX3" t="inlineStr"/>
+      <c r="BY3" t="inlineStr"/>
+      <c r="BZ3" t="inlineStr"/>
+      <c r="CA3" t="inlineStr"/>
+      <c r="CB3" t="inlineStr"/>
+      <c r="CC3" t="inlineStr"/>
+      <c r="CD3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -980,6 +1029,13 @@
       <c r="BU4" t="inlineStr"/>
       <c r="BV4" t="inlineStr"/>
       <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="inlineStr"/>
+      <c r="BY4" t="inlineStr"/>
+      <c r="BZ4" t="inlineStr"/>
+      <c r="CA4" t="inlineStr"/>
+      <c r="CB4" t="inlineStr"/>
+      <c r="CC4" t="inlineStr"/>
+      <c r="CD4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1061,6 +1117,13 @@
       <c r="BU5" t="inlineStr"/>
       <c r="BV5" t="inlineStr"/>
       <c r="BW5" t="inlineStr"/>
+      <c r="BX5" t="inlineStr"/>
+      <c r="BY5" t="inlineStr"/>
+      <c r="BZ5" t="inlineStr"/>
+      <c r="CA5" t="inlineStr"/>
+      <c r="CB5" t="inlineStr"/>
+      <c r="CC5" t="inlineStr"/>
+      <c r="CD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1142,6 +1205,13 @@
       <c r="BU6" t="inlineStr"/>
       <c r="BV6" t="inlineStr"/>
       <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="inlineStr"/>
+      <c r="BY6" t="inlineStr"/>
+      <c r="BZ6" t="inlineStr"/>
+      <c r="CA6" t="inlineStr"/>
+      <c r="CB6" t="inlineStr"/>
+      <c r="CC6" t="inlineStr"/>
+      <c r="CD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1223,6 +1293,13 @@
       <c r="BU7" t="inlineStr"/>
       <c r="BV7" t="inlineStr"/>
       <c r="BW7" t="inlineStr"/>
+      <c r="BX7" t="inlineStr"/>
+      <c r="BY7" t="inlineStr"/>
+      <c r="BZ7" t="inlineStr"/>
+      <c r="CA7" t="inlineStr"/>
+      <c r="CB7" t="inlineStr"/>
+      <c r="CC7" t="inlineStr"/>
+      <c r="CD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1304,6 +1381,13 @@
       <c r="BU8" t="inlineStr"/>
       <c r="BV8" t="inlineStr"/>
       <c r="BW8" t="inlineStr"/>
+      <c r="BX8" t="inlineStr"/>
+      <c r="BY8" t="inlineStr"/>
+      <c r="BZ8" t="inlineStr"/>
+      <c r="CA8" t="inlineStr"/>
+      <c r="CB8" t="inlineStr"/>
+      <c r="CC8" t="inlineStr"/>
+      <c r="CD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1385,6 +1469,13 @@
       <c r="BU9" t="inlineStr"/>
       <c r="BV9" t="inlineStr"/>
       <c r="BW9" t="inlineStr"/>
+      <c r="BX9" t="inlineStr"/>
+      <c r="BY9" t="inlineStr"/>
+      <c r="BZ9" t="inlineStr"/>
+      <c r="CA9" t="inlineStr"/>
+      <c r="CB9" t="inlineStr"/>
+      <c r="CC9" t="inlineStr"/>
+      <c r="CD9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1466,6 +1557,13 @@
       <c r="BU10" t="inlineStr"/>
       <c r="BV10" t="inlineStr"/>
       <c r="BW10" t="inlineStr"/>
+      <c r="BX10" t="inlineStr"/>
+      <c r="BY10" t="inlineStr"/>
+      <c r="BZ10" t="inlineStr"/>
+      <c r="CA10" t="inlineStr"/>
+      <c r="CB10" t="inlineStr"/>
+      <c r="CC10" t="inlineStr"/>
+      <c r="CD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1547,6 +1645,13 @@
       <c r="BU11" t="inlineStr"/>
       <c r="BV11" t="inlineStr"/>
       <c r="BW11" t="inlineStr"/>
+      <c r="BX11" t="inlineStr"/>
+      <c r="BY11" t="inlineStr"/>
+      <c r="BZ11" t="inlineStr"/>
+      <c r="CA11" t="inlineStr"/>
+      <c r="CB11" t="inlineStr"/>
+      <c r="CC11" t="inlineStr"/>
+      <c r="CD11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1628,6 +1733,13 @@
       <c r="BU12" t="inlineStr"/>
       <c r="BV12" t="inlineStr"/>
       <c r="BW12" t="inlineStr"/>
+      <c r="BX12" t="inlineStr"/>
+      <c r="BY12" t="inlineStr"/>
+      <c r="BZ12" t="inlineStr"/>
+      <c r="CA12" t="inlineStr"/>
+      <c r="CB12" t="inlineStr"/>
+      <c r="CC12" t="inlineStr"/>
+      <c r="CD12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1709,6 +1821,13 @@
       <c r="BU13" t="inlineStr"/>
       <c r="BV13" t="inlineStr"/>
       <c r="BW13" t="inlineStr"/>
+      <c r="BX13" t="inlineStr"/>
+      <c r="BY13" t="inlineStr"/>
+      <c r="BZ13" t="inlineStr"/>
+      <c r="CA13" t="inlineStr"/>
+      <c r="CB13" t="inlineStr"/>
+      <c r="CC13" t="inlineStr"/>
+      <c r="CD13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1790,6 +1909,13 @@
       <c r="BU14" t="inlineStr"/>
       <c r="BV14" t="inlineStr"/>
       <c r="BW14" t="inlineStr"/>
+      <c r="BX14" t="inlineStr"/>
+      <c r="BY14" t="inlineStr"/>
+      <c r="BZ14" t="inlineStr"/>
+      <c r="CA14" t="inlineStr"/>
+      <c r="CB14" t="inlineStr"/>
+      <c r="CC14" t="inlineStr"/>
+      <c r="CD14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1871,6 +1997,13 @@
       <c r="BU15" t="inlineStr"/>
       <c r="BV15" t="inlineStr"/>
       <c r="BW15" t="inlineStr"/>
+      <c r="BX15" t="inlineStr"/>
+      <c r="BY15" t="inlineStr"/>
+      <c r="BZ15" t="inlineStr"/>
+      <c r="CA15" t="inlineStr"/>
+      <c r="CB15" t="inlineStr"/>
+      <c r="CC15" t="inlineStr"/>
+      <c r="CD15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1952,6 +2085,13 @@
       <c r="BU16" t="inlineStr"/>
       <c r="BV16" t="inlineStr"/>
       <c r="BW16" t="inlineStr"/>
+      <c r="BX16" t="inlineStr"/>
+      <c r="BY16" t="inlineStr"/>
+      <c r="BZ16" t="inlineStr"/>
+      <c r="CA16" t="inlineStr"/>
+      <c r="CB16" t="inlineStr"/>
+      <c r="CC16" t="inlineStr"/>
+      <c r="CD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -2033,6 +2173,13 @@
       <c r="BU17" t="inlineStr"/>
       <c r="BV17" t="inlineStr"/>
       <c r="BW17" t="inlineStr"/>
+      <c r="BX17" t="inlineStr"/>
+      <c r="BY17" t="inlineStr"/>
+      <c r="BZ17" t="inlineStr"/>
+      <c r="CA17" t="inlineStr"/>
+      <c r="CB17" t="inlineStr"/>
+      <c r="CC17" t="inlineStr"/>
+      <c r="CD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -2114,6 +2261,13 @@
       <c r="BU18" t="inlineStr"/>
       <c r="BV18" t="inlineStr"/>
       <c r="BW18" t="inlineStr"/>
+      <c r="BX18" t="inlineStr"/>
+      <c r="BY18" t="inlineStr"/>
+      <c r="BZ18" t="inlineStr"/>
+      <c r="CA18" t="inlineStr"/>
+      <c r="CB18" t="inlineStr"/>
+      <c r="CC18" t="inlineStr"/>
+      <c r="CD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -2195,6 +2349,13 @@
       <c r="BU19" t="inlineStr"/>
       <c r="BV19" t="inlineStr"/>
       <c r="BW19" t="inlineStr"/>
+      <c r="BX19" t="inlineStr"/>
+      <c r="BY19" t="inlineStr"/>
+      <c r="BZ19" t="inlineStr"/>
+      <c r="CA19" t="inlineStr"/>
+      <c r="CB19" t="inlineStr"/>
+      <c r="CC19" t="inlineStr"/>
+      <c r="CD19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -2276,6 +2437,13 @@
       <c r="BU20" t="inlineStr"/>
       <c r="BV20" t="inlineStr"/>
       <c r="BW20" t="inlineStr"/>
+      <c r="BX20" t="inlineStr"/>
+      <c r="BY20" t="inlineStr"/>
+      <c r="BZ20" t="inlineStr"/>
+      <c r="CA20" t="inlineStr"/>
+      <c r="CB20" t="inlineStr"/>
+      <c r="CC20" t="inlineStr"/>
+      <c r="CD20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -2357,6 +2525,13 @@
       <c r="BU21" t="inlineStr"/>
       <c r="BV21" t="inlineStr"/>
       <c r="BW21" t="inlineStr"/>
+      <c r="BX21" t="inlineStr"/>
+      <c r="BY21" t="inlineStr"/>
+      <c r="BZ21" t="inlineStr"/>
+      <c r="CA21" t="inlineStr"/>
+      <c r="CB21" t="inlineStr"/>
+      <c r="CC21" t="inlineStr"/>
+      <c r="CD21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -2438,6 +2613,13 @@
       <c r="BU22" t="inlineStr"/>
       <c r="BV22" t="inlineStr"/>
       <c r="BW22" t="inlineStr"/>
+      <c r="BX22" t="inlineStr"/>
+      <c r="BY22" t="inlineStr"/>
+      <c r="BZ22" t="inlineStr"/>
+      <c r="CA22" t="inlineStr"/>
+      <c r="CB22" t="inlineStr"/>
+      <c r="CC22" t="inlineStr"/>
+      <c r="CD22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -2519,6 +2701,13 @@
       <c r="BU23" t="inlineStr"/>
       <c r="BV23" t="inlineStr"/>
       <c r="BW23" t="inlineStr"/>
+      <c r="BX23" t="inlineStr"/>
+      <c r="BY23" t="inlineStr"/>
+      <c r="BZ23" t="inlineStr"/>
+      <c r="CA23" t="inlineStr"/>
+      <c r="CB23" t="inlineStr"/>
+      <c r="CC23" t="inlineStr"/>
+      <c r="CD23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -2600,6 +2789,13 @@
       <c r="BU24" t="inlineStr"/>
       <c r="BV24" t="inlineStr"/>
       <c r="BW24" t="inlineStr"/>
+      <c r="BX24" t="inlineStr"/>
+      <c r="BY24" t="inlineStr"/>
+      <c r="BZ24" t="inlineStr"/>
+      <c r="CA24" t="inlineStr"/>
+      <c r="CB24" t="inlineStr"/>
+      <c r="CC24" t="inlineStr"/>
+      <c r="CD24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -2681,6 +2877,13 @@
       <c r="BU25" t="inlineStr"/>
       <c r="BV25" t="inlineStr"/>
       <c r="BW25" t="inlineStr"/>
+      <c r="BX25" t="inlineStr"/>
+      <c r="BY25" t="inlineStr"/>
+      <c r="BZ25" t="inlineStr"/>
+      <c r="CA25" t="inlineStr"/>
+      <c r="CB25" t="inlineStr"/>
+      <c r="CC25" t="inlineStr"/>
+      <c r="CD25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -2762,6 +2965,13 @@
       <c r="BU26" t="inlineStr"/>
       <c r="BV26" t="inlineStr"/>
       <c r="BW26" t="inlineStr"/>
+      <c r="BX26" t="inlineStr"/>
+      <c r="BY26" t="inlineStr"/>
+      <c r="BZ26" t="inlineStr"/>
+      <c r="CA26" t="inlineStr"/>
+      <c r="CB26" t="inlineStr"/>
+      <c r="CC26" t="inlineStr"/>
+      <c r="CD26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -2843,6 +3053,13 @@
       <c r="BU27" t="inlineStr"/>
       <c r="BV27" t="inlineStr"/>
       <c r="BW27" t="inlineStr"/>
+      <c r="BX27" t="inlineStr"/>
+      <c r="BY27" t="inlineStr"/>
+      <c r="BZ27" t="inlineStr"/>
+      <c r="CA27" t="inlineStr"/>
+      <c r="CB27" t="inlineStr"/>
+      <c r="CC27" t="inlineStr"/>
+      <c r="CD27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2924,6 +3141,13 @@
       <c r="BU28" t="inlineStr"/>
       <c r="BV28" t="inlineStr"/>
       <c r="BW28" t="inlineStr"/>
+      <c r="BX28" t="inlineStr"/>
+      <c r="BY28" t="inlineStr"/>
+      <c r="BZ28" t="inlineStr"/>
+      <c r="CA28" t="inlineStr"/>
+      <c r="CB28" t="inlineStr"/>
+      <c r="CC28" t="inlineStr"/>
+      <c r="CD28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -3005,6 +3229,13 @@
       <c r="BU29" t="inlineStr"/>
       <c r="BV29" t="inlineStr"/>
       <c r="BW29" t="inlineStr"/>
+      <c r="BX29" t="inlineStr"/>
+      <c r="BY29" t="inlineStr"/>
+      <c r="BZ29" t="inlineStr"/>
+      <c r="CA29" t="inlineStr"/>
+      <c r="CB29" t="inlineStr"/>
+      <c r="CC29" t="inlineStr"/>
+      <c r="CD29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -3086,6 +3317,13 @@
       <c r="BU30" t="inlineStr"/>
       <c r="BV30" t="inlineStr"/>
       <c r="BW30" t="inlineStr"/>
+      <c r="BX30" t="inlineStr"/>
+      <c r="BY30" t="inlineStr"/>
+      <c r="BZ30" t="inlineStr"/>
+      <c r="CA30" t="inlineStr"/>
+      <c r="CB30" t="inlineStr"/>
+      <c r="CC30" t="inlineStr"/>
+      <c r="CD30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -3167,6 +3405,13 @@
       <c r="BU31" t="inlineStr"/>
       <c r="BV31" t="inlineStr"/>
       <c r="BW31" t="inlineStr"/>
+      <c r="BX31" t="inlineStr"/>
+      <c r="BY31" t="inlineStr"/>
+      <c r="BZ31" t="inlineStr"/>
+      <c r="CA31" t="inlineStr"/>
+      <c r="CB31" t="inlineStr"/>
+      <c r="CC31" t="inlineStr"/>
+      <c r="CD31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -3248,6 +3493,13 @@
       <c r="BU32" t="inlineStr"/>
       <c r="BV32" t="inlineStr"/>
       <c r="BW32" t="inlineStr"/>
+      <c r="BX32" t="inlineStr"/>
+      <c r="BY32" t="inlineStr"/>
+      <c r="BZ32" t="inlineStr"/>
+      <c r="CA32" t="inlineStr"/>
+      <c r="CB32" t="inlineStr"/>
+      <c r="CC32" t="inlineStr"/>
+      <c r="CD32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -3329,6 +3581,13 @@
       <c r="BU33" t="inlineStr"/>
       <c r="BV33" t="inlineStr"/>
       <c r="BW33" t="inlineStr"/>
+      <c r="BX33" t="inlineStr"/>
+      <c r="BY33" t="inlineStr"/>
+      <c r="BZ33" t="inlineStr"/>
+      <c r="CA33" t="inlineStr"/>
+      <c r="CB33" t="inlineStr"/>
+      <c r="CC33" t="inlineStr"/>
+      <c r="CD33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -3410,6 +3669,13 @@
       <c r="BU34" t="inlineStr"/>
       <c r="BV34" t="inlineStr"/>
       <c r="BW34" t="inlineStr"/>
+      <c r="BX34" t="inlineStr"/>
+      <c r="BY34" t="inlineStr"/>
+      <c r="BZ34" t="inlineStr"/>
+      <c r="CA34" t="inlineStr"/>
+      <c r="CB34" t="inlineStr"/>
+      <c r="CC34" t="inlineStr"/>
+      <c r="CD34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -3491,6 +3757,13 @@
       <c r="BU35" t="inlineStr"/>
       <c r="BV35" t="inlineStr"/>
       <c r="BW35" t="inlineStr"/>
+      <c r="BX35" t="inlineStr"/>
+      <c r="BY35" t="inlineStr"/>
+      <c r="BZ35" t="inlineStr"/>
+      <c r="CA35" t="inlineStr"/>
+      <c r="CB35" t="inlineStr"/>
+      <c r="CC35" t="inlineStr"/>
+      <c r="CD35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -3572,6 +3845,13 @@
       <c r="BU36" t="inlineStr"/>
       <c r="BV36" t="inlineStr"/>
       <c r="BW36" t="inlineStr"/>
+      <c r="BX36" t="inlineStr"/>
+      <c r="BY36" t="inlineStr"/>
+      <c r="BZ36" t="inlineStr"/>
+      <c r="CA36" t="inlineStr"/>
+      <c r="CB36" t="inlineStr"/>
+      <c r="CC36" t="inlineStr"/>
+      <c r="CD36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -3653,6 +3933,13 @@
       <c r="BU37" t="inlineStr"/>
       <c r="BV37" t="inlineStr"/>
       <c r="BW37" t="inlineStr"/>
+      <c r="BX37" t="inlineStr"/>
+      <c r="BY37" t="inlineStr"/>
+      <c r="BZ37" t="inlineStr"/>
+      <c r="CA37" t="inlineStr"/>
+      <c r="CB37" t="inlineStr"/>
+      <c r="CC37" t="inlineStr"/>
+      <c r="CD37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -3734,6 +4021,13 @@
       <c r="BU38" t="inlineStr"/>
       <c r="BV38" t="inlineStr"/>
       <c r="BW38" t="inlineStr"/>
+      <c r="BX38" t="inlineStr"/>
+      <c r="BY38" t="inlineStr"/>
+      <c r="BZ38" t="inlineStr"/>
+      <c r="CA38" t="inlineStr"/>
+      <c r="CB38" t="inlineStr"/>
+      <c r="CC38" t="inlineStr"/>
+      <c r="CD38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -3815,6 +4109,13 @@
       <c r="BU39" t="inlineStr"/>
       <c r="BV39" t="inlineStr"/>
       <c r="BW39" t="inlineStr"/>
+      <c r="BX39" t="inlineStr"/>
+      <c r="BY39" t="inlineStr"/>
+      <c r="BZ39" t="inlineStr"/>
+      <c r="CA39" t="inlineStr"/>
+      <c r="CB39" t="inlineStr"/>
+      <c r="CC39" t="inlineStr"/>
+      <c r="CD39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -3896,6 +4197,13 @@
       <c r="BU40" t="inlineStr"/>
       <c r="BV40" t="inlineStr"/>
       <c r="BW40" t="inlineStr"/>
+      <c r="BX40" t="inlineStr"/>
+      <c r="BY40" t="inlineStr"/>
+      <c r="BZ40" t="inlineStr"/>
+      <c r="CA40" t="inlineStr"/>
+      <c r="CB40" t="inlineStr"/>
+      <c r="CC40" t="inlineStr"/>
+      <c r="CD40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -3977,6 +4285,13 @@
       <c r="BU41" t="inlineStr"/>
       <c r="BV41" t="inlineStr"/>
       <c r="BW41" t="inlineStr"/>
+      <c r="BX41" t="inlineStr"/>
+      <c r="BY41" t="inlineStr"/>
+      <c r="BZ41" t="inlineStr"/>
+      <c r="CA41" t="inlineStr"/>
+      <c r="CB41" t="inlineStr"/>
+      <c r="CC41" t="inlineStr"/>
+      <c r="CD41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -4058,6 +4373,13 @@
       <c r="BU42" t="inlineStr"/>
       <c r="BV42" t="inlineStr"/>
       <c r="BW42" t="inlineStr"/>
+      <c r="BX42" t="inlineStr"/>
+      <c r="BY42" t="inlineStr"/>
+      <c r="BZ42" t="inlineStr"/>
+      <c r="CA42" t="inlineStr"/>
+      <c r="CB42" t="inlineStr"/>
+      <c r="CC42" t="inlineStr"/>
+      <c r="CD42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -4139,6 +4461,13 @@
       <c r="BU43" t="inlineStr"/>
       <c r="BV43" t="inlineStr"/>
       <c r="BW43" t="inlineStr"/>
+      <c r="BX43" t="inlineStr"/>
+      <c r="BY43" t="inlineStr"/>
+      <c r="BZ43" t="inlineStr"/>
+      <c r="CA43" t="inlineStr"/>
+      <c r="CB43" t="inlineStr"/>
+      <c r="CC43" t="inlineStr"/>
+      <c r="CD43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -4220,6 +4549,13 @@
       <c r="BU44" t="inlineStr"/>
       <c r="BV44" t="inlineStr"/>
       <c r="BW44" t="inlineStr"/>
+      <c r="BX44" t="inlineStr"/>
+      <c r="BY44" t="inlineStr"/>
+      <c r="BZ44" t="inlineStr"/>
+      <c r="CA44" t="inlineStr"/>
+      <c r="CB44" t="inlineStr"/>
+      <c r="CC44" t="inlineStr"/>
+      <c r="CD44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -4301,6 +4637,13 @@
       <c r="BU45" t="inlineStr"/>
       <c r="BV45" t="inlineStr"/>
       <c r="BW45" t="inlineStr"/>
+      <c r="BX45" t="inlineStr"/>
+      <c r="BY45" t="inlineStr"/>
+      <c r="BZ45" t="inlineStr"/>
+      <c r="CA45" t="inlineStr"/>
+      <c r="CB45" t="inlineStr"/>
+      <c r="CC45" t="inlineStr"/>
+      <c r="CD45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -4382,6 +4725,13 @@
       <c r="BU46" t="inlineStr"/>
       <c r="BV46" t="inlineStr"/>
       <c r="BW46" t="inlineStr"/>
+      <c r="BX46" t="inlineStr"/>
+      <c r="BY46" t="inlineStr"/>
+      <c r="BZ46" t="inlineStr"/>
+      <c r="CA46" t="inlineStr"/>
+      <c r="CB46" t="inlineStr"/>
+      <c r="CC46" t="inlineStr"/>
+      <c r="CD46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -4463,6 +4813,13 @@
       <c r="BU47" t="inlineStr"/>
       <c r="BV47" t="inlineStr"/>
       <c r="BW47" t="inlineStr"/>
+      <c r="BX47" t="inlineStr"/>
+      <c r="BY47" t="inlineStr"/>
+      <c r="BZ47" t="inlineStr"/>
+      <c r="CA47" t="inlineStr"/>
+      <c r="CB47" t="inlineStr"/>
+      <c r="CC47" t="inlineStr"/>
+      <c r="CD47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -4544,6 +4901,13 @@
       <c r="BU48" t="inlineStr"/>
       <c r="BV48" t="inlineStr"/>
       <c r="BW48" t="inlineStr"/>
+      <c r="BX48" t="inlineStr"/>
+      <c r="BY48" t="inlineStr"/>
+      <c r="BZ48" t="inlineStr"/>
+      <c r="CA48" t="inlineStr"/>
+      <c r="CB48" t="inlineStr"/>
+      <c r="CC48" t="inlineStr"/>
+      <c r="CD48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -4625,6 +4989,13 @@
       <c r="BU49" t="inlineStr"/>
       <c r="BV49" t="inlineStr"/>
       <c r="BW49" t="inlineStr"/>
+      <c r="BX49" t="inlineStr"/>
+      <c r="BY49" t="inlineStr"/>
+      <c r="BZ49" t="inlineStr"/>
+      <c r="CA49" t="inlineStr"/>
+      <c r="CB49" t="inlineStr"/>
+      <c r="CC49" t="inlineStr"/>
+      <c r="CD49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -4706,6 +5077,13 @@
       <c r="BU50" t="inlineStr"/>
       <c r="BV50" t="inlineStr"/>
       <c r="BW50" t="inlineStr"/>
+      <c r="BX50" t="inlineStr"/>
+      <c r="BY50" t="inlineStr"/>
+      <c r="BZ50" t="inlineStr"/>
+      <c r="CA50" t="inlineStr"/>
+      <c r="CB50" t="inlineStr"/>
+      <c r="CC50" t="inlineStr"/>
+      <c r="CD50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -4787,6 +5165,13 @@
       <c r="BU51" t="inlineStr"/>
       <c r="BV51" t="inlineStr"/>
       <c r="BW51" t="inlineStr"/>
+      <c r="BX51" t="inlineStr"/>
+      <c r="BY51" t="inlineStr"/>
+      <c r="BZ51" t="inlineStr"/>
+      <c r="CA51" t="inlineStr"/>
+      <c r="CB51" t="inlineStr"/>
+      <c r="CC51" t="inlineStr"/>
+      <c r="CD51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -4868,6 +5253,13 @@
       <c r="BU52" t="inlineStr"/>
       <c r="BV52" t="inlineStr"/>
       <c r="BW52" t="inlineStr"/>
+      <c r="BX52" t="inlineStr"/>
+      <c r="BY52" t="inlineStr"/>
+      <c r="BZ52" t="inlineStr"/>
+      <c r="CA52" t="inlineStr"/>
+      <c r="CB52" t="inlineStr"/>
+      <c r="CC52" t="inlineStr"/>
+      <c r="CD52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -4949,6 +5341,13 @@
       <c r="BU53" t="inlineStr"/>
       <c r="BV53" t="inlineStr"/>
       <c r="BW53" t="inlineStr"/>
+      <c r="BX53" t="inlineStr"/>
+      <c r="BY53" t="inlineStr"/>
+      <c r="BZ53" t="inlineStr"/>
+      <c r="CA53" t="inlineStr"/>
+      <c r="CB53" t="inlineStr"/>
+      <c r="CC53" t="inlineStr"/>
+      <c r="CD53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -5030,6 +5429,13 @@
       <c r="BU54" t="inlineStr"/>
       <c r="BV54" t="inlineStr"/>
       <c r="BW54" t="inlineStr"/>
+      <c r="BX54" t="inlineStr"/>
+      <c r="BY54" t="inlineStr"/>
+      <c r="BZ54" t="inlineStr"/>
+      <c r="CA54" t="inlineStr"/>
+      <c r="CB54" t="inlineStr"/>
+      <c r="CC54" t="inlineStr"/>
+      <c r="CD54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -5111,6 +5517,13 @@
       <c r="BU55" t="inlineStr"/>
       <c r="BV55" t="inlineStr"/>
       <c r="BW55" t="inlineStr"/>
+      <c r="BX55" t="inlineStr"/>
+      <c r="BY55" t="inlineStr"/>
+      <c r="BZ55" t="inlineStr"/>
+      <c r="CA55" t="inlineStr"/>
+      <c r="CB55" t="inlineStr"/>
+      <c r="CC55" t="inlineStr"/>
+      <c r="CD55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -5192,6 +5605,13 @@
       <c r="BU56" t="inlineStr"/>
       <c r="BV56" t="inlineStr"/>
       <c r="BW56" t="inlineStr"/>
+      <c r="BX56" t="inlineStr"/>
+      <c r="BY56" t="inlineStr"/>
+      <c r="BZ56" t="inlineStr"/>
+      <c r="CA56" t="inlineStr"/>
+      <c r="CB56" t="inlineStr"/>
+      <c r="CC56" t="inlineStr"/>
+      <c r="CD56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -5273,6 +5693,13 @@
       <c r="BU57" t="inlineStr"/>
       <c r="BV57" t="inlineStr"/>
       <c r="BW57" t="inlineStr"/>
+      <c r="BX57" t="inlineStr"/>
+      <c r="BY57" t="inlineStr"/>
+      <c r="BZ57" t="inlineStr"/>
+      <c r="CA57" t="inlineStr"/>
+      <c r="CB57" t="inlineStr"/>
+      <c r="CC57" t="inlineStr"/>
+      <c r="CD57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -5354,6 +5781,13 @@
       <c r="BU58" t="inlineStr"/>
       <c r="BV58" t="inlineStr"/>
       <c r="BW58" t="inlineStr"/>
+      <c r="BX58" t="inlineStr"/>
+      <c r="BY58" t="inlineStr"/>
+      <c r="BZ58" t="inlineStr"/>
+      <c r="CA58" t="inlineStr"/>
+      <c r="CB58" t="inlineStr"/>
+      <c r="CC58" t="inlineStr"/>
+      <c r="CD58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -5435,6 +5869,13 @@
       <c r="BU59" t="inlineStr"/>
       <c r="BV59" t="inlineStr"/>
       <c r="BW59" t="inlineStr"/>
+      <c r="BX59" t="inlineStr"/>
+      <c r="BY59" t="inlineStr"/>
+      <c r="BZ59" t="inlineStr"/>
+      <c r="CA59" t="inlineStr"/>
+      <c r="CB59" t="inlineStr"/>
+      <c r="CC59" t="inlineStr"/>
+      <c r="CD59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -5516,6 +5957,13 @@
       <c r="BU60" t="inlineStr"/>
       <c r="BV60" t="inlineStr"/>
       <c r="BW60" t="inlineStr"/>
+      <c r="BX60" t="inlineStr"/>
+      <c r="BY60" t="inlineStr"/>
+      <c r="BZ60" t="inlineStr"/>
+      <c r="CA60" t="inlineStr"/>
+      <c r="CB60" t="inlineStr"/>
+      <c r="CC60" t="inlineStr"/>
+      <c r="CD60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -5597,6 +6045,13 @@
       <c r="BU61" t="inlineStr"/>
       <c r="BV61" t="inlineStr"/>
       <c r="BW61" t="inlineStr"/>
+      <c r="BX61" t="inlineStr"/>
+      <c r="BY61" t="inlineStr"/>
+      <c r="BZ61" t="inlineStr"/>
+      <c r="CA61" t="inlineStr"/>
+      <c r="CB61" t="inlineStr"/>
+      <c r="CC61" t="inlineStr"/>
+      <c r="CD61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -5678,6 +6133,13 @@
       <c r="BU62" t="inlineStr"/>
       <c r="BV62" t="inlineStr"/>
       <c r="BW62" t="inlineStr"/>
+      <c r="BX62" t="inlineStr"/>
+      <c r="BY62" t="inlineStr"/>
+      <c r="BZ62" t="inlineStr"/>
+      <c r="CA62" t="inlineStr"/>
+      <c r="CB62" t="inlineStr"/>
+      <c r="CC62" t="inlineStr"/>
+      <c r="CD62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -5759,6 +6221,13 @@
       <c r="BU63" t="inlineStr"/>
       <c r="BV63" t="inlineStr"/>
       <c r="BW63" t="inlineStr"/>
+      <c r="BX63" t="inlineStr"/>
+      <c r="BY63" t="inlineStr"/>
+      <c r="BZ63" t="inlineStr"/>
+      <c r="CA63" t="inlineStr"/>
+      <c r="CB63" t="inlineStr"/>
+      <c r="CC63" t="inlineStr"/>
+      <c r="CD63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -5840,6 +6309,13 @@
       <c r="BU64" t="inlineStr"/>
       <c r="BV64" t="inlineStr"/>
       <c r="BW64" t="inlineStr"/>
+      <c r="BX64" t="inlineStr"/>
+      <c r="BY64" t="inlineStr"/>
+      <c r="BZ64" t="inlineStr"/>
+      <c r="CA64" t="inlineStr"/>
+      <c r="CB64" t="inlineStr"/>
+      <c r="CC64" t="inlineStr"/>
+      <c r="CD64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -5921,6 +6397,13 @@
       <c r="BU65" t="inlineStr"/>
       <c r="BV65" t="inlineStr"/>
       <c r="BW65" t="inlineStr"/>
+      <c r="BX65" t="inlineStr"/>
+      <c r="BY65" t="inlineStr"/>
+      <c r="BZ65" t="inlineStr"/>
+      <c r="CA65" t="inlineStr"/>
+      <c r="CB65" t="inlineStr"/>
+      <c r="CC65" t="inlineStr"/>
+      <c r="CD65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -6002,6 +6485,13 @@
       <c r="BU66" t="inlineStr"/>
       <c r="BV66" t="inlineStr"/>
       <c r="BW66" t="inlineStr"/>
+      <c r="BX66" t="inlineStr"/>
+      <c r="BY66" t="inlineStr"/>
+      <c r="BZ66" t="inlineStr"/>
+      <c r="CA66" t="inlineStr"/>
+      <c r="CB66" t="inlineStr"/>
+      <c r="CC66" t="inlineStr"/>
+      <c r="CD66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -6083,6 +6573,13 @@
       <c r="BU67" t="inlineStr"/>
       <c r="BV67" t="inlineStr"/>
       <c r="BW67" t="inlineStr"/>
+      <c r="BX67" t="inlineStr"/>
+      <c r="BY67" t="inlineStr"/>
+      <c r="BZ67" t="inlineStr"/>
+      <c r="CA67" t="inlineStr"/>
+      <c r="CB67" t="inlineStr"/>
+      <c r="CC67" t="inlineStr"/>
+      <c r="CD67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -6164,6 +6661,13 @@
       <c r="BU68" t="inlineStr"/>
       <c r="BV68" t="inlineStr"/>
       <c r="BW68" t="inlineStr"/>
+      <c r="BX68" t="inlineStr"/>
+      <c r="BY68" t="inlineStr"/>
+      <c r="BZ68" t="inlineStr"/>
+      <c r="CA68" t="inlineStr"/>
+      <c r="CB68" t="inlineStr"/>
+      <c r="CC68" t="inlineStr"/>
+      <c r="CD68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -6245,6 +6749,13 @@
       <c r="BU69" t="inlineStr"/>
       <c r="BV69" t="inlineStr"/>
       <c r="BW69" t="inlineStr"/>
+      <c r="BX69" t="inlineStr"/>
+      <c r="BY69" t="inlineStr"/>
+      <c r="BZ69" t="inlineStr"/>
+      <c r="CA69" t="inlineStr"/>
+      <c r="CB69" t="inlineStr"/>
+      <c r="CC69" t="inlineStr"/>
+      <c r="CD69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
@@ -6326,6 +6837,13 @@
       <c r="BU70" t="inlineStr"/>
       <c r="BV70" t="inlineStr"/>
       <c r="BW70" t="inlineStr"/>
+      <c r="BX70" t="inlineStr"/>
+      <c r="BY70" t="inlineStr"/>
+      <c r="BZ70" t="inlineStr"/>
+      <c r="CA70" t="inlineStr"/>
+      <c r="CB70" t="inlineStr"/>
+      <c r="CC70" t="inlineStr"/>
+      <c r="CD70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
@@ -6407,6 +6925,13 @@
       <c r="BU71" t="inlineStr"/>
       <c r="BV71" t="inlineStr"/>
       <c r="BW71" t="inlineStr"/>
+      <c r="BX71" t="inlineStr"/>
+      <c r="BY71" t="inlineStr"/>
+      <c r="BZ71" t="inlineStr"/>
+      <c r="CA71" t="inlineStr"/>
+      <c r="CB71" t="inlineStr"/>
+      <c r="CC71" t="inlineStr"/>
+      <c r="CD71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
@@ -6488,6 +7013,13 @@
       <c r="BU72" t="inlineStr"/>
       <c r="BV72" t="inlineStr"/>
       <c r="BW72" t="inlineStr"/>
+      <c r="BX72" t="inlineStr"/>
+      <c r="BY72" t="inlineStr"/>
+      <c r="BZ72" t="inlineStr"/>
+      <c r="CA72" t="inlineStr"/>
+      <c r="CB72" t="inlineStr"/>
+      <c r="CC72" t="inlineStr"/>
+      <c r="CD72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
@@ -6569,6 +7101,13 @@
       <c r="BU73" t="inlineStr"/>
       <c r="BV73" t="inlineStr"/>
       <c r="BW73" t="inlineStr"/>
+      <c r="BX73" t="inlineStr"/>
+      <c r="BY73" t="inlineStr"/>
+      <c r="BZ73" t="inlineStr"/>
+      <c r="CA73" t="inlineStr"/>
+      <c r="CB73" t="inlineStr"/>
+      <c r="CC73" t="inlineStr"/>
+      <c r="CD73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
@@ -6650,6 +7189,13 @@
       <c r="BU74" t="inlineStr"/>
       <c r="BV74" t="inlineStr"/>
       <c r="BW74" t="inlineStr"/>
+      <c r="BX74" t="inlineStr"/>
+      <c r="BY74" t="inlineStr"/>
+      <c r="BZ74" t="inlineStr"/>
+      <c r="CA74" t="inlineStr"/>
+      <c r="CB74" t="inlineStr"/>
+      <c r="CC74" t="inlineStr"/>
+      <c r="CD74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
@@ -6731,6 +7277,13 @@
       <c r="BU75" t="inlineStr"/>
       <c r="BV75" t="inlineStr"/>
       <c r="BW75" t="inlineStr"/>
+      <c r="BX75" t="inlineStr"/>
+      <c r="BY75" t="inlineStr"/>
+      <c r="BZ75" t="inlineStr"/>
+      <c r="CA75" t="inlineStr"/>
+      <c r="CB75" t="inlineStr"/>
+      <c r="CC75" t="inlineStr"/>
+      <c r="CD75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
@@ -6812,6 +7365,13 @@
       <c r="BU76" t="inlineStr"/>
       <c r="BV76" t="inlineStr"/>
       <c r="BW76" t="inlineStr"/>
+      <c r="BX76" t="inlineStr"/>
+      <c r="BY76" t="inlineStr"/>
+      <c r="BZ76" t="inlineStr"/>
+      <c r="CA76" t="inlineStr"/>
+      <c r="CB76" t="inlineStr"/>
+      <c r="CC76" t="inlineStr"/>
+      <c r="CD76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
@@ -6893,6 +7453,13 @@
       <c r="BU77" t="inlineStr"/>
       <c r="BV77" t="inlineStr"/>
       <c r="BW77" t="inlineStr"/>
+      <c r="BX77" t="inlineStr"/>
+      <c r="BY77" t="inlineStr"/>
+      <c r="BZ77" t="inlineStr"/>
+      <c r="CA77" t="inlineStr"/>
+      <c r="CB77" t="inlineStr"/>
+      <c r="CC77" t="inlineStr"/>
+      <c r="CD77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -6974,6 +7541,13 @@
       <c r="BU78" t="inlineStr"/>
       <c r="BV78" t="inlineStr"/>
       <c r="BW78" t="inlineStr"/>
+      <c r="BX78" t="inlineStr"/>
+      <c r="BY78" t="inlineStr"/>
+      <c r="BZ78" t="inlineStr"/>
+      <c r="CA78" t="inlineStr"/>
+      <c r="CB78" t="inlineStr"/>
+      <c r="CC78" t="inlineStr"/>
+      <c r="CD78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
@@ -7055,6 +7629,13 @@
       <c r="BU79" t="inlineStr"/>
       <c r="BV79" t="inlineStr"/>
       <c r="BW79" t="inlineStr"/>
+      <c r="BX79" t="inlineStr"/>
+      <c r="BY79" t="inlineStr"/>
+      <c r="BZ79" t="inlineStr"/>
+      <c r="CA79" t="inlineStr"/>
+      <c r="CB79" t="inlineStr"/>
+      <c r="CC79" t="inlineStr"/>
+      <c r="CD79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
@@ -7136,6 +7717,13 @@
       <c r="BU80" t="inlineStr"/>
       <c r="BV80" t="inlineStr"/>
       <c r="BW80" t="inlineStr"/>
+      <c r="BX80" t="inlineStr"/>
+      <c r="BY80" t="inlineStr"/>
+      <c r="BZ80" t="inlineStr"/>
+      <c r="CA80" t="inlineStr"/>
+      <c r="CB80" t="inlineStr"/>
+      <c r="CC80" t="inlineStr"/>
+      <c r="CD80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -7217,6 +7805,13 @@
       <c r="BU81" t="inlineStr"/>
       <c r="BV81" t="inlineStr"/>
       <c r="BW81" t="inlineStr"/>
+      <c r="BX81" t="inlineStr"/>
+      <c r="BY81" t="inlineStr"/>
+      <c r="BZ81" t="inlineStr"/>
+      <c r="CA81" t="inlineStr"/>
+      <c r="CB81" t="inlineStr"/>
+      <c r="CC81" t="inlineStr"/>
+      <c r="CD81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
@@ -7298,6 +7893,13 @@
       <c r="BU82" t="inlineStr"/>
       <c r="BV82" t="inlineStr"/>
       <c r="BW82" t="inlineStr"/>
+      <c r="BX82" t="inlineStr"/>
+      <c r="BY82" t="inlineStr"/>
+      <c r="BZ82" t="inlineStr"/>
+      <c r="CA82" t="inlineStr"/>
+      <c r="CB82" t="inlineStr"/>
+      <c r="CC82" t="inlineStr"/>
+      <c r="CD82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -7379,6 +7981,13 @@
       <c r="BU83" t="inlineStr"/>
       <c r="BV83" t="inlineStr"/>
       <c r="BW83" t="inlineStr"/>
+      <c r="BX83" t="inlineStr"/>
+      <c r="BY83" t="inlineStr"/>
+      <c r="BZ83" t="inlineStr"/>
+      <c r="CA83" t="inlineStr"/>
+      <c r="CB83" t="inlineStr"/>
+      <c r="CC83" t="inlineStr"/>
+      <c r="CD83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
@@ -7460,6 +8069,13 @@
       <c r="BU84" t="inlineStr"/>
       <c r="BV84" t="inlineStr"/>
       <c r="BW84" t="inlineStr"/>
+      <c r="BX84" t="inlineStr"/>
+      <c r="BY84" t="inlineStr"/>
+      <c r="BZ84" t="inlineStr"/>
+      <c r="CA84" t="inlineStr"/>
+      <c r="CB84" t="inlineStr"/>
+      <c r="CC84" t="inlineStr"/>
+      <c r="CD84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
@@ -7541,6 +8157,13 @@
       <c r="BU85" t="inlineStr"/>
       <c r="BV85" t="inlineStr"/>
       <c r="BW85" t="inlineStr"/>
+      <c r="BX85" t="inlineStr"/>
+      <c r="BY85" t="inlineStr"/>
+      <c r="BZ85" t="inlineStr"/>
+      <c r="CA85" t="inlineStr"/>
+      <c r="CB85" t="inlineStr"/>
+      <c r="CC85" t="inlineStr"/>
+      <c r="CD85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
@@ -7622,6 +8245,13 @@
       <c r="BU86" t="inlineStr"/>
       <c r="BV86" t="inlineStr"/>
       <c r="BW86" t="inlineStr"/>
+      <c r="BX86" t="inlineStr"/>
+      <c r="BY86" t="inlineStr"/>
+      <c r="BZ86" t="inlineStr"/>
+      <c r="CA86" t="inlineStr"/>
+      <c r="CB86" t="inlineStr"/>
+      <c r="CC86" t="inlineStr"/>
+      <c r="CD86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
@@ -7703,6 +8333,13 @@
       <c r="BU87" t="inlineStr"/>
       <c r="BV87" t="inlineStr"/>
       <c r="BW87" t="inlineStr"/>
+      <c r="BX87" t="inlineStr"/>
+      <c r="BY87" t="inlineStr"/>
+      <c r="BZ87" t="inlineStr"/>
+      <c r="CA87" t="inlineStr"/>
+      <c r="CB87" t="inlineStr"/>
+      <c r="CC87" t="inlineStr"/>
+      <c r="CD87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
@@ -7784,6 +8421,13 @@
       <c r="BU88" t="inlineStr"/>
       <c r="BV88" t="inlineStr"/>
       <c r="BW88" t="inlineStr"/>
+      <c r="BX88" t="inlineStr"/>
+      <c r="BY88" t="inlineStr"/>
+      <c r="BZ88" t="inlineStr"/>
+      <c r="CA88" t="inlineStr"/>
+      <c r="CB88" t="inlineStr"/>
+      <c r="CC88" t="inlineStr"/>
+      <c r="CD88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -7865,6 +8509,13 @@
       <c r="BU89" t="inlineStr"/>
       <c r="BV89" t="inlineStr"/>
       <c r="BW89" t="inlineStr"/>
+      <c r="BX89" t="inlineStr"/>
+      <c r="BY89" t="inlineStr"/>
+      <c r="BZ89" t="inlineStr"/>
+      <c r="CA89" t="inlineStr"/>
+      <c r="CB89" t="inlineStr"/>
+      <c r="CC89" t="inlineStr"/>
+      <c r="CD89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
@@ -7946,6 +8597,13 @@
       <c r="BU90" t="inlineStr"/>
       <c r="BV90" t="inlineStr"/>
       <c r="BW90" t="inlineStr"/>
+      <c r="BX90" t="inlineStr"/>
+      <c r="BY90" t="inlineStr"/>
+      <c r="BZ90" t="inlineStr"/>
+      <c r="CA90" t="inlineStr"/>
+      <c r="CB90" t="inlineStr"/>
+      <c r="CC90" t="inlineStr"/>
+      <c r="CD90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
@@ -8027,6 +8685,13 @@
       <c r="BU91" t="inlineStr"/>
       <c r="BV91" t="inlineStr"/>
       <c r="BW91" t="inlineStr"/>
+      <c r="BX91" t="inlineStr"/>
+      <c r="BY91" t="inlineStr"/>
+      <c r="BZ91" t="inlineStr"/>
+      <c r="CA91" t="inlineStr"/>
+      <c r="CB91" t="inlineStr"/>
+      <c r="CC91" t="inlineStr"/>
+      <c r="CD91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
@@ -8108,6 +8773,13 @@
       <c r="BU92" t="inlineStr"/>
       <c r="BV92" t="inlineStr"/>
       <c r="BW92" t="inlineStr"/>
+      <c r="BX92" t="inlineStr"/>
+      <c r="BY92" t="inlineStr"/>
+      <c r="BZ92" t="inlineStr"/>
+      <c r="CA92" t="inlineStr"/>
+      <c r="CB92" t="inlineStr"/>
+      <c r="CC92" t="inlineStr"/>
+      <c r="CD92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -8189,6 +8861,13 @@
       <c r="BU93" t="inlineStr"/>
       <c r="BV93" t="inlineStr"/>
       <c r="BW93" t="inlineStr"/>
+      <c r="BX93" t="inlineStr"/>
+      <c r="BY93" t="inlineStr"/>
+      <c r="BZ93" t="inlineStr"/>
+      <c r="CA93" t="inlineStr"/>
+      <c r="CB93" t="inlineStr"/>
+      <c r="CC93" t="inlineStr"/>
+      <c r="CD93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
@@ -8270,6 +8949,13 @@
       <c r="BU94" t="inlineStr"/>
       <c r="BV94" t="inlineStr"/>
       <c r="BW94" t="inlineStr"/>
+      <c r="BX94" t="inlineStr"/>
+      <c r="BY94" t="inlineStr"/>
+      <c r="BZ94" t="inlineStr"/>
+      <c r="CA94" t="inlineStr"/>
+      <c r="CB94" t="inlineStr"/>
+      <c r="CC94" t="inlineStr"/>
+      <c r="CD94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
@@ -8351,6 +9037,13 @@
       <c r="BU95" t="inlineStr"/>
       <c r="BV95" t="inlineStr"/>
       <c r="BW95" t="inlineStr"/>
+      <c r="BX95" t="inlineStr"/>
+      <c r="BY95" t="inlineStr"/>
+      <c r="BZ95" t="inlineStr"/>
+      <c r="CA95" t="inlineStr"/>
+      <c r="CB95" t="inlineStr"/>
+      <c r="CC95" t="inlineStr"/>
+      <c r="CD95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
@@ -8432,6 +9125,13 @@
       <c r="BU96" t="inlineStr"/>
       <c r="BV96" t="inlineStr"/>
       <c r="BW96" t="inlineStr"/>
+      <c r="BX96" t="inlineStr"/>
+      <c r="BY96" t="inlineStr"/>
+      <c r="BZ96" t="inlineStr"/>
+      <c r="CA96" t="inlineStr"/>
+      <c r="CB96" t="inlineStr"/>
+      <c r="CC96" t="inlineStr"/>
+      <c r="CD96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -8513,6 +9213,13 @@
       <c r="BU97" t="inlineStr"/>
       <c r="BV97" t="inlineStr"/>
       <c r="BW97" t="inlineStr"/>
+      <c r="BX97" t="inlineStr"/>
+      <c r="BY97" t="inlineStr"/>
+      <c r="BZ97" t="inlineStr"/>
+      <c r="CA97" t="inlineStr"/>
+      <c r="CB97" t="inlineStr"/>
+      <c r="CC97" t="inlineStr"/>
+      <c r="CD97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -8594,6 +9301,13 @@
       <c r="BU98" t="inlineStr"/>
       <c r="BV98" t="inlineStr"/>
       <c r="BW98" t="inlineStr"/>
+      <c r="BX98" t="inlineStr"/>
+      <c r="BY98" t="inlineStr"/>
+      <c r="BZ98" t="inlineStr"/>
+      <c r="CA98" t="inlineStr"/>
+      <c r="CB98" t="inlineStr"/>
+      <c r="CC98" t="inlineStr"/>
+      <c r="CD98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -8675,6 +9389,13 @@
       <c r="BU99" t="inlineStr"/>
       <c r="BV99" t="inlineStr"/>
       <c r="BW99" t="inlineStr"/>
+      <c r="BX99" t="inlineStr"/>
+      <c r="BY99" t="inlineStr"/>
+      <c r="BZ99" t="inlineStr"/>
+      <c r="CA99" t="inlineStr"/>
+      <c r="CB99" t="inlineStr"/>
+      <c r="CC99" t="inlineStr"/>
+      <c r="CD99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
@@ -8756,6 +9477,13 @@
       <c r="BU100" t="inlineStr"/>
       <c r="BV100" t="inlineStr"/>
       <c r="BW100" t="inlineStr"/>
+      <c r="BX100" t="inlineStr"/>
+      <c r="BY100" t="inlineStr"/>
+      <c r="BZ100" t="inlineStr"/>
+      <c r="CA100" t="inlineStr"/>
+      <c r="CB100" t="inlineStr"/>
+      <c r="CC100" t="inlineStr"/>
+      <c r="CD100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -8837,6 +9565,13 @@
       <c r="BU101" t="inlineStr"/>
       <c r="BV101" t="inlineStr"/>
       <c r="BW101" t="inlineStr"/>
+      <c r="BX101" t="inlineStr"/>
+      <c r="BY101" t="inlineStr"/>
+      <c r="BZ101" t="inlineStr"/>
+      <c r="CA101" t="inlineStr"/>
+      <c r="CB101" t="inlineStr"/>
+      <c r="CC101" t="inlineStr"/>
+      <c r="CD101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -8918,6 +9653,13 @@
       <c r="BU102" t="inlineStr"/>
       <c r="BV102" t="inlineStr"/>
       <c r="BW102" t="inlineStr"/>
+      <c r="BX102" t="inlineStr"/>
+      <c r="BY102" t="inlineStr"/>
+      <c r="BZ102" t="inlineStr"/>
+      <c r="CA102" t="inlineStr"/>
+      <c r="CB102" t="inlineStr"/>
+      <c r="CC102" t="inlineStr"/>
+      <c r="CD102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -8999,6 +9741,13 @@
       <c r="BU103" t="inlineStr"/>
       <c r="BV103" t="inlineStr"/>
       <c r="BW103" t="inlineStr"/>
+      <c r="BX103" t="inlineStr"/>
+      <c r="BY103" t="inlineStr"/>
+      <c r="BZ103" t="inlineStr"/>
+      <c r="CA103" t="inlineStr"/>
+      <c r="CB103" t="inlineStr"/>
+      <c r="CC103" t="inlineStr"/>
+      <c r="CD103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -9080,6 +9829,13 @@
       <c r="BU104" t="inlineStr"/>
       <c r="BV104" t="inlineStr"/>
       <c r="BW104" t="inlineStr"/>
+      <c r="BX104" t="inlineStr"/>
+      <c r="BY104" t="inlineStr"/>
+      <c r="BZ104" t="inlineStr"/>
+      <c r="CA104" t="inlineStr"/>
+      <c r="CB104" t="inlineStr"/>
+      <c r="CC104" t="inlineStr"/>
+      <c r="CD104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -9161,6 +9917,13 @@
       <c r="BU105" t="inlineStr"/>
       <c r="BV105" t="inlineStr"/>
       <c r="BW105" t="inlineStr"/>
+      <c r="BX105" t="inlineStr"/>
+      <c r="BY105" t="inlineStr"/>
+      <c r="BZ105" t="inlineStr"/>
+      <c r="CA105" t="inlineStr"/>
+      <c r="CB105" t="inlineStr"/>
+      <c r="CC105" t="inlineStr"/>
+      <c r="CD105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -9242,6 +10005,13 @@
       <c r="BU106" t="inlineStr"/>
       <c r="BV106" t="inlineStr"/>
       <c r="BW106" t="inlineStr"/>
+      <c r="BX106" t="inlineStr"/>
+      <c r="BY106" t="inlineStr"/>
+      <c r="BZ106" t="inlineStr"/>
+      <c r="CA106" t="inlineStr"/>
+      <c r="CB106" t="inlineStr"/>
+      <c r="CC106" t="inlineStr"/>
+      <c r="CD106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -9323,6 +10093,13 @@
       <c r="BU107" t="inlineStr"/>
       <c r="BV107" t="inlineStr"/>
       <c r="BW107" t="inlineStr"/>
+      <c r="BX107" t="inlineStr"/>
+      <c r="BY107" t="inlineStr"/>
+      <c r="BZ107" t="inlineStr"/>
+      <c r="CA107" t="inlineStr"/>
+      <c r="CB107" t="inlineStr"/>
+      <c r="CC107" t="inlineStr"/>
+      <c r="CD107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -9404,6 +10181,13 @@
       <c r="BU108" t="inlineStr"/>
       <c r="BV108" t="inlineStr"/>
       <c r="BW108" t="inlineStr"/>
+      <c r="BX108" t="inlineStr"/>
+      <c r="BY108" t="inlineStr"/>
+      <c r="BZ108" t="inlineStr"/>
+      <c r="CA108" t="inlineStr"/>
+      <c r="CB108" t="inlineStr"/>
+      <c r="CC108" t="inlineStr"/>
+      <c r="CD108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -9485,6 +10269,13 @@
       <c r="BU109" t="inlineStr"/>
       <c r="BV109" t="inlineStr"/>
       <c r="BW109" t="inlineStr"/>
+      <c r="BX109" t="inlineStr"/>
+      <c r="BY109" t="inlineStr"/>
+      <c r="BZ109" t="inlineStr"/>
+      <c r="CA109" t="inlineStr"/>
+      <c r="CB109" t="inlineStr"/>
+      <c r="CC109" t="inlineStr"/>
+      <c r="CD109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -9566,6 +10357,13 @@
       <c r="BU110" t="inlineStr"/>
       <c r="BV110" t="inlineStr"/>
       <c r="BW110" t="inlineStr"/>
+      <c r="BX110" t="inlineStr"/>
+      <c r="BY110" t="inlineStr"/>
+      <c r="BZ110" t="inlineStr"/>
+      <c r="CA110" t="inlineStr"/>
+      <c r="CB110" t="inlineStr"/>
+      <c r="CC110" t="inlineStr"/>
+      <c r="CD110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -9647,6 +10445,13 @@
       <c r="BU111" t="inlineStr"/>
       <c r="BV111" t="inlineStr"/>
       <c r="BW111" t="inlineStr"/>
+      <c r="BX111" t="inlineStr"/>
+      <c r="BY111" t="inlineStr"/>
+      <c r="BZ111" t="inlineStr"/>
+      <c r="CA111" t="inlineStr"/>
+      <c r="CB111" t="inlineStr"/>
+      <c r="CC111" t="inlineStr"/>
+      <c r="CD111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -9728,6 +10533,13 @@
       <c r="BU112" t="inlineStr"/>
       <c r="BV112" t="inlineStr"/>
       <c r="BW112" t="inlineStr"/>
+      <c r="BX112" t="inlineStr"/>
+      <c r="BY112" t="inlineStr"/>
+      <c r="BZ112" t="inlineStr"/>
+      <c r="CA112" t="inlineStr"/>
+      <c r="CB112" t="inlineStr"/>
+      <c r="CC112" t="inlineStr"/>
+      <c r="CD112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -9809,6 +10621,13 @@
       <c r="BU113" t="inlineStr"/>
       <c r="BV113" t="inlineStr"/>
       <c r="BW113" t="inlineStr"/>
+      <c r="BX113" t="inlineStr"/>
+      <c r="BY113" t="inlineStr"/>
+      <c r="BZ113" t="inlineStr"/>
+      <c r="CA113" t="inlineStr"/>
+      <c r="CB113" t="inlineStr"/>
+      <c r="CC113" t="inlineStr"/>
+      <c r="CD113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -9890,6 +10709,13 @@
       <c r="BU114" t="inlineStr"/>
       <c r="BV114" t="inlineStr"/>
       <c r="BW114" t="inlineStr"/>
+      <c r="BX114" t="inlineStr"/>
+      <c r="BY114" t="inlineStr"/>
+      <c r="BZ114" t="inlineStr"/>
+      <c r="CA114" t="inlineStr"/>
+      <c r="CB114" t="inlineStr"/>
+      <c r="CC114" t="inlineStr"/>
+      <c r="CD114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -9971,6 +10797,13 @@
       <c r="BU115" t="inlineStr"/>
       <c r="BV115" t="inlineStr"/>
       <c r="BW115" t="inlineStr"/>
+      <c r="BX115" t="inlineStr"/>
+      <c r="BY115" t="inlineStr"/>
+      <c r="BZ115" t="inlineStr"/>
+      <c r="CA115" t="inlineStr"/>
+      <c r="CB115" t="inlineStr"/>
+      <c r="CC115" t="inlineStr"/>
+      <c r="CD115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -10052,6 +10885,13 @@
       <c r="BU116" t="inlineStr"/>
       <c r="BV116" t="inlineStr"/>
       <c r="BW116" t="inlineStr"/>
+      <c r="BX116" t="inlineStr"/>
+      <c r="BY116" t="inlineStr"/>
+      <c r="BZ116" t="inlineStr"/>
+      <c r="CA116" t="inlineStr"/>
+      <c r="CB116" t="inlineStr"/>
+      <c r="CC116" t="inlineStr"/>
+      <c r="CD116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -10133,6 +10973,13 @@
       <c r="BU117" t="inlineStr"/>
       <c r="BV117" t="inlineStr"/>
       <c r="BW117" t="inlineStr"/>
+      <c r="BX117" t="inlineStr"/>
+      <c r="BY117" t="inlineStr"/>
+      <c r="BZ117" t="inlineStr"/>
+      <c r="CA117" t="inlineStr"/>
+      <c r="CB117" t="inlineStr"/>
+      <c r="CC117" t="inlineStr"/>
+      <c r="CD117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -10214,6 +11061,13 @@
       <c r="BU118" t="inlineStr"/>
       <c r="BV118" t="inlineStr"/>
       <c r="BW118" t="inlineStr"/>
+      <c r="BX118" t="inlineStr"/>
+      <c r="BY118" t="inlineStr"/>
+      <c r="BZ118" t="inlineStr"/>
+      <c r="CA118" t="inlineStr"/>
+      <c r="CB118" t="inlineStr"/>
+      <c r="CC118" t="inlineStr"/>
+      <c r="CD118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -10295,6 +11149,13 @@
       <c r="BU119" t="inlineStr"/>
       <c r="BV119" t="inlineStr"/>
       <c r="BW119" t="inlineStr"/>
+      <c r="BX119" t="inlineStr"/>
+      <c r="BY119" t="inlineStr"/>
+      <c r="BZ119" t="inlineStr"/>
+      <c r="CA119" t="inlineStr"/>
+      <c r="CB119" t="inlineStr"/>
+      <c r="CC119" t="inlineStr"/>
+      <c r="CD119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -10376,6 +11237,13 @@
       <c r="BU120" t="inlineStr"/>
       <c r="BV120" t="inlineStr"/>
       <c r="BW120" t="inlineStr"/>
+      <c r="BX120" t="inlineStr"/>
+      <c r="BY120" t="inlineStr"/>
+      <c r="BZ120" t="inlineStr"/>
+      <c r="CA120" t="inlineStr"/>
+      <c r="CB120" t="inlineStr"/>
+      <c r="CC120" t="inlineStr"/>
+      <c r="CD120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -10457,6 +11325,13 @@
       <c r="BU121" t="inlineStr"/>
       <c r="BV121" t="inlineStr"/>
       <c r="BW121" t="inlineStr"/>
+      <c r="BX121" t="inlineStr"/>
+      <c r="BY121" t="inlineStr"/>
+      <c r="BZ121" t="inlineStr"/>
+      <c r="CA121" t="inlineStr"/>
+      <c r="CB121" t="inlineStr"/>
+      <c r="CC121" t="inlineStr"/>
+      <c r="CD121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
@@ -10538,6 +11413,13 @@
       <c r="BU122" t="inlineStr"/>
       <c r="BV122" t="inlineStr"/>
       <c r="BW122" t="inlineStr"/>
+      <c r="BX122" t="inlineStr"/>
+      <c r="BY122" t="inlineStr"/>
+      <c r="BZ122" t="inlineStr"/>
+      <c r="CA122" t="inlineStr"/>
+      <c r="CB122" t="inlineStr"/>
+      <c r="CC122" t="inlineStr"/>
+      <c r="CD122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
@@ -10619,6 +11501,13 @@
       <c r="BU123" t="inlineStr"/>
       <c r="BV123" t="inlineStr"/>
       <c r="BW123" t="inlineStr"/>
+      <c r="BX123" t="inlineStr"/>
+      <c r="BY123" t="inlineStr"/>
+      <c r="BZ123" t="inlineStr"/>
+      <c r="CA123" t="inlineStr"/>
+      <c r="CB123" t="inlineStr"/>
+      <c r="CC123" t="inlineStr"/>
+      <c r="CD123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
@@ -10700,6 +11589,13 @@
       <c r="BU124" t="inlineStr"/>
       <c r="BV124" t="inlineStr"/>
       <c r="BW124" t="inlineStr"/>
+      <c r="BX124" t="inlineStr"/>
+      <c r="BY124" t="inlineStr"/>
+      <c r="BZ124" t="inlineStr"/>
+      <c r="CA124" t="inlineStr"/>
+      <c r="CB124" t="inlineStr"/>
+      <c r="CC124" t="inlineStr"/>
+      <c r="CD124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
@@ -10781,6 +11677,13 @@
       <c r="BU125" t="inlineStr"/>
       <c r="BV125" t="inlineStr"/>
       <c r="BW125" t="inlineStr"/>
+      <c r="BX125" t="inlineStr"/>
+      <c r="BY125" t="inlineStr"/>
+      <c r="BZ125" t="inlineStr"/>
+      <c r="CA125" t="inlineStr"/>
+      <c r="CB125" t="inlineStr"/>
+      <c r="CC125" t="inlineStr"/>
+      <c r="CD125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
@@ -10862,6 +11765,13 @@
       <c r="BU126" t="inlineStr"/>
       <c r="BV126" t="inlineStr"/>
       <c r="BW126" t="inlineStr"/>
+      <c r="BX126" t="inlineStr"/>
+      <c r="BY126" t="inlineStr"/>
+      <c r="BZ126" t="inlineStr"/>
+      <c r="CA126" t="inlineStr"/>
+      <c r="CB126" t="inlineStr"/>
+      <c r="CC126" t="inlineStr"/>
+      <c r="CD126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
@@ -10943,6 +11853,13 @@
       <c r="BU127" t="inlineStr"/>
       <c r="BV127" t="inlineStr"/>
       <c r="BW127" t="inlineStr"/>
+      <c r="BX127" t="inlineStr"/>
+      <c r="BY127" t="inlineStr"/>
+      <c r="BZ127" t="inlineStr"/>
+      <c r="CA127" t="inlineStr"/>
+      <c r="CB127" t="inlineStr"/>
+      <c r="CC127" t="inlineStr"/>
+      <c r="CD127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
@@ -11024,6 +11941,13 @@
       <c r="BU128" t="inlineStr"/>
       <c r="BV128" t="inlineStr"/>
       <c r="BW128" t="inlineStr"/>
+      <c r="BX128" t="inlineStr"/>
+      <c r="BY128" t="inlineStr"/>
+      <c r="BZ128" t="inlineStr"/>
+      <c r="CA128" t="inlineStr"/>
+      <c r="CB128" t="inlineStr"/>
+      <c r="CC128" t="inlineStr"/>
+      <c r="CD128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
@@ -11105,6 +12029,13 @@
       <c r="BU129" t="inlineStr"/>
       <c r="BV129" t="inlineStr"/>
       <c r="BW129" t="inlineStr"/>
+      <c r="BX129" t="inlineStr"/>
+      <c r="BY129" t="inlineStr"/>
+      <c r="BZ129" t="inlineStr"/>
+      <c r="CA129" t="inlineStr"/>
+      <c r="CB129" t="inlineStr"/>
+      <c r="CC129" t="inlineStr"/>
+      <c r="CD129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
@@ -11186,6 +12117,13 @@
       <c r="BU130" t="inlineStr"/>
       <c r="BV130" t="inlineStr"/>
       <c r="BW130" t="inlineStr"/>
+      <c r="BX130" t="inlineStr"/>
+      <c r="BY130" t="inlineStr"/>
+      <c r="BZ130" t="inlineStr"/>
+      <c r="CA130" t="inlineStr"/>
+      <c r="CB130" t="inlineStr"/>
+      <c r="CC130" t="inlineStr"/>
+      <c r="CD130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
@@ -11267,6 +12205,13 @@
       <c r="BU131" t="inlineStr"/>
       <c r="BV131" t="inlineStr"/>
       <c r="BW131" t="inlineStr"/>
+      <c r="BX131" t="inlineStr"/>
+      <c r="BY131" t="inlineStr"/>
+      <c r="BZ131" t="inlineStr"/>
+      <c r="CA131" t="inlineStr"/>
+      <c r="CB131" t="inlineStr"/>
+      <c r="CC131" t="inlineStr"/>
+      <c r="CD131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
@@ -11348,6 +12293,13 @@
       <c r="BU132" t="inlineStr"/>
       <c r="BV132" t="inlineStr"/>
       <c r="BW132" t="inlineStr"/>
+      <c r="BX132" t="inlineStr"/>
+      <c r="BY132" t="inlineStr"/>
+      <c r="BZ132" t="inlineStr"/>
+      <c r="CA132" t="inlineStr"/>
+      <c r="CB132" t="inlineStr"/>
+      <c r="CC132" t="inlineStr"/>
+      <c r="CD132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
@@ -11429,6 +12381,13 @@
       <c r="BU133" t="inlineStr"/>
       <c r="BV133" t="inlineStr"/>
       <c r="BW133" t="inlineStr"/>
+      <c r="BX133" t="inlineStr"/>
+      <c r="BY133" t="inlineStr"/>
+      <c r="BZ133" t="inlineStr"/>
+      <c r="CA133" t="inlineStr"/>
+      <c r="CB133" t="inlineStr"/>
+      <c r="CC133" t="inlineStr"/>
+      <c r="CD133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
@@ -11510,6 +12469,13 @@
       <c r="BU134" t="inlineStr"/>
       <c r="BV134" t="inlineStr"/>
       <c r="BW134" t="inlineStr"/>
+      <c r="BX134" t="inlineStr"/>
+      <c r="BY134" t="inlineStr"/>
+      <c r="BZ134" t="inlineStr"/>
+      <c r="CA134" t="inlineStr"/>
+      <c r="CB134" t="inlineStr"/>
+      <c r="CC134" t="inlineStr"/>
+      <c r="CD134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
@@ -11591,6 +12557,13 @@
       <c r="BU135" t="inlineStr"/>
       <c r="BV135" t="inlineStr"/>
       <c r="BW135" t="inlineStr"/>
+      <c r="BX135" t="inlineStr"/>
+      <c r="BY135" t="inlineStr"/>
+      <c r="BZ135" t="inlineStr"/>
+      <c r="CA135" t="inlineStr"/>
+      <c r="CB135" t="inlineStr"/>
+      <c r="CC135" t="inlineStr"/>
+      <c r="CD135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -11672,6 +12645,13 @@
       <c r="BU136" t="inlineStr"/>
       <c r="BV136" t="inlineStr"/>
       <c r="BW136" t="inlineStr"/>
+      <c r="BX136" t="inlineStr"/>
+      <c r="BY136" t="inlineStr"/>
+      <c r="BZ136" t="inlineStr"/>
+      <c r="CA136" t="inlineStr"/>
+      <c r="CB136" t="inlineStr"/>
+      <c r="CC136" t="inlineStr"/>
+      <c r="CD136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
@@ -11753,6 +12733,13 @@
       <c r="BU137" t="inlineStr"/>
       <c r="BV137" t="inlineStr"/>
       <c r="BW137" t="inlineStr"/>
+      <c r="BX137" t="inlineStr"/>
+      <c r="BY137" t="inlineStr"/>
+      <c r="BZ137" t="inlineStr"/>
+      <c r="CA137" t="inlineStr"/>
+      <c r="CB137" t="inlineStr"/>
+      <c r="CC137" t="inlineStr"/>
+      <c r="CD137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
@@ -11834,6 +12821,13 @@
       <c r="BU138" t="inlineStr"/>
       <c r="BV138" t="inlineStr"/>
       <c r="BW138" t="inlineStr"/>
+      <c r="BX138" t="inlineStr"/>
+      <c r="BY138" t="inlineStr"/>
+      <c r="BZ138" t="inlineStr"/>
+      <c r="CA138" t="inlineStr"/>
+      <c r="CB138" t="inlineStr"/>
+      <c r="CC138" t="inlineStr"/>
+      <c r="CD138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
@@ -11915,6 +12909,13 @@
       <c r="BU139" t="inlineStr"/>
       <c r="BV139" t="inlineStr"/>
       <c r="BW139" t="inlineStr"/>
+      <c r="BX139" t="inlineStr"/>
+      <c r="BY139" t="inlineStr"/>
+      <c r="BZ139" t="inlineStr"/>
+      <c r="CA139" t="inlineStr"/>
+      <c r="CB139" t="inlineStr"/>
+      <c r="CC139" t="inlineStr"/>
+      <c r="CD139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -11996,6 +12997,13 @@
       <c r="BU140" t="inlineStr"/>
       <c r="BV140" t="inlineStr"/>
       <c r="BW140" t="inlineStr"/>
+      <c r="BX140" t="inlineStr"/>
+      <c r="BY140" t="inlineStr"/>
+      <c r="BZ140" t="inlineStr"/>
+      <c r="CA140" t="inlineStr"/>
+      <c r="CB140" t="inlineStr"/>
+      <c r="CC140" t="inlineStr"/>
+      <c r="CD140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
@@ -12077,6 +13085,13 @@
       <c r="BU141" t="inlineStr"/>
       <c r="BV141" t="inlineStr"/>
       <c r="BW141" t="inlineStr"/>
+      <c r="BX141" t="inlineStr"/>
+      <c r="BY141" t="inlineStr"/>
+      <c r="BZ141" t="inlineStr"/>
+      <c r="CA141" t="inlineStr"/>
+      <c r="CB141" t="inlineStr"/>
+      <c r="CC141" t="inlineStr"/>
+      <c r="CD141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
@@ -12158,6 +13173,13 @@
       <c r="BU142" t="inlineStr"/>
       <c r="BV142" t="inlineStr"/>
       <c r="BW142" t="inlineStr"/>
+      <c r="BX142" t="inlineStr"/>
+      <c r="BY142" t="inlineStr"/>
+      <c r="BZ142" t="inlineStr"/>
+      <c r="CA142" t="inlineStr"/>
+      <c r="CB142" t="inlineStr"/>
+      <c r="CC142" t="inlineStr"/>
+      <c r="CD142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
@@ -12239,6 +13261,13 @@
       <c r="BU143" t="inlineStr"/>
       <c r="BV143" t="inlineStr"/>
       <c r="BW143" t="inlineStr"/>
+      <c r="BX143" t="inlineStr"/>
+      <c r="BY143" t="inlineStr"/>
+      <c r="BZ143" t="inlineStr"/>
+      <c r="CA143" t="inlineStr"/>
+      <c r="CB143" t="inlineStr"/>
+      <c r="CC143" t="inlineStr"/>
+      <c r="CD143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
@@ -12320,6 +13349,13 @@
       <c r="BU144" t="inlineStr"/>
       <c r="BV144" t="inlineStr"/>
       <c r="BW144" t="inlineStr"/>
+      <c r="BX144" t="inlineStr"/>
+      <c r="BY144" t="inlineStr"/>
+      <c r="BZ144" t="inlineStr"/>
+      <c r="CA144" t="inlineStr"/>
+      <c r="CB144" t="inlineStr"/>
+      <c r="CC144" t="inlineStr"/>
+      <c r="CD144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
@@ -12401,6 +13437,13 @@
       <c r="BU145" t="inlineStr"/>
       <c r="BV145" t="inlineStr"/>
       <c r="BW145" t="inlineStr"/>
+      <c r="BX145" t="inlineStr"/>
+      <c r="BY145" t="inlineStr"/>
+      <c r="BZ145" t="inlineStr"/>
+      <c r="CA145" t="inlineStr"/>
+      <c r="CB145" t="inlineStr"/>
+      <c r="CC145" t="inlineStr"/>
+      <c r="CD145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
@@ -12482,6 +13525,13 @@
       <c r="BU146" t="inlineStr"/>
       <c r="BV146" t="inlineStr"/>
       <c r="BW146" t="inlineStr"/>
+      <c r="BX146" t="inlineStr"/>
+      <c r="BY146" t="inlineStr"/>
+      <c r="BZ146" t="inlineStr"/>
+      <c r="CA146" t="inlineStr"/>
+      <c r="CB146" t="inlineStr"/>
+      <c r="CC146" t="inlineStr"/>
+      <c r="CD146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
@@ -12563,6 +13613,13 @@
       <c r="BU147" t="inlineStr"/>
       <c r="BV147" t="inlineStr"/>
       <c r="BW147" t="inlineStr"/>
+      <c r="BX147" t="inlineStr"/>
+      <c r="BY147" t="inlineStr"/>
+      <c r="BZ147" t="inlineStr"/>
+      <c r="CA147" t="inlineStr"/>
+      <c r="CB147" t="inlineStr"/>
+      <c r="CC147" t="inlineStr"/>
+      <c r="CD147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
@@ -12644,6 +13701,13 @@
       <c r="BU148" t="inlineStr"/>
       <c r="BV148" t="inlineStr"/>
       <c r="BW148" t="inlineStr"/>
+      <c r="BX148" t="inlineStr"/>
+      <c r="BY148" t="inlineStr"/>
+      <c r="BZ148" t="inlineStr"/>
+      <c r="CA148" t="inlineStr"/>
+      <c r="CB148" t="inlineStr"/>
+      <c r="CC148" t="inlineStr"/>
+      <c r="CD148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -12725,6 +13789,13 @@
       <c r="BU149" t="inlineStr"/>
       <c r="BV149" t="inlineStr"/>
       <c r="BW149" t="inlineStr"/>
+      <c r="BX149" t="inlineStr"/>
+      <c r="BY149" t="inlineStr"/>
+      <c r="BZ149" t="inlineStr"/>
+      <c r="CA149" t="inlineStr"/>
+      <c r="CB149" t="inlineStr"/>
+      <c r="CC149" t="inlineStr"/>
+      <c r="CD149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
@@ -12806,6 +13877,13 @@
       <c r="BU150" t="inlineStr"/>
       <c r="BV150" t="inlineStr"/>
       <c r="BW150" t="inlineStr"/>
+      <c r="BX150" t="inlineStr"/>
+      <c r="BY150" t="inlineStr"/>
+      <c r="BZ150" t="inlineStr"/>
+      <c r="CA150" t="inlineStr"/>
+      <c r="CB150" t="inlineStr"/>
+      <c r="CC150" t="inlineStr"/>
+      <c r="CD150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
@@ -12887,6 +13965,13 @@
       <c r="BU151" t="inlineStr"/>
       <c r="BV151" t="inlineStr"/>
       <c r="BW151" t="inlineStr"/>
+      <c r="BX151" t="inlineStr"/>
+      <c r="BY151" t="inlineStr"/>
+      <c r="BZ151" t="inlineStr"/>
+      <c r="CA151" t="inlineStr"/>
+      <c r="CB151" t="inlineStr"/>
+      <c r="CC151" t="inlineStr"/>
+      <c r="CD151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
@@ -12968,6 +14053,13 @@
       <c r="BU152" t="inlineStr"/>
       <c r="BV152" t="inlineStr"/>
       <c r="BW152" t="inlineStr"/>
+      <c r="BX152" t="inlineStr"/>
+      <c r="BY152" t="inlineStr"/>
+      <c r="BZ152" t="inlineStr"/>
+      <c r="CA152" t="inlineStr"/>
+      <c r="CB152" t="inlineStr"/>
+      <c r="CC152" t="inlineStr"/>
+      <c r="CD152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
@@ -13049,6 +14141,13 @@
       <c r="BU153" t="inlineStr"/>
       <c r="BV153" t="inlineStr"/>
       <c r="BW153" t="inlineStr"/>
+      <c r="BX153" t="inlineStr"/>
+      <c r="BY153" t="inlineStr"/>
+      <c r="BZ153" t="inlineStr"/>
+      <c r="CA153" t="inlineStr"/>
+      <c r="CB153" t="inlineStr"/>
+      <c r="CC153" t="inlineStr"/>
+      <c r="CD153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
@@ -13130,6 +14229,13 @@
       <c r="BU154" t="inlineStr"/>
       <c r="BV154" t="inlineStr"/>
       <c r="BW154" t="inlineStr"/>
+      <c r="BX154" t="inlineStr"/>
+      <c r="BY154" t="inlineStr"/>
+      <c r="BZ154" t="inlineStr"/>
+      <c r="CA154" t="inlineStr"/>
+      <c r="CB154" t="inlineStr"/>
+      <c r="CC154" t="inlineStr"/>
+      <c r="CD154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
@@ -13211,6 +14317,13 @@
       <c r="BU155" t="inlineStr"/>
       <c r="BV155" t="inlineStr"/>
       <c r="BW155" t="inlineStr"/>
+      <c r="BX155" t="inlineStr"/>
+      <c r="BY155" t="inlineStr"/>
+      <c r="BZ155" t="inlineStr"/>
+      <c r="CA155" t="inlineStr"/>
+      <c r="CB155" t="inlineStr"/>
+      <c r="CC155" t="inlineStr"/>
+      <c r="CD155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
@@ -13292,6 +14405,13 @@
       <c r="BU156" t="inlineStr"/>
       <c r="BV156" t="inlineStr"/>
       <c r="BW156" t="inlineStr"/>
+      <c r="BX156" t="inlineStr"/>
+      <c r="BY156" t="inlineStr"/>
+      <c r="BZ156" t="inlineStr"/>
+      <c r="CA156" t="inlineStr"/>
+      <c r="CB156" t="inlineStr"/>
+      <c r="CC156" t="inlineStr"/>
+      <c r="CD156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
@@ -13373,6 +14493,13 @@
       <c r="BU157" t="inlineStr"/>
       <c r="BV157" t="inlineStr"/>
       <c r="BW157" t="inlineStr"/>
+      <c r="BX157" t="inlineStr"/>
+      <c r="BY157" t="inlineStr"/>
+      <c r="BZ157" t="inlineStr"/>
+      <c r="CA157" t="inlineStr"/>
+      <c r="CB157" t="inlineStr"/>
+      <c r="CC157" t="inlineStr"/>
+      <c r="CD157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -13454,6 +14581,13 @@
       <c r="BU158" t="inlineStr"/>
       <c r="BV158" t="inlineStr"/>
       <c r="BW158" t="inlineStr"/>
+      <c r="BX158" t="inlineStr"/>
+      <c r="BY158" t="inlineStr"/>
+      <c r="BZ158" t="inlineStr"/>
+      <c r="CA158" t="inlineStr"/>
+      <c r="CB158" t="inlineStr"/>
+      <c r="CC158" t="inlineStr"/>
+      <c r="CD158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
@@ -13535,6 +14669,13 @@
       <c r="BU159" t="inlineStr"/>
       <c r="BV159" t="inlineStr"/>
       <c r="BW159" t="inlineStr"/>
+      <c r="BX159" t="inlineStr"/>
+      <c r="BY159" t="inlineStr"/>
+      <c r="BZ159" t="inlineStr"/>
+      <c r="CA159" t="inlineStr"/>
+      <c r="CB159" t="inlineStr"/>
+      <c r="CC159" t="inlineStr"/>
+      <c r="CD159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
@@ -13616,6 +14757,13 @@
       <c r="BU160" t="inlineStr"/>
       <c r="BV160" t="inlineStr"/>
       <c r="BW160" t="inlineStr"/>
+      <c r="BX160" t="inlineStr"/>
+      <c r="BY160" t="inlineStr"/>
+      <c r="BZ160" t="inlineStr"/>
+      <c r="CA160" t="inlineStr"/>
+      <c r="CB160" t="inlineStr"/>
+      <c r="CC160" t="inlineStr"/>
+      <c r="CD160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
@@ -13697,6 +14845,13 @@
       <c r="BU161" t="inlineStr"/>
       <c r="BV161" t="inlineStr"/>
       <c r="BW161" t="inlineStr"/>
+      <c r="BX161" t="inlineStr"/>
+      <c r="BY161" t="inlineStr"/>
+      <c r="BZ161" t="inlineStr"/>
+      <c r="CA161" t="inlineStr"/>
+      <c r="CB161" t="inlineStr"/>
+      <c r="CC161" t="inlineStr"/>
+      <c r="CD161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
@@ -13778,6 +14933,13 @@
       <c r="BU162" t="inlineStr"/>
       <c r="BV162" t="inlineStr"/>
       <c r="BW162" t="inlineStr"/>
+      <c r="BX162" t="inlineStr"/>
+      <c r="BY162" t="inlineStr"/>
+      <c r="BZ162" t="inlineStr"/>
+      <c r="CA162" t="inlineStr"/>
+      <c r="CB162" t="inlineStr"/>
+      <c r="CC162" t="inlineStr"/>
+      <c r="CD162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
@@ -13859,6 +15021,13 @@
       <c r="BU163" t="inlineStr"/>
       <c r="BV163" t="inlineStr"/>
       <c r="BW163" t="inlineStr"/>
+      <c r="BX163" t="inlineStr"/>
+      <c r="BY163" t="inlineStr"/>
+      <c r="BZ163" t="inlineStr"/>
+      <c r="CA163" t="inlineStr"/>
+      <c r="CB163" t="inlineStr"/>
+      <c r="CC163" t="inlineStr"/>
+      <c r="CD163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
@@ -13940,6 +15109,13 @@
       <c r="BU164" t="inlineStr"/>
       <c r="BV164" t="inlineStr"/>
       <c r="BW164" t="inlineStr"/>
+      <c r="BX164" t="inlineStr"/>
+      <c r="BY164" t="inlineStr"/>
+      <c r="BZ164" t="inlineStr"/>
+      <c r="CA164" t="inlineStr"/>
+      <c r="CB164" t="inlineStr"/>
+      <c r="CC164" t="inlineStr"/>
+      <c r="CD164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
@@ -14021,6 +15197,13 @@
       <c r="BU165" t="inlineStr"/>
       <c r="BV165" t="inlineStr"/>
       <c r="BW165" t="inlineStr"/>
+      <c r="BX165" t="inlineStr"/>
+      <c r="BY165" t="inlineStr"/>
+      <c r="BZ165" t="inlineStr"/>
+      <c r="CA165" t="inlineStr"/>
+      <c r="CB165" t="inlineStr"/>
+      <c r="CC165" t="inlineStr"/>
+      <c r="CD165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
@@ -14102,6 +15285,13 @@
       <c r="BU166" t="inlineStr"/>
       <c r="BV166" t="inlineStr"/>
       <c r="BW166" t="inlineStr"/>
+      <c r="BX166" t="inlineStr"/>
+      <c r="BY166" t="inlineStr"/>
+      <c r="BZ166" t="inlineStr"/>
+      <c r="CA166" t="inlineStr"/>
+      <c r="CB166" t="inlineStr"/>
+      <c r="CC166" t="inlineStr"/>
+      <c r="CD166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
@@ -14183,6 +15373,13 @@
       <c r="BU167" t="inlineStr"/>
       <c r="BV167" t="inlineStr"/>
       <c r="BW167" t="inlineStr"/>
+      <c r="BX167" t="inlineStr"/>
+      <c r="BY167" t="inlineStr"/>
+      <c r="BZ167" t="inlineStr"/>
+      <c r="CA167" t="inlineStr"/>
+      <c r="CB167" t="inlineStr"/>
+      <c r="CC167" t="inlineStr"/>
+      <c r="CD167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
@@ -14264,6 +15461,13 @@
       <c r="BU168" t="inlineStr"/>
       <c r="BV168" t="inlineStr"/>
       <c r="BW168" t="inlineStr"/>
+      <c r="BX168" t="inlineStr"/>
+      <c r="BY168" t="inlineStr"/>
+      <c r="BZ168" t="inlineStr"/>
+      <c r="CA168" t="inlineStr"/>
+      <c r="CB168" t="inlineStr"/>
+      <c r="CC168" t="inlineStr"/>
+      <c r="CD168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
@@ -14345,6 +15549,13 @@
       <c r="BU169" t="inlineStr"/>
       <c r="BV169" t="inlineStr"/>
       <c r="BW169" t="inlineStr"/>
+      <c r="BX169" t="inlineStr"/>
+      <c r="BY169" t="inlineStr"/>
+      <c r="BZ169" t="inlineStr"/>
+      <c r="CA169" t="inlineStr"/>
+      <c r="CB169" t="inlineStr"/>
+      <c r="CC169" t="inlineStr"/>
+      <c r="CD169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
@@ -14426,6 +15637,13 @@
       <c r="BU170" t="inlineStr"/>
       <c r="BV170" t="inlineStr"/>
       <c r="BW170" t="inlineStr"/>
+      <c r="BX170" t="inlineStr"/>
+      <c r="BY170" t="inlineStr"/>
+      <c r="BZ170" t="inlineStr"/>
+      <c r="CA170" t="inlineStr"/>
+      <c r="CB170" t="inlineStr"/>
+      <c r="CC170" t="inlineStr"/>
+      <c r="CD170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
@@ -14507,6 +15725,13 @@
       <c r="BU171" t="inlineStr"/>
       <c r="BV171" t="inlineStr"/>
       <c r="BW171" t="inlineStr"/>
+      <c r="BX171" t="inlineStr"/>
+      <c r="BY171" t="inlineStr"/>
+      <c r="BZ171" t="inlineStr"/>
+      <c r="CA171" t="inlineStr"/>
+      <c r="CB171" t="inlineStr"/>
+      <c r="CC171" t="inlineStr"/>
+      <c r="CD171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
@@ -14588,6 +15813,13 @@
       <c r="BU172" t="inlineStr"/>
       <c r="BV172" t="inlineStr"/>
       <c r="BW172" t="inlineStr"/>
+      <c r="BX172" t="inlineStr"/>
+      <c r="BY172" t="inlineStr"/>
+      <c r="BZ172" t="inlineStr"/>
+      <c r="CA172" t="inlineStr"/>
+      <c r="CB172" t="inlineStr"/>
+      <c r="CC172" t="inlineStr"/>
+      <c r="CD172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
@@ -14669,6 +15901,13 @@
       <c r="BU173" t="inlineStr"/>
       <c r="BV173" t="inlineStr"/>
       <c r="BW173" t="inlineStr"/>
+      <c r="BX173" t="inlineStr"/>
+      <c r="BY173" t="inlineStr"/>
+      <c r="BZ173" t="inlineStr"/>
+      <c r="CA173" t="inlineStr"/>
+      <c r="CB173" t="inlineStr"/>
+      <c r="CC173" t="inlineStr"/>
+      <c r="CD173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
@@ -14750,6 +15989,13 @@
       <c r="BU174" t="inlineStr"/>
       <c r="BV174" t="inlineStr"/>
       <c r="BW174" t="inlineStr"/>
+      <c r="BX174" t="inlineStr"/>
+      <c r="BY174" t="inlineStr"/>
+      <c r="BZ174" t="inlineStr"/>
+      <c r="CA174" t="inlineStr"/>
+      <c r="CB174" t="inlineStr"/>
+      <c r="CC174" t="inlineStr"/>
+      <c r="CD174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
@@ -14831,6 +16077,13 @@
       <c r="BU175" t="inlineStr"/>
       <c r="BV175" t="inlineStr"/>
       <c r="BW175" t="inlineStr"/>
+      <c r="BX175" t="inlineStr"/>
+      <c r="BY175" t="inlineStr"/>
+      <c r="BZ175" t="inlineStr"/>
+      <c r="CA175" t="inlineStr"/>
+      <c r="CB175" t="inlineStr"/>
+      <c r="CC175" t="inlineStr"/>
+      <c r="CD175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
@@ -14912,6 +16165,13 @@
       <c r="BU176" t="inlineStr"/>
       <c r="BV176" t="inlineStr"/>
       <c r="BW176" t="inlineStr"/>
+      <c r="BX176" t="inlineStr"/>
+      <c r="BY176" t="inlineStr"/>
+      <c r="BZ176" t="inlineStr"/>
+      <c r="CA176" t="inlineStr"/>
+      <c r="CB176" t="inlineStr"/>
+      <c r="CC176" t="inlineStr"/>
+      <c r="CD176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
@@ -14993,6 +16253,13 @@
       <c r="BU177" t="inlineStr"/>
       <c r="BV177" t="inlineStr"/>
       <c r="BW177" t="inlineStr"/>
+      <c r="BX177" t="inlineStr"/>
+      <c r="BY177" t="inlineStr"/>
+      <c r="BZ177" t="inlineStr"/>
+      <c r="CA177" t="inlineStr"/>
+      <c r="CB177" t="inlineStr"/>
+      <c r="CC177" t="inlineStr"/>
+      <c r="CD177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
@@ -15074,6 +16341,13 @@
       <c r="BU178" t="inlineStr"/>
       <c r="BV178" t="inlineStr"/>
       <c r="BW178" t="inlineStr"/>
+      <c r="BX178" t="inlineStr"/>
+      <c r="BY178" t="inlineStr"/>
+      <c r="BZ178" t="inlineStr"/>
+      <c r="CA178" t="inlineStr"/>
+      <c r="CB178" t="inlineStr"/>
+      <c r="CC178" t="inlineStr"/>
+      <c r="CD178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
@@ -15155,6 +16429,13 @@
       <c r="BU179" t="inlineStr"/>
       <c r="BV179" t="inlineStr"/>
       <c r="BW179" t="inlineStr"/>
+      <c r="BX179" t="inlineStr"/>
+      <c r="BY179" t="inlineStr"/>
+      <c r="BZ179" t="inlineStr"/>
+      <c r="CA179" t="inlineStr"/>
+      <c r="CB179" t="inlineStr"/>
+      <c r="CC179" t="inlineStr"/>
+      <c r="CD179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
@@ -15236,6 +16517,13 @@
       <c r="BU180" t="inlineStr"/>
       <c r="BV180" t="inlineStr"/>
       <c r="BW180" t="inlineStr"/>
+      <c r="BX180" t="inlineStr"/>
+      <c r="BY180" t="inlineStr"/>
+      <c r="BZ180" t="inlineStr"/>
+      <c r="CA180" t="inlineStr"/>
+      <c r="CB180" t="inlineStr"/>
+      <c r="CC180" t="inlineStr"/>
+      <c r="CD180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -15317,6 +16605,13 @@
       <c r="BU181" t="inlineStr"/>
       <c r="BV181" t="inlineStr"/>
       <c r="BW181" t="inlineStr"/>
+      <c r="BX181" t="inlineStr"/>
+      <c r="BY181" t="inlineStr"/>
+      <c r="BZ181" t="inlineStr"/>
+      <c r="CA181" t="inlineStr"/>
+      <c r="CB181" t="inlineStr"/>
+      <c r="CC181" t="inlineStr"/>
+      <c r="CD181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
@@ -15398,6 +16693,13 @@
       <c r="BU182" t="inlineStr"/>
       <c r="BV182" t="inlineStr"/>
       <c r="BW182" t="inlineStr"/>
+      <c r="BX182" t="inlineStr"/>
+      <c r="BY182" t="inlineStr"/>
+      <c r="BZ182" t="inlineStr"/>
+      <c r="CA182" t="inlineStr"/>
+      <c r="CB182" t="inlineStr"/>
+      <c r="CC182" t="inlineStr"/>
+      <c r="CD182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
@@ -15479,6 +16781,13 @@
       <c r="BU183" t="inlineStr"/>
       <c r="BV183" t="inlineStr"/>
       <c r="BW183" t="inlineStr"/>
+      <c r="BX183" t="inlineStr"/>
+      <c r="BY183" t="inlineStr"/>
+      <c r="BZ183" t="inlineStr"/>
+      <c r="CA183" t="inlineStr"/>
+      <c r="CB183" t="inlineStr"/>
+      <c r="CC183" t="inlineStr"/>
+      <c r="CD183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
@@ -15560,6 +16869,13 @@
       <c r="BU184" t="inlineStr"/>
       <c r="BV184" t="inlineStr"/>
       <c r="BW184" t="inlineStr"/>
+      <c r="BX184" t="inlineStr"/>
+      <c r="BY184" t="inlineStr"/>
+      <c r="BZ184" t="inlineStr"/>
+      <c r="CA184" t="inlineStr"/>
+      <c r="CB184" t="inlineStr"/>
+      <c r="CC184" t="inlineStr"/>
+      <c r="CD184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
@@ -15641,6 +16957,13 @@
       <c r="BU185" t="inlineStr"/>
       <c r="BV185" t="inlineStr"/>
       <c r="BW185" t="inlineStr"/>
+      <c r="BX185" t="inlineStr"/>
+      <c r="BY185" t="inlineStr"/>
+      <c r="BZ185" t="inlineStr"/>
+      <c r="CA185" t="inlineStr"/>
+      <c r="CB185" t="inlineStr"/>
+      <c r="CC185" t="inlineStr"/>
+      <c r="CD185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
@@ -15722,6 +17045,13 @@
       <c r="BU186" t="inlineStr"/>
       <c r="BV186" t="inlineStr"/>
       <c r="BW186" t="inlineStr"/>
+      <c r="BX186" t="inlineStr"/>
+      <c r="BY186" t="inlineStr"/>
+      <c r="BZ186" t="inlineStr"/>
+      <c r="CA186" t="inlineStr"/>
+      <c r="CB186" t="inlineStr"/>
+      <c r="CC186" t="inlineStr"/>
+      <c r="CD186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
@@ -15803,6 +17133,13 @@
       <c r="BU187" t="inlineStr"/>
       <c r="BV187" t="inlineStr"/>
       <c r="BW187" t="inlineStr"/>
+      <c r="BX187" t="inlineStr"/>
+      <c r="BY187" t="inlineStr"/>
+      <c r="BZ187" t="inlineStr"/>
+      <c r="CA187" t="inlineStr"/>
+      <c r="CB187" t="inlineStr"/>
+      <c r="CC187" t="inlineStr"/>
+      <c r="CD187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
@@ -15884,6 +17221,13 @@
       <c r="BU188" t="inlineStr"/>
       <c r="BV188" t="inlineStr"/>
       <c r="BW188" t="inlineStr"/>
+      <c r="BX188" t="inlineStr"/>
+      <c r="BY188" t="inlineStr"/>
+      <c r="BZ188" t="inlineStr"/>
+      <c r="CA188" t="inlineStr"/>
+      <c r="CB188" t="inlineStr"/>
+      <c r="CC188" t="inlineStr"/>
+      <c r="CD188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
@@ -15965,6 +17309,13 @@
       <c r="BU189" t="inlineStr"/>
       <c r="BV189" t="inlineStr"/>
       <c r="BW189" t="inlineStr"/>
+      <c r="BX189" t="inlineStr"/>
+      <c r="BY189" t="inlineStr"/>
+      <c r="BZ189" t="inlineStr"/>
+      <c r="CA189" t="inlineStr"/>
+      <c r="CB189" t="inlineStr"/>
+      <c r="CC189" t="inlineStr"/>
+      <c r="CD189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
@@ -16046,6 +17397,13 @@
       <c r="BU190" t="inlineStr"/>
       <c r="BV190" t="inlineStr"/>
       <c r="BW190" t="inlineStr"/>
+      <c r="BX190" t="inlineStr"/>
+      <c r="BY190" t="inlineStr"/>
+      <c r="BZ190" t="inlineStr"/>
+      <c r="CA190" t="inlineStr"/>
+      <c r="CB190" t="inlineStr"/>
+      <c r="CC190" t="inlineStr"/>
+      <c r="CD190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
@@ -16127,6 +17485,13 @@
       <c r="BU191" t="inlineStr"/>
       <c r="BV191" t="inlineStr"/>
       <c r="BW191" t="inlineStr"/>
+      <c r="BX191" t="inlineStr"/>
+      <c r="BY191" t="inlineStr"/>
+      <c r="BZ191" t="inlineStr"/>
+      <c r="CA191" t="inlineStr"/>
+      <c r="CB191" t="inlineStr"/>
+      <c r="CC191" t="inlineStr"/>
+      <c r="CD191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
@@ -16208,6 +17573,13 @@
       <c r="BU192" t="inlineStr"/>
       <c r="BV192" t="inlineStr"/>
       <c r="BW192" t="inlineStr"/>
+      <c r="BX192" t="inlineStr"/>
+      <c r="BY192" t="inlineStr"/>
+      <c r="BZ192" t="inlineStr"/>
+      <c r="CA192" t="inlineStr"/>
+      <c r="CB192" t="inlineStr"/>
+      <c r="CC192" t="inlineStr"/>
+      <c r="CD192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
@@ -16289,6 +17661,13 @@
       <c r="BU193" t="inlineStr"/>
       <c r="BV193" t="inlineStr"/>
       <c r="BW193" t="inlineStr"/>
+      <c r="BX193" t="inlineStr"/>
+      <c r="BY193" t="inlineStr"/>
+      <c r="BZ193" t="inlineStr"/>
+      <c r="CA193" t="inlineStr"/>
+      <c r="CB193" t="inlineStr"/>
+      <c r="CC193" t="inlineStr"/>
+      <c r="CD193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
@@ -16370,6 +17749,13 @@
       <c r="BU194" t="inlineStr"/>
       <c r="BV194" t="inlineStr"/>
       <c r="BW194" t="inlineStr"/>
+      <c r="BX194" t="inlineStr"/>
+      <c r="BY194" t="inlineStr"/>
+      <c r="BZ194" t="inlineStr"/>
+      <c r="CA194" t="inlineStr"/>
+      <c r="CB194" t="inlineStr"/>
+      <c r="CC194" t="inlineStr"/>
+      <c r="CD194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
@@ -16451,6 +17837,13 @@
       <c r="BU195" t="inlineStr"/>
       <c r="BV195" t="inlineStr"/>
       <c r="BW195" t="inlineStr"/>
+      <c r="BX195" t="inlineStr"/>
+      <c r="BY195" t="inlineStr"/>
+      <c r="BZ195" t="inlineStr"/>
+      <c r="CA195" t="inlineStr"/>
+      <c r="CB195" t="inlineStr"/>
+      <c r="CC195" t="inlineStr"/>
+      <c r="CD195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
@@ -16532,6 +17925,13 @@
       <c r="BU196" t="inlineStr"/>
       <c r="BV196" t="inlineStr"/>
       <c r="BW196" t="inlineStr"/>
+      <c r="BX196" t="inlineStr"/>
+      <c r="BY196" t="inlineStr"/>
+      <c r="BZ196" t="inlineStr"/>
+      <c r="CA196" t="inlineStr"/>
+      <c r="CB196" t="inlineStr"/>
+      <c r="CC196" t="inlineStr"/>
+      <c r="CD196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
@@ -16613,6 +18013,13 @@
       <c r="BU197" t="inlineStr"/>
       <c r="BV197" t="inlineStr"/>
       <c r="BW197" t="inlineStr"/>
+      <c r="BX197" t="inlineStr"/>
+      <c r="BY197" t="inlineStr"/>
+      <c r="BZ197" t="inlineStr"/>
+      <c r="CA197" t="inlineStr"/>
+      <c r="CB197" t="inlineStr"/>
+      <c r="CC197" t="inlineStr"/>
+      <c r="CD197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
@@ -16694,6 +18101,13 @@
       <c r="BU198" t="inlineStr"/>
       <c r="BV198" t="inlineStr"/>
       <c r="BW198" t="inlineStr"/>
+      <c r="BX198" t="inlineStr"/>
+      <c r="BY198" t="inlineStr"/>
+      <c r="BZ198" t="inlineStr"/>
+      <c r="CA198" t="inlineStr"/>
+      <c r="CB198" t="inlineStr"/>
+      <c r="CC198" t="inlineStr"/>
+      <c r="CD198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
@@ -16775,6 +18189,13 @@
       <c r="BU199" t="inlineStr"/>
       <c r="BV199" t="inlineStr"/>
       <c r="BW199" t="inlineStr"/>
+      <c r="BX199" t="inlineStr"/>
+      <c r="BY199" t="inlineStr"/>
+      <c r="BZ199" t="inlineStr"/>
+      <c r="CA199" t="inlineStr"/>
+      <c r="CB199" t="inlineStr"/>
+      <c r="CC199" t="inlineStr"/>
+      <c r="CD199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
@@ -16856,6 +18277,13 @@
       <c r="BU200" t="inlineStr"/>
       <c r="BV200" t="inlineStr"/>
       <c r="BW200" t="inlineStr"/>
+      <c r="BX200" t="inlineStr"/>
+      <c r="BY200" t="inlineStr"/>
+      <c r="BZ200" t="inlineStr"/>
+      <c r="CA200" t="inlineStr"/>
+      <c r="CB200" t="inlineStr"/>
+      <c r="CC200" t="inlineStr"/>
+      <c r="CD200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
@@ -16937,6 +18365,13 @@
       <c r="BU201" t="inlineStr"/>
       <c r="BV201" t="inlineStr"/>
       <c r="BW201" t="inlineStr"/>
+      <c r="BX201" t="inlineStr"/>
+      <c r="BY201" t="inlineStr"/>
+      <c r="BZ201" t="inlineStr"/>
+      <c r="CA201" t="inlineStr"/>
+      <c r="CB201" t="inlineStr"/>
+      <c r="CC201" t="inlineStr"/>
+      <c r="CD201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -17018,6 +18453,13 @@
       <c r="BU202" t="inlineStr"/>
       <c r="BV202" t="inlineStr"/>
       <c r="BW202" t="inlineStr"/>
+      <c r="BX202" t="inlineStr"/>
+      <c r="BY202" t="inlineStr"/>
+      <c r="BZ202" t="inlineStr"/>
+      <c r="CA202" t="inlineStr"/>
+      <c r="CB202" t="inlineStr"/>
+      <c r="CC202" t="inlineStr"/>
+      <c r="CD202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
@@ -17099,6 +18541,13 @@
       <c r="BU203" t="inlineStr"/>
       <c r="BV203" t="inlineStr"/>
       <c r="BW203" t="inlineStr"/>
+      <c r="BX203" t="inlineStr"/>
+      <c r="BY203" t="inlineStr"/>
+      <c r="BZ203" t="inlineStr"/>
+      <c r="CA203" t="inlineStr"/>
+      <c r="CB203" t="inlineStr"/>
+      <c r="CC203" t="inlineStr"/>
+      <c r="CD203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
@@ -17180,6 +18629,13 @@
       <c r="BU204" t="inlineStr"/>
       <c r="BV204" t="inlineStr"/>
       <c r="BW204" t="inlineStr"/>
+      <c r="BX204" t="inlineStr"/>
+      <c r="BY204" t="inlineStr"/>
+      <c r="BZ204" t="inlineStr"/>
+      <c r="CA204" t="inlineStr"/>
+      <c r="CB204" t="inlineStr"/>
+      <c r="CC204" t="inlineStr"/>
+      <c r="CD204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
@@ -17261,6 +18717,13 @@
       <c r="BU205" t="inlineStr"/>
       <c r="BV205" t="inlineStr"/>
       <c r="BW205" t="inlineStr"/>
+      <c r="BX205" t="inlineStr"/>
+      <c r="BY205" t="inlineStr"/>
+      <c r="BZ205" t="inlineStr"/>
+      <c r="CA205" t="inlineStr"/>
+      <c r="CB205" t="inlineStr"/>
+      <c r="CC205" t="inlineStr"/>
+      <c r="CD205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
@@ -17342,6 +18805,13 @@
       <c r="BU206" t="inlineStr"/>
       <c r="BV206" t="inlineStr"/>
       <c r="BW206" t="inlineStr"/>
+      <c r="BX206" t="inlineStr"/>
+      <c r="BY206" t="inlineStr"/>
+      <c r="BZ206" t="inlineStr"/>
+      <c r="CA206" t="inlineStr"/>
+      <c r="CB206" t="inlineStr"/>
+      <c r="CC206" t="inlineStr"/>
+      <c r="CD206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
@@ -17423,6 +18893,13 @@
       <c r="BU207" t="inlineStr"/>
       <c r="BV207" t="inlineStr"/>
       <c r="BW207" t="inlineStr"/>
+      <c r="BX207" t="inlineStr"/>
+      <c r="BY207" t="inlineStr"/>
+      <c r="BZ207" t="inlineStr"/>
+      <c r="CA207" t="inlineStr"/>
+      <c r="CB207" t="inlineStr"/>
+      <c r="CC207" t="inlineStr"/>
+      <c r="CD207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
@@ -17504,6 +18981,13 @@
       <c r="BU208" t="inlineStr"/>
       <c r="BV208" t="inlineStr"/>
       <c r="BW208" t="inlineStr"/>
+      <c r="BX208" t="inlineStr"/>
+      <c r="BY208" t="inlineStr"/>
+      <c r="BZ208" t="inlineStr"/>
+      <c r="CA208" t="inlineStr"/>
+      <c r="CB208" t="inlineStr"/>
+      <c r="CC208" t="inlineStr"/>
+      <c r="CD208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
@@ -17585,6 +19069,13 @@
       <c r="BU209" t="inlineStr"/>
       <c r="BV209" t="inlineStr"/>
       <c r="BW209" t="inlineStr"/>
+      <c r="BX209" t="inlineStr"/>
+      <c r="BY209" t="inlineStr"/>
+      <c r="BZ209" t="inlineStr"/>
+      <c r="CA209" t="inlineStr"/>
+      <c r="CB209" t="inlineStr"/>
+      <c r="CC209" t="inlineStr"/>
+      <c r="CD209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
@@ -17666,6 +19157,13 @@
       <c r="BU210" t="inlineStr"/>
       <c r="BV210" t="inlineStr"/>
       <c r="BW210" t="inlineStr"/>
+      <c r="BX210" t="inlineStr"/>
+      <c r="BY210" t="inlineStr"/>
+      <c r="BZ210" t="inlineStr"/>
+      <c r="CA210" t="inlineStr"/>
+      <c r="CB210" t="inlineStr"/>
+      <c r="CC210" t="inlineStr"/>
+      <c r="CD210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
@@ -17747,6 +19245,13 @@
       <c r="BU211" t="inlineStr"/>
       <c r="BV211" t="inlineStr"/>
       <c r="BW211" t="inlineStr"/>
+      <c r="BX211" t="inlineStr"/>
+      <c r="BY211" t="inlineStr"/>
+      <c r="BZ211" t="inlineStr"/>
+      <c r="CA211" t="inlineStr"/>
+      <c r="CB211" t="inlineStr"/>
+      <c r="CC211" t="inlineStr"/>
+      <c r="CD211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -17828,6 +19333,13 @@
       <c r="BU212" t="inlineStr"/>
       <c r="BV212" t="inlineStr"/>
       <c r="BW212" t="inlineStr"/>
+      <c r="BX212" t="inlineStr"/>
+      <c r="BY212" t="inlineStr"/>
+      <c r="BZ212" t="inlineStr"/>
+      <c r="CA212" t="inlineStr"/>
+      <c r="CB212" t="inlineStr"/>
+      <c r="CC212" t="inlineStr"/>
+      <c r="CD212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
@@ -17909,6 +19421,13 @@
       <c r="BU213" t="inlineStr"/>
       <c r="BV213" t="inlineStr"/>
       <c r="BW213" t="inlineStr"/>
+      <c r="BX213" t="inlineStr"/>
+      <c r="BY213" t="inlineStr"/>
+      <c r="BZ213" t="inlineStr"/>
+      <c r="CA213" t="inlineStr"/>
+      <c r="CB213" t="inlineStr"/>
+      <c r="CC213" t="inlineStr"/>
+      <c r="CD213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
@@ -17990,6 +19509,13 @@
       <c r="BU214" t="inlineStr"/>
       <c r="BV214" t="inlineStr"/>
       <c r="BW214" t="inlineStr"/>
+      <c r="BX214" t="inlineStr"/>
+      <c r="BY214" t="inlineStr"/>
+      <c r="BZ214" t="inlineStr"/>
+      <c r="CA214" t="inlineStr"/>
+      <c r="CB214" t="inlineStr"/>
+      <c r="CC214" t="inlineStr"/>
+      <c r="CD214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
@@ -18071,6 +19597,13 @@
       <c r="BU215" t="inlineStr"/>
       <c r="BV215" t="inlineStr"/>
       <c r="BW215" t="inlineStr"/>
+      <c r="BX215" t="inlineStr"/>
+      <c r="BY215" t="inlineStr"/>
+      <c r="BZ215" t="inlineStr"/>
+      <c r="CA215" t="inlineStr"/>
+      <c r="CB215" t="inlineStr"/>
+      <c r="CC215" t="inlineStr"/>
+      <c r="CD215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -18152,6 +19685,13 @@
       <c r="BU216" t="inlineStr"/>
       <c r="BV216" t="inlineStr"/>
       <c r="BW216" t="inlineStr"/>
+      <c r="BX216" t="inlineStr"/>
+      <c r="BY216" t="inlineStr"/>
+      <c r="BZ216" t="inlineStr"/>
+      <c r="CA216" t="inlineStr"/>
+      <c r="CB216" t="inlineStr"/>
+      <c r="CC216" t="inlineStr"/>
+      <c r="CD216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
@@ -18233,6 +19773,13 @@
       <c r="BU217" t="inlineStr"/>
       <c r="BV217" t="inlineStr"/>
       <c r="BW217" t="inlineStr"/>
+      <c r="BX217" t="inlineStr"/>
+      <c r="BY217" t="inlineStr"/>
+      <c r="BZ217" t="inlineStr"/>
+      <c r="CA217" t="inlineStr"/>
+      <c r="CB217" t="inlineStr"/>
+      <c r="CC217" t="inlineStr"/>
+      <c r="CD217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -18314,6 +19861,13 @@
       <c r="BU218" t="inlineStr"/>
       <c r="BV218" t="inlineStr"/>
       <c r="BW218" t="inlineStr"/>
+      <c r="BX218" t="inlineStr"/>
+      <c r="BY218" t="inlineStr"/>
+      <c r="BZ218" t="inlineStr"/>
+      <c r="CA218" t="inlineStr"/>
+      <c r="CB218" t="inlineStr"/>
+      <c r="CC218" t="inlineStr"/>
+      <c r="CD218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
@@ -18395,6 +19949,13 @@
       <c r="BU219" t="inlineStr"/>
       <c r="BV219" t="inlineStr"/>
       <c r="BW219" t="inlineStr"/>
+      <c r="BX219" t="inlineStr"/>
+      <c r="BY219" t="inlineStr"/>
+      <c r="BZ219" t="inlineStr"/>
+      <c r="CA219" t="inlineStr"/>
+      <c r="CB219" t="inlineStr"/>
+      <c r="CC219" t="inlineStr"/>
+      <c r="CD219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -18476,6 +20037,13 @@
       <c r="BU220" t="inlineStr"/>
       <c r="BV220" t="inlineStr"/>
       <c r="BW220" t="inlineStr"/>
+      <c r="BX220" t="inlineStr"/>
+      <c r="BY220" t="inlineStr"/>
+      <c r="BZ220" t="inlineStr"/>
+      <c r="CA220" t="inlineStr"/>
+      <c r="CB220" t="inlineStr"/>
+      <c r="CC220" t="inlineStr"/>
+      <c r="CD220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
@@ -18557,6 +20125,13 @@
       <c r="BU221" t="inlineStr"/>
       <c r="BV221" t="inlineStr"/>
       <c r="BW221" t="inlineStr"/>
+      <c r="BX221" t="inlineStr"/>
+      <c r="BY221" t="inlineStr"/>
+      <c r="BZ221" t="inlineStr"/>
+      <c r="CA221" t="inlineStr"/>
+      <c r="CB221" t="inlineStr"/>
+      <c r="CC221" t="inlineStr"/>
+      <c r="CD221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
@@ -18638,6 +20213,13 @@
       <c r="BU222" t="inlineStr"/>
       <c r="BV222" t="inlineStr"/>
       <c r="BW222" t="inlineStr"/>
+      <c r="BX222" t="inlineStr"/>
+      <c r="BY222" t="inlineStr"/>
+      <c r="BZ222" t="inlineStr"/>
+      <c r="CA222" t="inlineStr"/>
+      <c r="CB222" t="inlineStr"/>
+      <c r="CC222" t="inlineStr"/>
+      <c r="CD222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
@@ -18719,6 +20301,13 @@
       <c r="BU223" t="inlineStr"/>
       <c r="BV223" t="inlineStr"/>
       <c r="BW223" t="inlineStr"/>
+      <c r="BX223" t="inlineStr"/>
+      <c r="BY223" t="inlineStr"/>
+      <c r="BZ223" t="inlineStr"/>
+      <c r="CA223" t="inlineStr"/>
+      <c r="CB223" t="inlineStr"/>
+      <c r="CC223" t="inlineStr"/>
+      <c r="CD223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
@@ -18800,6 +20389,13 @@
       <c r="BU224" t="inlineStr"/>
       <c r="BV224" t="inlineStr"/>
       <c r="BW224" t="inlineStr"/>
+      <c r="BX224" t="inlineStr"/>
+      <c r="BY224" t="inlineStr"/>
+      <c r="BZ224" t="inlineStr"/>
+      <c r="CA224" t="inlineStr"/>
+      <c r="CB224" t="inlineStr"/>
+      <c r="CC224" t="inlineStr"/>
+      <c r="CD224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
@@ -18881,6 +20477,13 @@
       <c r="BU225" t="inlineStr"/>
       <c r="BV225" t="inlineStr"/>
       <c r="BW225" t="inlineStr"/>
+      <c r="BX225" t="inlineStr"/>
+      <c r="BY225" t="inlineStr"/>
+      <c r="BZ225" t="inlineStr"/>
+      <c r="CA225" t="inlineStr"/>
+      <c r="CB225" t="inlineStr"/>
+      <c r="CC225" t="inlineStr"/>
+      <c r="CD225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
@@ -18962,6 +20565,13 @@
       <c r="BU226" t="inlineStr"/>
       <c r="BV226" t="inlineStr"/>
       <c r="BW226" t="inlineStr"/>
+      <c r="BX226" t="inlineStr"/>
+      <c r="BY226" t="inlineStr"/>
+      <c r="BZ226" t="inlineStr"/>
+      <c r="CA226" t="inlineStr"/>
+      <c r="CB226" t="inlineStr"/>
+      <c r="CC226" t="inlineStr"/>
+      <c r="CD226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
@@ -19043,6 +20653,13 @@
       <c r="BU227" t="inlineStr"/>
       <c r="BV227" t="inlineStr"/>
       <c r="BW227" t="inlineStr"/>
+      <c r="BX227" t="inlineStr"/>
+      <c r="BY227" t="inlineStr"/>
+      <c r="BZ227" t="inlineStr"/>
+      <c r="CA227" t="inlineStr"/>
+      <c r="CB227" t="inlineStr"/>
+      <c r="CC227" t="inlineStr"/>
+      <c r="CD227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
@@ -19124,6 +20741,13 @@
       <c r="BU228" t="inlineStr"/>
       <c r="BV228" t="inlineStr"/>
       <c r="BW228" t="inlineStr"/>
+      <c r="BX228" t="inlineStr"/>
+      <c r="BY228" t="inlineStr"/>
+      <c r="BZ228" t="inlineStr"/>
+      <c r="CA228" t="inlineStr"/>
+      <c r="CB228" t="inlineStr"/>
+      <c r="CC228" t="inlineStr"/>
+      <c r="CD228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
@@ -19205,6 +20829,13 @@
       <c r="BU229" t="inlineStr"/>
       <c r="BV229" t="inlineStr"/>
       <c r="BW229" t="inlineStr"/>
+      <c r="BX229" t="inlineStr"/>
+      <c r="BY229" t="inlineStr"/>
+      <c r="BZ229" t="inlineStr"/>
+      <c r="CA229" t="inlineStr"/>
+      <c r="CB229" t="inlineStr"/>
+      <c r="CC229" t="inlineStr"/>
+      <c r="CD229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
@@ -19286,6 +20917,13 @@
       <c r="BU230" t="inlineStr"/>
       <c r="BV230" t="inlineStr"/>
       <c r="BW230" t="inlineStr"/>
+      <c r="BX230" t="inlineStr"/>
+      <c r="BY230" t="inlineStr"/>
+      <c r="BZ230" t="inlineStr"/>
+      <c r="CA230" t="inlineStr"/>
+      <c r="CB230" t="inlineStr"/>
+      <c r="CC230" t="inlineStr"/>
+      <c r="CD230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
@@ -19367,6 +21005,13 @@
       <c r="BU231" t="inlineStr"/>
       <c r="BV231" t="inlineStr"/>
       <c r="BW231" t="inlineStr"/>
+      <c r="BX231" t="inlineStr"/>
+      <c r="BY231" t="inlineStr"/>
+      <c r="BZ231" t="inlineStr"/>
+      <c r="CA231" t="inlineStr"/>
+      <c r="CB231" t="inlineStr"/>
+      <c r="CC231" t="inlineStr"/>
+      <c r="CD231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
@@ -19448,6 +21093,13 @@
       <c r="BU232" t="inlineStr"/>
       <c r="BV232" t="inlineStr"/>
       <c r="BW232" t="inlineStr"/>
+      <c r="BX232" t="inlineStr"/>
+      <c r="BY232" t="inlineStr"/>
+      <c r="BZ232" t="inlineStr"/>
+      <c r="CA232" t="inlineStr"/>
+      <c r="CB232" t="inlineStr"/>
+      <c r="CC232" t="inlineStr"/>
+      <c r="CD232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
@@ -19529,6 +21181,13 @@
       <c r="BU233" t="inlineStr"/>
       <c r="BV233" t="inlineStr"/>
       <c r="BW233" t="inlineStr"/>
+      <c r="BX233" t="inlineStr"/>
+      <c r="BY233" t="inlineStr"/>
+      <c r="BZ233" t="inlineStr"/>
+      <c r="CA233" t="inlineStr"/>
+      <c r="CB233" t="inlineStr"/>
+      <c r="CC233" t="inlineStr"/>
+      <c r="CD233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
@@ -19610,6 +21269,13 @@
       <c r="BU234" t="inlineStr"/>
       <c r="BV234" t="inlineStr"/>
       <c r="BW234" t="inlineStr"/>
+      <c r="BX234" t="inlineStr"/>
+      <c r="BY234" t="inlineStr"/>
+      <c r="BZ234" t="inlineStr"/>
+      <c r="CA234" t="inlineStr"/>
+      <c r="CB234" t="inlineStr"/>
+      <c r="CC234" t="inlineStr"/>
+      <c r="CD234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
@@ -19691,6 +21357,13 @@
       <c r="BU235" t="inlineStr"/>
       <c r="BV235" t="inlineStr"/>
       <c r="BW235" t="inlineStr"/>
+      <c r="BX235" t="inlineStr"/>
+      <c r="BY235" t="inlineStr"/>
+      <c r="BZ235" t="inlineStr"/>
+      <c r="CA235" t="inlineStr"/>
+      <c r="CB235" t="inlineStr"/>
+      <c r="CC235" t="inlineStr"/>
+      <c r="CD235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
@@ -19772,6 +21445,13 @@
       <c r="BU236" t="inlineStr"/>
       <c r="BV236" t="inlineStr"/>
       <c r="BW236" t="inlineStr"/>
+      <c r="BX236" t="inlineStr"/>
+      <c r="BY236" t="inlineStr"/>
+      <c r="BZ236" t="inlineStr"/>
+      <c r="CA236" t="inlineStr"/>
+      <c r="CB236" t="inlineStr"/>
+      <c r="CC236" t="inlineStr"/>
+      <c r="CD236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
@@ -19853,6 +21533,13 @@
       <c r="BU237" t="inlineStr"/>
       <c r="BV237" t="inlineStr"/>
       <c r="BW237" t="inlineStr"/>
+      <c r="BX237" t="inlineStr"/>
+      <c r="BY237" t="inlineStr"/>
+      <c r="BZ237" t="inlineStr"/>
+      <c r="CA237" t="inlineStr"/>
+      <c r="CB237" t="inlineStr"/>
+      <c r="CC237" t="inlineStr"/>
+      <c r="CD237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
@@ -19934,6 +21621,13 @@
       <c r="BU238" t="inlineStr"/>
       <c r="BV238" t="inlineStr"/>
       <c r="BW238" t="inlineStr"/>
+      <c r="BX238" t="inlineStr"/>
+      <c r="BY238" t="inlineStr"/>
+      <c r="BZ238" t="inlineStr"/>
+      <c r="CA238" t="inlineStr"/>
+      <c r="CB238" t="inlineStr"/>
+      <c r="CC238" t="inlineStr"/>
+      <c r="CD238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
@@ -20015,6 +21709,13 @@
       <c r="BU239" t="inlineStr"/>
       <c r="BV239" t="inlineStr"/>
       <c r="BW239" t="inlineStr"/>
+      <c r="BX239" t="inlineStr"/>
+      <c r="BY239" t="inlineStr"/>
+      <c r="BZ239" t="inlineStr"/>
+      <c r="CA239" t="inlineStr"/>
+      <c r="CB239" t="inlineStr"/>
+      <c r="CC239" t="inlineStr"/>
+      <c r="CD239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
@@ -20096,6 +21797,13 @@
       <c r="BU240" t="inlineStr"/>
       <c r="BV240" t="inlineStr"/>
       <c r="BW240" t="inlineStr"/>
+      <c r="BX240" t="inlineStr"/>
+      <c r="BY240" t="inlineStr"/>
+      <c r="BZ240" t="inlineStr"/>
+      <c r="CA240" t="inlineStr"/>
+      <c r="CB240" t="inlineStr"/>
+      <c r="CC240" t="inlineStr"/>
+      <c r="CD240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
@@ -20177,6 +21885,13 @@
       <c r="BU241" t="inlineStr"/>
       <c r="BV241" t="inlineStr"/>
       <c r="BW241" t="inlineStr"/>
+      <c r="BX241" t="inlineStr"/>
+      <c r="BY241" t="inlineStr"/>
+      <c r="BZ241" t="inlineStr"/>
+      <c r="CA241" t="inlineStr"/>
+      <c r="CB241" t="inlineStr"/>
+      <c r="CC241" t="inlineStr"/>
+      <c r="CD241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
@@ -20258,6 +21973,13 @@
       <c r="BU242" t="inlineStr"/>
       <c r="BV242" t="inlineStr"/>
       <c r="BW242" t="inlineStr"/>
+      <c r="BX242" t="inlineStr"/>
+      <c r="BY242" t="inlineStr"/>
+      <c r="BZ242" t="inlineStr"/>
+      <c r="CA242" t="inlineStr"/>
+      <c r="CB242" t="inlineStr"/>
+      <c r="CC242" t="inlineStr"/>
+      <c r="CD242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
@@ -20339,6 +22061,13 @@
       <c r="BU243" t="inlineStr"/>
       <c r="BV243" t="inlineStr"/>
       <c r="BW243" t="inlineStr"/>
+      <c r="BX243" t="inlineStr"/>
+      <c r="BY243" t="inlineStr"/>
+      <c r="BZ243" t="inlineStr"/>
+      <c r="CA243" t="inlineStr"/>
+      <c r="CB243" t="inlineStr"/>
+      <c r="CC243" t="inlineStr"/>
+      <c r="CD243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
@@ -20420,6 +22149,13 @@
       <c r="BU244" t="inlineStr"/>
       <c r="BV244" t="inlineStr"/>
       <c r="BW244" t="inlineStr"/>
+      <c r="BX244" t="inlineStr"/>
+      <c r="BY244" t="inlineStr"/>
+      <c r="BZ244" t="inlineStr"/>
+      <c r="CA244" t="inlineStr"/>
+      <c r="CB244" t="inlineStr"/>
+      <c r="CC244" t="inlineStr"/>
+      <c r="CD244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
@@ -20501,6 +22237,13 @@
       <c r="BU245" t="inlineStr"/>
       <c r="BV245" t="inlineStr"/>
       <c r="BW245" t="inlineStr"/>
+      <c r="BX245" t="inlineStr"/>
+      <c r="BY245" t="inlineStr"/>
+      <c r="BZ245" t="inlineStr"/>
+      <c r="CA245" t="inlineStr"/>
+      <c r="CB245" t="inlineStr"/>
+      <c r="CC245" t="inlineStr"/>
+      <c r="CD245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
@@ -20582,6 +22325,13 @@
       <c r="BU246" t="inlineStr"/>
       <c r="BV246" t="inlineStr"/>
       <c r="BW246" t="inlineStr"/>
+      <c r="BX246" t="inlineStr"/>
+      <c r="BY246" t="inlineStr"/>
+      <c r="BZ246" t="inlineStr"/>
+      <c r="CA246" t="inlineStr"/>
+      <c r="CB246" t="inlineStr"/>
+      <c r="CC246" t="inlineStr"/>
+      <c r="CD246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
@@ -20663,6 +22413,13 @@
       <c r="BU247" t="inlineStr"/>
       <c r="BV247" t="inlineStr"/>
       <c r="BW247" t="inlineStr"/>
+      <c r="BX247" t="inlineStr"/>
+      <c r="BY247" t="inlineStr"/>
+      <c r="BZ247" t="inlineStr"/>
+      <c r="CA247" t="inlineStr"/>
+      <c r="CB247" t="inlineStr"/>
+      <c r="CC247" t="inlineStr"/>
+      <c r="CD247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
@@ -20744,6 +22501,13 @@
       <c r="BU248" t="inlineStr"/>
       <c r="BV248" t="inlineStr"/>
       <c r="BW248" t="inlineStr"/>
+      <c r="BX248" t="inlineStr"/>
+      <c r="BY248" t="inlineStr"/>
+      <c r="BZ248" t="inlineStr"/>
+      <c r="CA248" t="inlineStr"/>
+      <c r="CB248" t="inlineStr"/>
+      <c r="CC248" t="inlineStr"/>
+      <c r="CD248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
@@ -20825,6 +22589,13 @@
       <c r="BU249" t="inlineStr"/>
       <c r="BV249" t="inlineStr"/>
       <c r="BW249" t="inlineStr"/>
+      <c r="BX249" t="inlineStr"/>
+      <c r="BY249" t="inlineStr"/>
+      <c r="BZ249" t="inlineStr"/>
+      <c r="CA249" t="inlineStr"/>
+      <c r="CB249" t="inlineStr"/>
+      <c r="CC249" t="inlineStr"/>
+      <c r="CD249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
@@ -20906,6 +22677,13 @@
       <c r="BU250" t="inlineStr"/>
       <c r="BV250" t="inlineStr"/>
       <c r="BW250" t="inlineStr"/>
+      <c r="BX250" t="inlineStr"/>
+      <c r="BY250" t="inlineStr"/>
+      <c r="BZ250" t="inlineStr"/>
+      <c r="CA250" t="inlineStr"/>
+      <c r="CB250" t="inlineStr"/>
+      <c r="CC250" t="inlineStr"/>
+      <c r="CD250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
@@ -20987,6 +22765,13 @@
       <c r="BU251" t="inlineStr"/>
       <c r="BV251" t="inlineStr"/>
       <c r="BW251" t="inlineStr"/>
+      <c r="BX251" t="inlineStr"/>
+      <c r="BY251" t="inlineStr"/>
+      <c r="BZ251" t="inlineStr"/>
+      <c r="CA251" t="inlineStr"/>
+      <c r="CB251" t="inlineStr"/>
+      <c r="CC251" t="inlineStr"/>
+      <c r="CD251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
@@ -21068,6 +22853,13 @@
       <c r="BU252" t="inlineStr"/>
       <c r="BV252" t="inlineStr"/>
       <c r="BW252" t="inlineStr"/>
+      <c r="BX252" t="inlineStr"/>
+      <c r="BY252" t="inlineStr"/>
+      <c r="BZ252" t="inlineStr"/>
+      <c r="CA252" t="inlineStr"/>
+      <c r="CB252" t="inlineStr"/>
+      <c r="CC252" t="inlineStr"/>
+      <c r="CD252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
@@ -21149,6 +22941,13 @@
       <c r="BU253" t="inlineStr"/>
       <c r="BV253" t="inlineStr"/>
       <c r="BW253" t="inlineStr"/>
+      <c r="BX253" t="inlineStr"/>
+      <c r="BY253" t="inlineStr"/>
+      <c r="BZ253" t="inlineStr"/>
+      <c r="CA253" t="inlineStr"/>
+      <c r="CB253" t="inlineStr"/>
+      <c r="CC253" t="inlineStr"/>
+      <c r="CD253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
@@ -21230,6 +23029,13 @@
       <c r="BU254" t="inlineStr"/>
       <c r="BV254" t="inlineStr"/>
       <c r="BW254" t="inlineStr"/>
+      <c r="BX254" t="inlineStr"/>
+      <c r="BY254" t="inlineStr"/>
+      <c r="BZ254" t="inlineStr"/>
+      <c r="CA254" t="inlineStr"/>
+      <c r="CB254" t="inlineStr"/>
+      <c r="CC254" t="inlineStr"/>
+      <c r="CD254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
@@ -21311,6 +23117,13 @@
       <c r="BU255" t="inlineStr"/>
       <c r="BV255" t="inlineStr"/>
       <c r="BW255" t="inlineStr"/>
+      <c r="BX255" t="inlineStr"/>
+      <c r="BY255" t="inlineStr"/>
+      <c r="BZ255" t="inlineStr"/>
+      <c r="CA255" t="inlineStr"/>
+      <c r="CB255" t="inlineStr"/>
+      <c r="CC255" t="inlineStr"/>
+      <c r="CD255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
@@ -21392,6 +23205,13 @@
       <c r="BU256" t="inlineStr"/>
       <c r="BV256" t="inlineStr"/>
       <c r="BW256" t="inlineStr"/>
+      <c r="BX256" t="inlineStr"/>
+      <c r="BY256" t="inlineStr"/>
+      <c r="BZ256" t="inlineStr"/>
+      <c r="CA256" t="inlineStr"/>
+      <c r="CB256" t="inlineStr"/>
+      <c r="CC256" t="inlineStr"/>
+      <c r="CD256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
@@ -21473,6 +23293,13 @@
       <c r="BU257" t="inlineStr"/>
       <c r="BV257" t="inlineStr"/>
       <c r="BW257" t="inlineStr"/>
+      <c r="BX257" t="inlineStr"/>
+      <c r="BY257" t="inlineStr"/>
+      <c r="BZ257" t="inlineStr"/>
+      <c r="CA257" t="inlineStr"/>
+      <c r="CB257" t="inlineStr"/>
+      <c r="CC257" t="inlineStr"/>
+      <c r="CD257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
@@ -21554,6 +23381,13 @@
       <c r="BU258" t="inlineStr"/>
       <c r="BV258" t="inlineStr"/>
       <c r="BW258" t="inlineStr"/>
+      <c r="BX258" t="inlineStr"/>
+      <c r="BY258" t="inlineStr"/>
+      <c r="BZ258" t="inlineStr"/>
+      <c r="CA258" t="inlineStr"/>
+      <c r="CB258" t="inlineStr"/>
+      <c r="CC258" t="inlineStr"/>
+      <c r="CD258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
@@ -21635,6 +23469,13 @@
       <c r="BU259" t="inlineStr"/>
       <c r="BV259" t="inlineStr"/>
       <c r="BW259" t="inlineStr"/>
+      <c r="BX259" t="inlineStr"/>
+      <c r="BY259" t="inlineStr"/>
+      <c r="BZ259" t="inlineStr"/>
+      <c r="CA259" t="inlineStr"/>
+      <c r="CB259" t="inlineStr"/>
+      <c r="CC259" t="inlineStr"/>
+      <c r="CD259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
@@ -21716,6 +23557,13 @@
       <c r="BU260" t="inlineStr"/>
       <c r="BV260" t="inlineStr"/>
       <c r="BW260" t="inlineStr"/>
+      <c r="BX260" t="inlineStr"/>
+      <c r="BY260" t="inlineStr"/>
+      <c r="BZ260" t="inlineStr"/>
+      <c r="CA260" t="inlineStr"/>
+      <c r="CB260" t="inlineStr"/>
+      <c r="CC260" t="inlineStr"/>
+      <c r="CD260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
@@ -21797,6 +23645,13 @@
       <c r="BU261" t="inlineStr"/>
       <c r="BV261" t="inlineStr"/>
       <c r="BW261" t="inlineStr"/>
+      <c r="BX261" t="inlineStr"/>
+      <c r="BY261" t="inlineStr"/>
+      <c r="BZ261" t="inlineStr"/>
+      <c r="CA261" t="inlineStr"/>
+      <c r="CB261" t="inlineStr"/>
+      <c r="CC261" t="inlineStr"/>
+      <c r="CD261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
@@ -21878,6 +23733,13 @@
       <c r="BU262" t="inlineStr"/>
       <c r="BV262" t="inlineStr"/>
       <c r="BW262" t="inlineStr"/>
+      <c r="BX262" t="inlineStr"/>
+      <c r="BY262" t="inlineStr"/>
+      <c r="BZ262" t="inlineStr"/>
+      <c r="CA262" t="inlineStr"/>
+      <c r="CB262" t="inlineStr"/>
+      <c r="CC262" t="inlineStr"/>
+      <c r="CD262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
@@ -21959,6 +23821,13 @@
       <c r="BU263" t="inlineStr"/>
       <c r="BV263" t="inlineStr"/>
       <c r="BW263" t="inlineStr"/>
+      <c r="BX263" t="inlineStr"/>
+      <c r="BY263" t="inlineStr"/>
+      <c r="BZ263" t="inlineStr"/>
+      <c r="CA263" t="inlineStr"/>
+      <c r="CB263" t="inlineStr"/>
+      <c r="CC263" t="inlineStr"/>
+      <c r="CD263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
@@ -22040,6 +23909,13 @@
       <c r="BU264" t="inlineStr"/>
       <c r="BV264" t="inlineStr"/>
       <c r="BW264" t="inlineStr"/>
+      <c r="BX264" t="inlineStr"/>
+      <c r="BY264" t="inlineStr"/>
+      <c r="BZ264" t="inlineStr"/>
+      <c r="CA264" t="inlineStr"/>
+      <c r="CB264" t="inlineStr"/>
+      <c r="CC264" t="inlineStr"/>
+      <c r="CD264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
@@ -22121,6 +23997,13 @@
       <c r="BU265" t="inlineStr"/>
       <c r="BV265" t="inlineStr"/>
       <c r="BW265" t="inlineStr"/>
+      <c r="BX265" t="inlineStr"/>
+      <c r="BY265" t="inlineStr"/>
+      <c r="BZ265" t="inlineStr"/>
+      <c r="CA265" t="inlineStr"/>
+      <c r="CB265" t="inlineStr"/>
+      <c r="CC265" t="inlineStr"/>
+      <c r="CD265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
@@ -22202,6 +24085,13 @@
       <c r="BU266" t="inlineStr"/>
       <c r="BV266" t="inlineStr"/>
       <c r="BW266" t="inlineStr"/>
+      <c r="BX266" t="inlineStr"/>
+      <c r="BY266" t="inlineStr"/>
+      <c r="BZ266" t="inlineStr"/>
+      <c r="CA266" t="inlineStr"/>
+      <c r="CB266" t="inlineStr"/>
+      <c r="CC266" t="inlineStr"/>
+      <c r="CD266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
@@ -22283,6 +24173,13 @@
       <c r="BU267" t="inlineStr"/>
       <c r="BV267" t="inlineStr"/>
       <c r="BW267" t="inlineStr"/>
+      <c r="BX267" t="inlineStr"/>
+      <c r="BY267" t="inlineStr"/>
+      <c r="BZ267" t="inlineStr"/>
+      <c r="CA267" t="inlineStr"/>
+      <c r="CB267" t="inlineStr"/>
+      <c r="CC267" t="inlineStr"/>
+      <c r="CD267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
@@ -22364,6 +24261,13 @@
       <c r="BU268" t="inlineStr"/>
       <c r="BV268" t="inlineStr"/>
       <c r="BW268" t="inlineStr"/>
+      <c r="BX268" t="inlineStr"/>
+      <c r="BY268" t="inlineStr"/>
+      <c r="BZ268" t="inlineStr"/>
+      <c r="CA268" t="inlineStr"/>
+      <c r="CB268" t="inlineStr"/>
+      <c r="CC268" t="inlineStr"/>
+      <c r="CD268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
@@ -22445,6 +24349,13 @@
       <c r="BU269" t="inlineStr"/>
       <c r="BV269" t="inlineStr"/>
       <c r="BW269" t="inlineStr"/>
+      <c r="BX269" t="inlineStr"/>
+      <c r="BY269" t="inlineStr"/>
+      <c r="BZ269" t="inlineStr"/>
+      <c r="CA269" t="inlineStr"/>
+      <c r="CB269" t="inlineStr"/>
+      <c r="CC269" t="inlineStr"/>
+      <c r="CD269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
@@ -22526,6 +24437,13 @@
       <c r="BU270" t="inlineStr"/>
       <c r="BV270" t="inlineStr"/>
       <c r="BW270" t="inlineStr"/>
+      <c r="BX270" t="inlineStr"/>
+      <c r="BY270" t="inlineStr"/>
+      <c r="BZ270" t="inlineStr"/>
+      <c r="CA270" t="inlineStr"/>
+      <c r="CB270" t="inlineStr"/>
+      <c r="CC270" t="inlineStr"/>
+      <c r="CD270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
@@ -22607,6 +24525,13 @@
       <c r="BU271" t="inlineStr"/>
       <c r="BV271" t="inlineStr"/>
       <c r="BW271" t="inlineStr"/>
+      <c r="BX271" t="inlineStr"/>
+      <c r="BY271" t="inlineStr"/>
+      <c r="BZ271" t="inlineStr"/>
+      <c r="CA271" t="inlineStr"/>
+      <c r="CB271" t="inlineStr"/>
+      <c r="CC271" t="inlineStr"/>
+      <c r="CD271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
@@ -22688,6 +24613,13 @@
       <c r="BU272" t="inlineStr"/>
       <c r="BV272" t="inlineStr"/>
       <c r="BW272" t="inlineStr"/>
+      <c r="BX272" t="inlineStr"/>
+      <c r="BY272" t="inlineStr"/>
+      <c r="BZ272" t="inlineStr"/>
+      <c r="CA272" t="inlineStr"/>
+      <c r="CB272" t="inlineStr"/>
+      <c r="CC272" t="inlineStr"/>
+      <c r="CD272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
@@ -22769,6 +24701,13 @@
       <c r="BU273" t="inlineStr"/>
       <c r="BV273" t="inlineStr"/>
       <c r="BW273" t="inlineStr"/>
+      <c r="BX273" t="inlineStr"/>
+      <c r="BY273" t="inlineStr"/>
+      <c r="BZ273" t="inlineStr"/>
+      <c r="CA273" t="inlineStr"/>
+      <c r="CB273" t="inlineStr"/>
+      <c r="CC273" t="inlineStr"/>
+      <c r="CD273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
@@ -22850,6 +24789,13 @@
       <c r="BU274" t="inlineStr"/>
       <c r="BV274" t="inlineStr"/>
       <c r="BW274" t="inlineStr"/>
+      <c r="BX274" t="inlineStr"/>
+      <c r="BY274" t="inlineStr"/>
+      <c r="BZ274" t="inlineStr"/>
+      <c r="CA274" t="inlineStr"/>
+      <c r="CB274" t="inlineStr"/>
+      <c r="CC274" t="inlineStr"/>
+      <c r="CD274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
@@ -22931,6 +24877,13 @@
       <c r="BU275" t="inlineStr"/>
       <c r="BV275" t="inlineStr"/>
       <c r="BW275" t="inlineStr"/>
+      <c r="BX275" t="inlineStr"/>
+      <c r="BY275" t="inlineStr"/>
+      <c r="BZ275" t="inlineStr"/>
+      <c r="CA275" t="inlineStr"/>
+      <c r="CB275" t="inlineStr"/>
+      <c r="CC275" t="inlineStr"/>
+      <c r="CD275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
@@ -23012,6 +24965,13 @@
       <c r="BU276" t="inlineStr"/>
       <c r="BV276" t="inlineStr"/>
       <c r="BW276" t="inlineStr"/>
+      <c r="BX276" t="inlineStr"/>
+      <c r="BY276" t="inlineStr"/>
+      <c r="BZ276" t="inlineStr"/>
+      <c r="CA276" t="inlineStr"/>
+      <c r="CB276" t="inlineStr"/>
+      <c r="CC276" t="inlineStr"/>
+      <c r="CD276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
@@ -23093,6 +25053,13 @@
       <c r="BU277" t="inlineStr"/>
       <c r="BV277" t="inlineStr"/>
       <c r="BW277" t="inlineStr"/>
+      <c r="BX277" t="inlineStr"/>
+      <c r="BY277" t="inlineStr"/>
+      <c r="BZ277" t="inlineStr"/>
+      <c r="CA277" t="inlineStr"/>
+      <c r="CB277" t="inlineStr"/>
+      <c r="CC277" t="inlineStr"/>
+      <c r="CD277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
@@ -23174,6 +25141,13 @@
       <c r="BU278" t="inlineStr"/>
       <c r="BV278" t="inlineStr"/>
       <c r="BW278" t="inlineStr"/>
+      <c r="BX278" t="inlineStr"/>
+      <c r="BY278" t="inlineStr"/>
+      <c r="BZ278" t="inlineStr"/>
+      <c r="CA278" t="inlineStr"/>
+      <c r="CB278" t="inlineStr"/>
+      <c r="CC278" t="inlineStr"/>
+      <c r="CD278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
@@ -23255,6 +25229,13 @@
       <c r="BU279" t="inlineStr"/>
       <c r="BV279" t="inlineStr"/>
       <c r="BW279" t="inlineStr"/>
+      <c r="BX279" t="inlineStr"/>
+      <c r="BY279" t="inlineStr"/>
+      <c r="BZ279" t="inlineStr"/>
+      <c r="CA279" t="inlineStr"/>
+      <c r="CB279" t="inlineStr"/>
+      <c r="CC279" t="inlineStr"/>
+      <c r="CD279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
@@ -23336,6 +25317,13 @@
       <c r="BU280" t="inlineStr"/>
       <c r="BV280" t="inlineStr"/>
       <c r="BW280" t="inlineStr"/>
+      <c r="BX280" t="inlineStr"/>
+      <c r="BY280" t="inlineStr"/>
+      <c r="BZ280" t="inlineStr"/>
+      <c r="CA280" t="inlineStr"/>
+      <c r="CB280" t="inlineStr"/>
+      <c r="CC280" t="inlineStr"/>
+      <c r="CD280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
@@ -23417,6 +25405,13 @@
       <c r="BU281" t="inlineStr"/>
       <c r="BV281" t="inlineStr"/>
       <c r="BW281" t="inlineStr"/>
+      <c r="BX281" t="inlineStr"/>
+      <c r="BY281" t="inlineStr"/>
+      <c r="BZ281" t="inlineStr"/>
+      <c r="CA281" t="inlineStr"/>
+      <c r="CB281" t="inlineStr"/>
+      <c r="CC281" t="inlineStr"/>
+      <c r="CD281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
@@ -23498,6 +25493,13 @@
       <c r="BU282" t="inlineStr"/>
       <c r="BV282" t="inlineStr"/>
       <c r="BW282" t="inlineStr"/>
+      <c r="BX282" t="inlineStr"/>
+      <c r="BY282" t="inlineStr"/>
+      <c r="BZ282" t="inlineStr"/>
+      <c r="CA282" t="inlineStr"/>
+      <c r="CB282" t="inlineStr"/>
+      <c r="CC282" t="inlineStr"/>
+      <c r="CD282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
@@ -23579,6 +25581,13 @@
       <c r="BU283" t="inlineStr"/>
       <c r="BV283" t="inlineStr"/>
       <c r="BW283" t="inlineStr"/>
+      <c r="BX283" t="inlineStr"/>
+      <c r="BY283" t="inlineStr"/>
+      <c r="BZ283" t="inlineStr"/>
+      <c r="CA283" t="inlineStr"/>
+      <c r="CB283" t="inlineStr"/>
+      <c r="CC283" t="inlineStr"/>
+      <c r="CD283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
@@ -23660,6 +25669,13 @@
       <c r="BU284" t="inlineStr"/>
       <c r="BV284" t="inlineStr"/>
       <c r="BW284" t="inlineStr"/>
+      <c r="BX284" t="inlineStr"/>
+      <c r="BY284" t="inlineStr"/>
+      <c r="BZ284" t="inlineStr"/>
+      <c r="CA284" t="inlineStr"/>
+      <c r="CB284" t="inlineStr"/>
+      <c r="CC284" t="inlineStr"/>
+      <c r="CD284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
@@ -23741,6 +25757,13 @@
       <c r="BU285" t="inlineStr"/>
       <c r="BV285" t="inlineStr"/>
       <c r="BW285" t="inlineStr"/>
+      <c r="BX285" t="inlineStr"/>
+      <c r="BY285" t="inlineStr"/>
+      <c r="BZ285" t="inlineStr"/>
+      <c r="CA285" t="inlineStr"/>
+      <c r="CB285" t="inlineStr"/>
+      <c r="CC285" t="inlineStr"/>
+      <c r="CD285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
@@ -23822,6 +25845,13 @@
       <c r="BU286" t="inlineStr"/>
       <c r="BV286" t="inlineStr"/>
       <c r="BW286" t="inlineStr"/>
+      <c r="BX286" t="inlineStr"/>
+      <c r="BY286" t="inlineStr"/>
+      <c r="BZ286" t="inlineStr"/>
+      <c r="CA286" t="inlineStr"/>
+      <c r="CB286" t="inlineStr"/>
+      <c r="CC286" t="inlineStr"/>
+      <c r="CD286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
@@ -23903,6 +25933,13 @@
       <c r="BU287" t="inlineStr"/>
       <c r="BV287" t="inlineStr"/>
       <c r="BW287" t="inlineStr"/>
+      <c r="BX287" t="inlineStr"/>
+      <c r="BY287" t="inlineStr"/>
+      <c r="BZ287" t="inlineStr"/>
+      <c r="CA287" t="inlineStr"/>
+      <c r="CB287" t="inlineStr"/>
+      <c r="CC287" t="inlineStr"/>
+      <c r="CD287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
@@ -23984,6 +26021,13 @@
       <c r="BU288" t="inlineStr"/>
       <c r="BV288" t="inlineStr"/>
       <c r="BW288" t="inlineStr"/>
+      <c r="BX288" t="inlineStr"/>
+      <c r="BY288" t="inlineStr"/>
+      <c r="BZ288" t="inlineStr"/>
+      <c r="CA288" t="inlineStr"/>
+      <c r="CB288" t="inlineStr"/>
+      <c r="CC288" t="inlineStr"/>
+      <c r="CD288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
@@ -24065,6 +26109,13 @@
       <c r="BU289" t="inlineStr"/>
       <c r="BV289" t="inlineStr"/>
       <c r="BW289" t="inlineStr"/>
+      <c r="BX289" t="inlineStr"/>
+      <c r="BY289" t="inlineStr"/>
+      <c r="BZ289" t="inlineStr"/>
+      <c r="CA289" t="inlineStr"/>
+      <c r="CB289" t="inlineStr"/>
+      <c r="CC289" t="inlineStr"/>
+      <c r="CD289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
@@ -24146,6 +26197,13 @@
       <c r="BU290" t="inlineStr"/>
       <c r="BV290" t="inlineStr"/>
       <c r="BW290" t="inlineStr"/>
+      <c r="BX290" t="inlineStr"/>
+      <c r="BY290" t="inlineStr"/>
+      <c r="BZ290" t="inlineStr"/>
+      <c r="CA290" t="inlineStr"/>
+      <c r="CB290" t="inlineStr"/>
+      <c r="CC290" t="inlineStr"/>
+      <c r="CD290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
@@ -24227,6 +26285,13 @@
       <c r="BU291" t="inlineStr"/>
       <c r="BV291" t="inlineStr"/>
       <c r="BW291" t="inlineStr"/>
+      <c r="BX291" t="inlineStr"/>
+      <c r="BY291" t="inlineStr"/>
+      <c r="BZ291" t="inlineStr"/>
+      <c r="CA291" t="inlineStr"/>
+      <c r="CB291" t="inlineStr"/>
+      <c r="CC291" t="inlineStr"/>
+      <c r="CD291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
@@ -24308,6 +26373,13 @@
       <c r="BU292" t="inlineStr"/>
       <c r="BV292" t="inlineStr"/>
       <c r="BW292" t="inlineStr"/>
+      <c r="BX292" t="inlineStr"/>
+      <c r="BY292" t="inlineStr"/>
+      <c r="BZ292" t="inlineStr"/>
+      <c r="CA292" t="inlineStr"/>
+      <c r="CB292" t="inlineStr"/>
+      <c r="CC292" t="inlineStr"/>
+      <c r="CD292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
@@ -24389,6 +26461,13 @@
       <c r="BU293" t="inlineStr"/>
       <c r="BV293" t="inlineStr"/>
       <c r="BW293" t="inlineStr"/>
+      <c r="BX293" t="inlineStr"/>
+      <c r="BY293" t="inlineStr"/>
+      <c r="BZ293" t="inlineStr"/>
+      <c r="CA293" t="inlineStr"/>
+      <c r="CB293" t="inlineStr"/>
+      <c r="CC293" t="inlineStr"/>
+      <c r="CD293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
@@ -24470,6 +26549,13 @@
       <c r="BU294" t="inlineStr"/>
       <c r="BV294" t="inlineStr"/>
       <c r="BW294" t="inlineStr"/>
+      <c r="BX294" t="inlineStr"/>
+      <c r="BY294" t="inlineStr"/>
+      <c r="BZ294" t="inlineStr"/>
+      <c r="CA294" t="inlineStr"/>
+      <c r="CB294" t="inlineStr"/>
+      <c r="CC294" t="inlineStr"/>
+      <c r="CD294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
@@ -24551,6 +26637,13 @@
       <c r="BU295" t="inlineStr"/>
       <c r="BV295" t="inlineStr"/>
       <c r="BW295" t="inlineStr"/>
+      <c r="BX295" t="inlineStr"/>
+      <c r="BY295" t="inlineStr"/>
+      <c r="BZ295" t="inlineStr"/>
+      <c r="CA295" t="inlineStr"/>
+      <c r="CB295" t="inlineStr"/>
+      <c r="CC295" t="inlineStr"/>
+      <c r="CD295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
@@ -24632,6 +26725,13 @@
       <c r="BU296" t="inlineStr"/>
       <c r="BV296" t="inlineStr"/>
       <c r="BW296" t="inlineStr"/>
+      <c r="BX296" t="inlineStr"/>
+      <c r="BY296" t="inlineStr"/>
+      <c r="BZ296" t="inlineStr"/>
+      <c r="CA296" t="inlineStr"/>
+      <c r="CB296" t="inlineStr"/>
+      <c r="CC296" t="inlineStr"/>
+      <c r="CD296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
@@ -24713,6 +26813,13 @@
       <c r="BU297" t="inlineStr"/>
       <c r="BV297" t="inlineStr"/>
       <c r="BW297" t="inlineStr"/>
+      <c r="BX297" t="inlineStr"/>
+      <c r="BY297" t="inlineStr"/>
+      <c r="BZ297" t="inlineStr"/>
+      <c r="CA297" t="inlineStr"/>
+      <c r="CB297" t="inlineStr"/>
+      <c r="CC297" t="inlineStr"/>
+      <c r="CD297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
@@ -24794,6 +26901,13 @@
       <c r="BU298" t="inlineStr"/>
       <c r="BV298" t="inlineStr"/>
       <c r="BW298" t="inlineStr"/>
+      <c r="BX298" t="inlineStr"/>
+      <c r="BY298" t="inlineStr"/>
+      <c r="BZ298" t="inlineStr"/>
+      <c r="CA298" t="inlineStr"/>
+      <c r="CB298" t="inlineStr"/>
+      <c r="CC298" t="inlineStr"/>
+      <c r="CD298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
@@ -24875,6 +26989,13 @@
       <c r="BU299" t="inlineStr"/>
       <c r="BV299" t="inlineStr"/>
       <c r="BW299" t="inlineStr"/>
+      <c r="BX299" t="inlineStr"/>
+      <c r="BY299" t="inlineStr"/>
+      <c r="BZ299" t="inlineStr"/>
+      <c r="CA299" t="inlineStr"/>
+      <c r="CB299" t="inlineStr"/>
+      <c r="CC299" t="inlineStr"/>
+      <c r="CD299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
@@ -24956,6 +27077,13 @@
       <c r="BU300" t="inlineStr"/>
       <c r="BV300" t="inlineStr"/>
       <c r="BW300" t="inlineStr"/>
+      <c r="BX300" t="inlineStr"/>
+      <c r="BY300" t="inlineStr"/>
+      <c r="BZ300" t="inlineStr"/>
+      <c r="CA300" t="inlineStr"/>
+      <c r="CB300" t="inlineStr"/>
+      <c r="CC300" t="inlineStr"/>
+      <c r="CD300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -25037,6 +27165,13 @@
       <c r="BU301" t="inlineStr"/>
       <c r="BV301" t="inlineStr"/>
       <c r="BW301" t="inlineStr"/>
+      <c r="BX301" t="inlineStr"/>
+      <c r="BY301" t="inlineStr"/>
+      <c r="BZ301" t="inlineStr"/>
+      <c r="CA301" t="inlineStr"/>
+      <c r="CB301" t="inlineStr"/>
+      <c r="CC301" t="inlineStr"/>
+      <c r="CD301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -25118,6 +27253,13 @@
       <c r="BU302" t="inlineStr"/>
       <c r="BV302" t="inlineStr"/>
       <c r="BW302" t="inlineStr"/>
+      <c r="BX302" t="inlineStr"/>
+      <c r="BY302" t="inlineStr"/>
+      <c r="BZ302" t="inlineStr"/>
+      <c r="CA302" t="inlineStr"/>
+      <c r="CB302" t="inlineStr"/>
+      <c r="CC302" t="inlineStr"/>
+      <c r="CD302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -25199,6 +27341,13 @@
       <c r="BU303" t="inlineStr"/>
       <c r="BV303" t="inlineStr"/>
       <c r="BW303" t="inlineStr"/>
+      <c r="BX303" t="inlineStr"/>
+      <c r="BY303" t="inlineStr"/>
+      <c r="BZ303" t="inlineStr"/>
+      <c r="CA303" t="inlineStr"/>
+      <c r="CB303" t="inlineStr"/>
+      <c r="CC303" t="inlineStr"/>
+      <c r="CD303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -25280,6 +27429,13 @@
       <c r="BU304" t="inlineStr"/>
       <c r="BV304" t="inlineStr"/>
       <c r="BW304" t="inlineStr"/>
+      <c r="BX304" t="inlineStr"/>
+      <c r="BY304" t="inlineStr"/>
+      <c r="BZ304" t="inlineStr"/>
+      <c r="CA304" t="inlineStr"/>
+      <c r="CB304" t="inlineStr"/>
+      <c r="CC304" t="inlineStr"/>
+      <c r="CD304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -25361,6 +27517,13 @@
       <c r="BU305" t="inlineStr"/>
       <c r="BV305" t="inlineStr"/>
       <c r="BW305" t="inlineStr"/>
+      <c r="BX305" t="inlineStr"/>
+      <c r="BY305" t="inlineStr"/>
+      <c r="BZ305" t="inlineStr"/>
+      <c r="CA305" t="inlineStr"/>
+      <c r="CB305" t="inlineStr"/>
+      <c r="CC305" t="inlineStr"/>
+      <c r="CD305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -25442,6 +27605,13 @@
       <c r="BU306" t="inlineStr"/>
       <c r="BV306" t="inlineStr"/>
       <c r="BW306" t="inlineStr"/>
+      <c r="BX306" t="inlineStr"/>
+      <c r="BY306" t="inlineStr"/>
+      <c r="BZ306" t="inlineStr"/>
+      <c r="CA306" t="inlineStr"/>
+      <c r="CB306" t="inlineStr"/>
+      <c r="CC306" t="inlineStr"/>
+      <c r="CD306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -25523,6 +27693,13 @@
       <c r="BU307" t="inlineStr"/>
       <c r="BV307" t="inlineStr"/>
       <c r="BW307" t="inlineStr"/>
+      <c r="BX307" t="inlineStr"/>
+      <c r="BY307" t="inlineStr"/>
+      <c r="BZ307" t="inlineStr"/>
+      <c r="CA307" t="inlineStr"/>
+      <c r="CB307" t="inlineStr"/>
+      <c r="CC307" t="inlineStr"/>
+      <c r="CD307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -25604,6 +27781,13 @@
       <c r="BU308" t="inlineStr"/>
       <c r="BV308" t="inlineStr"/>
       <c r="BW308" t="inlineStr"/>
+      <c r="BX308" t="inlineStr"/>
+      <c r="BY308" t="inlineStr"/>
+      <c r="BZ308" t="inlineStr"/>
+      <c r="CA308" t="inlineStr"/>
+      <c r="CB308" t="inlineStr"/>
+      <c r="CC308" t="inlineStr"/>
+      <c r="CD308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -25685,6 +27869,13 @@
       <c r="BU309" t="inlineStr"/>
       <c r="BV309" t="inlineStr"/>
       <c r="BW309" t="inlineStr"/>
+      <c r="BX309" t="inlineStr"/>
+      <c r="BY309" t="inlineStr"/>
+      <c r="BZ309" t="inlineStr"/>
+      <c r="CA309" t="inlineStr"/>
+      <c r="CB309" t="inlineStr"/>
+      <c r="CC309" t="inlineStr"/>
+      <c r="CD309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -25766,6 +27957,13 @@
       <c r="BU310" t="inlineStr"/>
       <c r="BV310" t="inlineStr"/>
       <c r="BW310" t="inlineStr"/>
+      <c r="BX310" t="inlineStr"/>
+      <c r="BY310" t="inlineStr"/>
+      <c r="BZ310" t="inlineStr"/>
+      <c r="CA310" t="inlineStr"/>
+      <c r="CB310" t="inlineStr"/>
+      <c r="CC310" t="inlineStr"/>
+      <c r="CD310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
@@ -25847,6 +28045,13 @@
       <c r="BU311" t="inlineStr"/>
       <c r="BV311" t="inlineStr"/>
       <c r="BW311" t="inlineStr"/>
+      <c r="BX311" t="inlineStr"/>
+      <c r="BY311" t="inlineStr"/>
+      <c r="BZ311" t="inlineStr"/>
+      <c r="CA311" t="inlineStr"/>
+      <c r="CB311" t="inlineStr"/>
+      <c r="CC311" t="inlineStr"/>
+      <c r="CD311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
@@ -25928,6 +28133,13 @@
       <c r="BU312" t="inlineStr"/>
       <c r="BV312" t="inlineStr"/>
       <c r="BW312" t="inlineStr"/>
+      <c r="BX312" t="inlineStr"/>
+      <c r="BY312" t="inlineStr"/>
+      <c r="BZ312" t="inlineStr"/>
+      <c r="CA312" t="inlineStr"/>
+      <c r="CB312" t="inlineStr"/>
+      <c r="CC312" t="inlineStr"/>
+      <c r="CD312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
@@ -26009,6 +28221,13 @@
       <c r="BU313" t="inlineStr"/>
       <c r="BV313" t="inlineStr"/>
       <c r="BW313" t="inlineStr"/>
+      <c r="BX313" t="inlineStr"/>
+      <c r="BY313" t="inlineStr"/>
+      <c r="BZ313" t="inlineStr"/>
+      <c r="CA313" t="inlineStr"/>
+      <c r="CB313" t="inlineStr"/>
+      <c r="CC313" t="inlineStr"/>
+      <c r="CD313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -26090,6 +28309,13 @@
       <c r="BU314" t="inlineStr"/>
       <c r="BV314" t="inlineStr"/>
       <c r="BW314" t="inlineStr"/>
+      <c r="BX314" t="inlineStr"/>
+      <c r="BY314" t="inlineStr"/>
+      <c r="BZ314" t="inlineStr"/>
+      <c r="CA314" t="inlineStr"/>
+      <c r="CB314" t="inlineStr"/>
+      <c r="CC314" t="inlineStr"/>
+      <c r="CD314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
@@ -26171,6 +28397,13 @@
       <c r="BU315" t="inlineStr"/>
       <c r="BV315" t="inlineStr"/>
       <c r="BW315" t="inlineStr"/>
+      <c r="BX315" t="inlineStr"/>
+      <c r="BY315" t="inlineStr"/>
+      <c r="BZ315" t="inlineStr"/>
+      <c r="CA315" t="inlineStr"/>
+      <c r="CB315" t="inlineStr"/>
+      <c r="CC315" t="inlineStr"/>
+      <c r="CD315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
@@ -26252,6 +28485,13 @@
       <c r="BU316" t="inlineStr"/>
       <c r="BV316" t="inlineStr"/>
       <c r="BW316" t="inlineStr"/>
+      <c r="BX316" t="inlineStr"/>
+      <c r="BY316" t="inlineStr"/>
+      <c r="BZ316" t="inlineStr"/>
+      <c r="CA316" t="inlineStr"/>
+      <c r="CB316" t="inlineStr"/>
+      <c r="CC316" t="inlineStr"/>
+      <c r="CD316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -26333,6 +28573,13 @@
       <c r="BU317" t="inlineStr"/>
       <c r="BV317" t="inlineStr"/>
       <c r="BW317" t="inlineStr"/>
+      <c r="BX317" t="inlineStr"/>
+      <c r="BY317" t="inlineStr"/>
+      <c r="BZ317" t="inlineStr"/>
+      <c r="CA317" t="inlineStr"/>
+      <c r="CB317" t="inlineStr"/>
+      <c r="CC317" t="inlineStr"/>
+      <c r="CD317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
@@ -26414,6 +28661,13 @@
       <c r="BU318" t="inlineStr"/>
       <c r="BV318" t="inlineStr"/>
       <c r="BW318" t="inlineStr"/>
+      <c r="BX318" t="inlineStr"/>
+      <c r="BY318" t="inlineStr"/>
+      <c r="BZ318" t="inlineStr"/>
+      <c r="CA318" t="inlineStr"/>
+      <c r="CB318" t="inlineStr"/>
+      <c r="CC318" t="inlineStr"/>
+      <c r="CD318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
@@ -26495,6 +28749,13 @@
       <c r="BU319" t="inlineStr"/>
       <c r="BV319" t="inlineStr"/>
       <c r="BW319" t="inlineStr"/>
+      <c r="BX319" t="inlineStr"/>
+      <c r="BY319" t="inlineStr"/>
+      <c r="BZ319" t="inlineStr"/>
+      <c r="CA319" t="inlineStr"/>
+      <c r="CB319" t="inlineStr"/>
+      <c r="CC319" t="inlineStr"/>
+      <c r="CD319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
@@ -26576,6 +28837,13 @@
       <c r="BU320" t="inlineStr"/>
       <c r="BV320" t="inlineStr"/>
       <c r="BW320" t="inlineStr"/>
+      <c r="BX320" t="inlineStr"/>
+      <c r="BY320" t="inlineStr"/>
+      <c r="BZ320" t="inlineStr"/>
+      <c r="CA320" t="inlineStr"/>
+      <c r="CB320" t="inlineStr"/>
+      <c r="CC320" t="inlineStr"/>
+      <c r="CD320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
@@ -26657,6 +28925,13 @@
       <c r="BU321" t="inlineStr"/>
       <c r="BV321" t="inlineStr"/>
       <c r="BW321" t="inlineStr"/>
+      <c r="BX321" t="inlineStr"/>
+      <c r="BY321" t="inlineStr"/>
+      <c r="BZ321" t="inlineStr"/>
+      <c r="CA321" t="inlineStr"/>
+      <c r="CB321" t="inlineStr"/>
+      <c r="CC321" t="inlineStr"/>
+      <c r="CD321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -26738,6 +29013,13 @@
       <c r="BU322" t="inlineStr"/>
       <c r="BV322" t="inlineStr"/>
       <c r="BW322" t="inlineStr"/>
+      <c r="BX322" t="inlineStr"/>
+      <c r="BY322" t="inlineStr"/>
+      <c r="BZ322" t="inlineStr"/>
+      <c r="CA322" t="inlineStr"/>
+      <c r="CB322" t="inlineStr"/>
+      <c r="CC322" t="inlineStr"/>
+      <c r="CD322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
@@ -26819,6 +29101,13 @@
       <c r="BU323" t="inlineStr"/>
       <c r="BV323" t="inlineStr"/>
       <c r="BW323" t="inlineStr"/>
+      <c r="BX323" t="inlineStr"/>
+      <c r="BY323" t="inlineStr"/>
+      <c r="BZ323" t="inlineStr"/>
+      <c r="CA323" t="inlineStr"/>
+      <c r="CB323" t="inlineStr"/>
+      <c r="CC323" t="inlineStr"/>
+      <c r="CD323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
@@ -26900,6 +29189,13 @@
       <c r="BU324" t="inlineStr"/>
       <c r="BV324" t="inlineStr"/>
       <c r="BW324" t="inlineStr"/>
+      <c r="BX324" t="inlineStr"/>
+      <c r="BY324" t="inlineStr"/>
+      <c r="BZ324" t="inlineStr"/>
+      <c r="CA324" t="inlineStr"/>
+      <c r="CB324" t="inlineStr"/>
+      <c r="CC324" t="inlineStr"/>
+      <c r="CD324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
@@ -26981,6 +29277,13 @@
       <c r="BU325" t="inlineStr"/>
       <c r="BV325" t="inlineStr"/>
       <c r="BW325" t="inlineStr"/>
+      <c r="BX325" t="inlineStr"/>
+      <c r="BY325" t="inlineStr"/>
+      <c r="BZ325" t="inlineStr"/>
+      <c r="CA325" t="inlineStr"/>
+      <c r="CB325" t="inlineStr"/>
+      <c r="CC325" t="inlineStr"/>
+      <c r="CD325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="inlineStr">
@@ -27062,6 +29365,13 @@
       <c r="BU326" t="inlineStr"/>
       <c r="BV326" t="inlineStr"/>
       <c r="BW326" t="inlineStr"/>
+      <c r="BX326" t="inlineStr"/>
+      <c r="BY326" t="inlineStr"/>
+      <c r="BZ326" t="inlineStr"/>
+      <c r="CA326" t="inlineStr"/>
+      <c r="CB326" t="inlineStr"/>
+      <c r="CC326" t="inlineStr"/>
+      <c r="CD326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="inlineStr">
@@ -27143,6 +29453,13 @@
       <c r="BU327" t="inlineStr"/>
       <c r="BV327" t="inlineStr"/>
       <c r="BW327" t="inlineStr"/>
+      <c r="BX327" t="inlineStr"/>
+      <c r="BY327" t="inlineStr"/>
+      <c r="BZ327" t="inlineStr"/>
+      <c r="CA327" t="inlineStr"/>
+      <c r="CB327" t="inlineStr"/>
+      <c r="CC327" t="inlineStr"/>
+      <c r="CD327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="inlineStr">
@@ -27224,6 +29541,13 @@
       <c r="BU328" t="inlineStr"/>
       <c r="BV328" t="inlineStr"/>
       <c r="BW328" t="inlineStr"/>
+      <c r="BX328" t="inlineStr"/>
+      <c r="BY328" t="inlineStr"/>
+      <c r="BZ328" t="inlineStr"/>
+      <c r="CA328" t="inlineStr"/>
+      <c r="CB328" t="inlineStr"/>
+      <c r="CC328" t="inlineStr"/>
+      <c r="CD328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="inlineStr">
@@ -27305,6 +29629,13 @@
       <c r="BU329" t="inlineStr"/>
       <c r="BV329" t="inlineStr"/>
       <c r="BW329" t="inlineStr"/>
+      <c r="BX329" t="inlineStr"/>
+      <c r="BY329" t="inlineStr"/>
+      <c r="BZ329" t="inlineStr"/>
+      <c r="CA329" t="inlineStr"/>
+      <c r="CB329" t="inlineStr"/>
+      <c r="CC329" t="inlineStr"/>
+      <c r="CD329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="inlineStr">
@@ -27386,6 +29717,13 @@
       <c r="BU330" t="inlineStr"/>
       <c r="BV330" t="inlineStr"/>
       <c r="BW330" t="inlineStr"/>
+      <c r="BX330" t="inlineStr"/>
+      <c r="BY330" t="inlineStr"/>
+      <c r="BZ330" t="inlineStr"/>
+      <c r="CA330" t="inlineStr"/>
+      <c r="CB330" t="inlineStr"/>
+      <c r="CC330" t="inlineStr"/>
+      <c r="CD330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="inlineStr">
@@ -27467,6 +29805,13 @@
       <c r="BU331" t="inlineStr"/>
       <c r="BV331" t="inlineStr"/>
       <c r="BW331" t="inlineStr"/>
+      <c r="BX331" t="inlineStr"/>
+      <c r="BY331" t="inlineStr"/>
+      <c r="BZ331" t="inlineStr"/>
+      <c r="CA331" t="inlineStr"/>
+      <c r="CB331" t="inlineStr"/>
+      <c r="CC331" t="inlineStr"/>
+      <c r="CD331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="inlineStr">
@@ -27548,6 +29893,13 @@
       <c r="BU332" t="inlineStr"/>
       <c r="BV332" t="inlineStr"/>
       <c r="BW332" t="inlineStr"/>
+      <c r="BX332" t="inlineStr"/>
+      <c r="BY332" t="inlineStr"/>
+      <c r="BZ332" t="inlineStr"/>
+      <c r="CA332" t="inlineStr"/>
+      <c r="CB332" t="inlineStr"/>
+      <c r="CC332" t="inlineStr"/>
+      <c r="CD332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="inlineStr">
@@ -27629,6 +29981,13 @@
       <c r="BU333" t="inlineStr"/>
       <c r="BV333" t="inlineStr"/>
       <c r="BW333" t="inlineStr"/>
+      <c r="BX333" t="inlineStr"/>
+      <c r="BY333" t="inlineStr"/>
+      <c r="BZ333" t="inlineStr"/>
+      <c r="CA333" t="inlineStr"/>
+      <c r="CB333" t="inlineStr"/>
+      <c r="CC333" t="inlineStr"/>
+      <c r="CD333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="inlineStr">
@@ -27710,6 +30069,13 @@
       <c r="BU334" t="inlineStr"/>
       <c r="BV334" t="inlineStr"/>
       <c r="BW334" t="inlineStr"/>
+      <c r="BX334" t="inlineStr"/>
+      <c r="BY334" t="inlineStr"/>
+      <c r="BZ334" t="inlineStr"/>
+      <c r="CA334" t="inlineStr"/>
+      <c r="CB334" t="inlineStr"/>
+      <c r="CC334" t="inlineStr"/>
+      <c r="CD334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="inlineStr">
@@ -27791,6 +30157,13 @@
       <c r="BU335" t="inlineStr"/>
       <c r="BV335" t="inlineStr"/>
       <c r="BW335" t="inlineStr"/>
+      <c r="BX335" t="inlineStr"/>
+      <c r="BY335" t="inlineStr"/>
+      <c r="BZ335" t="inlineStr"/>
+      <c r="CA335" t="inlineStr"/>
+      <c r="CB335" t="inlineStr"/>
+      <c r="CC335" t="inlineStr"/>
+      <c r="CD335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="inlineStr">
@@ -27872,6 +30245,13 @@
       <c r="BU336" t="inlineStr"/>
       <c r="BV336" t="inlineStr"/>
       <c r="BW336" t="inlineStr"/>
+      <c r="BX336" t="inlineStr"/>
+      <c r="BY336" t="inlineStr"/>
+      <c r="BZ336" t="inlineStr"/>
+      <c r="CA336" t="inlineStr"/>
+      <c r="CB336" t="inlineStr"/>
+      <c r="CC336" t="inlineStr"/>
+      <c r="CD336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="inlineStr">
@@ -27953,6 +30333,13 @@
       <c r="BU337" t="inlineStr"/>
       <c r="BV337" t="inlineStr"/>
       <c r="BW337" t="inlineStr"/>
+      <c r="BX337" t="inlineStr"/>
+      <c r="BY337" t="inlineStr"/>
+      <c r="BZ337" t="inlineStr"/>
+      <c r="CA337" t="inlineStr"/>
+      <c r="CB337" t="inlineStr"/>
+      <c r="CC337" t="inlineStr"/>
+      <c r="CD337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="inlineStr">
@@ -28034,6 +30421,13 @@
       <c r="BU338" t="inlineStr"/>
       <c r="BV338" t="inlineStr"/>
       <c r="BW338" t="inlineStr"/>
+      <c r="BX338" t="inlineStr"/>
+      <c r="BY338" t="inlineStr"/>
+      <c r="BZ338" t="inlineStr"/>
+      <c r="CA338" t="inlineStr"/>
+      <c r="CB338" t="inlineStr"/>
+      <c r="CC338" t="inlineStr"/>
+      <c r="CD338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="inlineStr">
@@ -28115,6 +30509,13 @@
       <c r="BU339" t="inlineStr"/>
       <c r="BV339" t="inlineStr"/>
       <c r="BW339" t="inlineStr"/>
+      <c r="BX339" t="inlineStr"/>
+      <c r="BY339" t="inlineStr"/>
+      <c r="BZ339" t="inlineStr"/>
+      <c r="CA339" t="inlineStr"/>
+      <c r="CB339" t="inlineStr"/>
+      <c r="CC339" t="inlineStr"/>
+      <c r="CD339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="inlineStr">
@@ -28196,6 +30597,13 @@
       <c r="BU340" t="inlineStr"/>
       <c r="BV340" t="inlineStr"/>
       <c r="BW340" t="inlineStr"/>
+      <c r="BX340" t="inlineStr"/>
+      <c r="BY340" t="inlineStr"/>
+      <c r="BZ340" t="inlineStr"/>
+      <c r="CA340" t="inlineStr"/>
+      <c r="CB340" t="inlineStr"/>
+      <c r="CC340" t="inlineStr"/>
+      <c r="CD340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="inlineStr">
@@ -28277,6 +30685,13 @@
       <c r="BU341" t="inlineStr"/>
       <c r="BV341" t="inlineStr"/>
       <c r="BW341" t="inlineStr"/>
+      <c r="BX341" t="inlineStr"/>
+      <c r="BY341" t="inlineStr"/>
+      <c r="BZ341" t="inlineStr"/>
+      <c r="CA341" t="inlineStr"/>
+      <c r="CB341" t="inlineStr"/>
+      <c r="CC341" t="inlineStr"/>
+      <c r="CD341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="inlineStr">
@@ -28358,6 +30773,13 @@
       <c r="BU342" t="inlineStr"/>
       <c r="BV342" t="inlineStr"/>
       <c r="BW342" t="inlineStr"/>
+      <c r="BX342" t="inlineStr"/>
+      <c r="BY342" t="inlineStr"/>
+      <c r="BZ342" t="inlineStr"/>
+      <c r="CA342" t="inlineStr"/>
+      <c r="CB342" t="inlineStr"/>
+      <c r="CC342" t="inlineStr"/>
+      <c r="CD342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="inlineStr">
@@ -28439,6 +30861,13 @@
       <c r="BU343" t="inlineStr"/>
       <c r="BV343" t="inlineStr"/>
       <c r="BW343" t="inlineStr"/>
+      <c r="BX343" t="inlineStr"/>
+      <c r="BY343" t="inlineStr"/>
+      <c r="BZ343" t="inlineStr"/>
+      <c r="CA343" t="inlineStr"/>
+      <c r="CB343" t="inlineStr"/>
+      <c r="CC343" t="inlineStr"/>
+      <c r="CD343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="inlineStr">
@@ -28520,6 +30949,13 @@
       <c r="BU344" t="inlineStr"/>
       <c r="BV344" t="inlineStr"/>
       <c r="BW344" t="inlineStr"/>
+      <c r="BX344" t="inlineStr"/>
+      <c r="BY344" t="inlineStr"/>
+      <c r="BZ344" t="inlineStr"/>
+      <c r="CA344" t="inlineStr"/>
+      <c r="CB344" t="inlineStr"/>
+      <c r="CC344" t="inlineStr"/>
+      <c r="CD344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="inlineStr">
@@ -28601,6 +31037,13 @@
       <c r="BU345" t="inlineStr"/>
       <c r="BV345" t="inlineStr"/>
       <c r="BW345" t="inlineStr"/>
+      <c r="BX345" t="inlineStr"/>
+      <c r="BY345" t="inlineStr"/>
+      <c r="BZ345" t="inlineStr"/>
+      <c r="CA345" t="inlineStr"/>
+      <c r="CB345" t="inlineStr"/>
+      <c r="CC345" t="inlineStr"/>
+      <c r="CD345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="inlineStr">
@@ -28682,6 +31125,13 @@
       <c r="BU346" t="inlineStr"/>
       <c r="BV346" t="inlineStr"/>
       <c r="BW346" t="inlineStr"/>
+      <c r="BX346" t="inlineStr"/>
+      <c r="BY346" t="inlineStr"/>
+      <c r="BZ346" t="inlineStr"/>
+      <c r="CA346" t="inlineStr"/>
+      <c r="CB346" t="inlineStr"/>
+      <c r="CC346" t="inlineStr"/>
+      <c r="CD346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="inlineStr">
@@ -28763,6 +31213,13 @@
       <c r="BU347" t="inlineStr"/>
       <c r="BV347" t="inlineStr"/>
       <c r="BW347" t="inlineStr"/>
+      <c r="BX347" t="inlineStr"/>
+      <c r="BY347" t="inlineStr"/>
+      <c r="BZ347" t="inlineStr"/>
+      <c r="CA347" t="inlineStr"/>
+      <c r="CB347" t="inlineStr"/>
+      <c r="CC347" t="inlineStr"/>
+      <c r="CD347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="inlineStr">
@@ -28844,6 +31301,13 @@
       <c r="BU348" t="inlineStr"/>
       <c r="BV348" t="inlineStr"/>
       <c r="BW348" t="inlineStr"/>
+      <c r="BX348" t="inlineStr"/>
+      <c r="BY348" t="inlineStr"/>
+      <c r="BZ348" t="inlineStr"/>
+      <c r="CA348" t="inlineStr"/>
+      <c r="CB348" t="inlineStr"/>
+      <c r="CC348" t="inlineStr"/>
+      <c r="CD348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="inlineStr">
@@ -28925,6 +31389,13 @@
       <c r="BU349" t="inlineStr"/>
       <c r="BV349" t="inlineStr"/>
       <c r="BW349" t="inlineStr"/>
+      <c r="BX349" t="inlineStr"/>
+      <c r="BY349" t="inlineStr"/>
+      <c r="BZ349" t="inlineStr"/>
+      <c r="CA349" t="inlineStr"/>
+      <c r="CB349" t="inlineStr"/>
+      <c r="CC349" t="inlineStr"/>
+      <c r="CD349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="inlineStr">
@@ -29006,6 +31477,13 @@
       <c r="BU350" t="inlineStr"/>
       <c r="BV350" t="inlineStr"/>
       <c r="BW350" t="inlineStr"/>
+      <c r="BX350" t="inlineStr"/>
+      <c r="BY350" t="inlineStr"/>
+      <c r="BZ350" t="inlineStr"/>
+      <c r="CA350" t="inlineStr"/>
+      <c r="CB350" t="inlineStr"/>
+      <c r="CC350" t="inlineStr"/>
+      <c r="CD350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="inlineStr">
@@ -29087,6 +31565,13 @@
       <c r="BU351" t="inlineStr"/>
       <c r="BV351" t="inlineStr"/>
       <c r="BW351" t="inlineStr"/>
+      <c r="BX351" t="inlineStr"/>
+      <c r="BY351" t="inlineStr"/>
+      <c r="BZ351" t="inlineStr"/>
+      <c r="CA351" t="inlineStr"/>
+      <c r="CB351" t="inlineStr"/>
+      <c r="CC351" t="inlineStr"/>
+      <c r="CD351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="inlineStr">
@@ -29168,6 +31653,13 @@
       <c r="BU352" t="inlineStr"/>
       <c r="BV352" t="inlineStr"/>
       <c r="BW352" t="inlineStr"/>
+      <c r="BX352" t="inlineStr"/>
+      <c r="BY352" t="inlineStr"/>
+      <c r="BZ352" t="inlineStr"/>
+      <c r="CA352" t="inlineStr"/>
+      <c r="CB352" t="inlineStr"/>
+      <c r="CC352" t="inlineStr"/>
+      <c r="CD352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="inlineStr">
@@ -29249,6 +31741,13 @@
       <c r="BU353" t="inlineStr"/>
       <c r="BV353" t="inlineStr"/>
       <c r="BW353" t="inlineStr"/>
+      <c r="BX353" t="inlineStr"/>
+      <c r="BY353" t="inlineStr"/>
+      <c r="BZ353" t="inlineStr"/>
+      <c r="CA353" t="inlineStr"/>
+      <c r="CB353" t="inlineStr"/>
+      <c r="CC353" t="inlineStr"/>
+      <c r="CD353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="inlineStr">
@@ -29330,6 +31829,13 @@
       <c r="BU354" t="inlineStr"/>
       <c r="BV354" t="inlineStr"/>
       <c r="BW354" t="inlineStr"/>
+      <c r="BX354" t="inlineStr"/>
+      <c r="BY354" t="inlineStr"/>
+      <c r="BZ354" t="inlineStr"/>
+      <c r="CA354" t="inlineStr"/>
+      <c r="CB354" t="inlineStr"/>
+      <c r="CC354" t="inlineStr"/>
+      <c r="CD354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="inlineStr">
@@ -29411,6 +31917,13 @@
       <c r="BU355" t="inlineStr"/>
       <c r="BV355" t="inlineStr"/>
       <c r="BW355" t="inlineStr"/>
+      <c r="BX355" t="inlineStr"/>
+      <c r="BY355" t="inlineStr"/>
+      <c r="BZ355" t="inlineStr"/>
+      <c r="CA355" t="inlineStr"/>
+      <c r="CB355" t="inlineStr"/>
+      <c r="CC355" t="inlineStr"/>
+      <c r="CD355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="inlineStr">
@@ -29492,6 +32005,13 @@
       <c r="BU356" t="inlineStr"/>
       <c r="BV356" t="inlineStr"/>
       <c r="BW356" t="inlineStr"/>
+      <c r="BX356" t="inlineStr"/>
+      <c r="BY356" t="inlineStr"/>
+      <c r="BZ356" t="inlineStr"/>
+      <c r="CA356" t="inlineStr"/>
+      <c r="CB356" t="inlineStr"/>
+      <c r="CC356" t="inlineStr"/>
+      <c r="CD356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="inlineStr">
@@ -29573,6 +32093,13 @@
       <c r="BU357" t="inlineStr"/>
       <c r="BV357" t="inlineStr"/>
       <c r="BW357" t="inlineStr"/>
+      <c r="BX357" t="inlineStr"/>
+      <c r="BY357" t="inlineStr"/>
+      <c r="BZ357" t="inlineStr"/>
+      <c r="CA357" t="inlineStr"/>
+      <c r="CB357" t="inlineStr"/>
+      <c r="CC357" t="inlineStr"/>
+      <c r="CD357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="inlineStr">
@@ -29654,6 +32181,13 @@
       <c r="BU358" t="inlineStr"/>
       <c r="BV358" t="inlineStr"/>
       <c r="BW358" t="inlineStr"/>
+      <c r="BX358" t="inlineStr"/>
+      <c r="BY358" t="inlineStr"/>
+      <c r="BZ358" t="inlineStr"/>
+      <c r="CA358" t="inlineStr"/>
+      <c r="CB358" t="inlineStr"/>
+      <c r="CC358" t="inlineStr"/>
+      <c r="CD358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="inlineStr">
@@ -29735,6 +32269,13 @@
       <c r="BU359" t="inlineStr"/>
       <c r="BV359" t="inlineStr"/>
       <c r="BW359" t="inlineStr"/>
+      <c r="BX359" t="inlineStr"/>
+      <c r="BY359" t="inlineStr"/>
+      <c r="BZ359" t="inlineStr"/>
+      <c r="CA359" t="inlineStr"/>
+      <c r="CB359" t="inlineStr"/>
+      <c r="CC359" t="inlineStr"/>
+      <c r="CD359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="inlineStr">
@@ -29816,6 +32357,13 @@
       <c r="BU360" t="inlineStr"/>
       <c r="BV360" t="inlineStr"/>
       <c r="BW360" t="inlineStr"/>
+      <c r="BX360" t="inlineStr"/>
+      <c r="BY360" t="inlineStr"/>
+      <c r="BZ360" t="inlineStr"/>
+      <c r="CA360" t="inlineStr"/>
+      <c r="CB360" t="inlineStr"/>
+      <c r="CC360" t="inlineStr"/>
+      <c r="CD360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="inlineStr">
@@ -29897,6 +32445,13 @@
       <c r="BU361" t="inlineStr"/>
       <c r="BV361" t="inlineStr"/>
       <c r="BW361" t="inlineStr"/>
+      <c r="BX361" t="inlineStr"/>
+      <c r="BY361" t="inlineStr"/>
+      <c r="BZ361" t="inlineStr"/>
+      <c r="CA361" t="inlineStr"/>
+      <c r="CB361" t="inlineStr"/>
+      <c r="CC361" t="inlineStr"/>
+      <c r="CD361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="inlineStr">
@@ -29978,6 +32533,13 @@
       <c r="BU362" t="inlineStr"/>
       <c r="BV362" t="inlineStr"/>
       <c r="BW362" t="inlineStr"/>
+      <c r="BX362" t="inlineStr"/>
+      <c r="BY362" t="inlineStr"/>
+      <c r="BZ362" t="inlineStr"/>
+      <c r="CA362" t="inlineStr"/>
+      <c r="CB362" t="inlineStr"/>
+      <c r="CC362" t="inlineStr"/>
+      <c r="CD362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="inlineStr">
@@ -30059,6 +32621,13 @@
       <c r="BU363" t="inlineStr"/>
       <c r="BV363" t="inlineStr"/>
       <c r="BW363" t="inlineStr"/>
+      <c r="BX363" t="inlineStr"/>
+      <c r="BY363" t="inlineStr"/>
+      <c r="BZ363" t="inlineStr"/>
+      <c r="CA363" t="inlineStr"/>
+      <c r="CB363" t="inlineStr"/>
+      <c r="CC363" t="inlineStr"/>
+      <c r="CD363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="inlineStr">
@@ -30140,6 +32709,13 @@
       <c r="BU364" t="inlineStr"/>
       <c r="BV364" t="inlineStr"/>
       <c r="BW364" t="inlineStr"/>
+      <c r="BX364" t="inlineStr"/>
+      <c r="BY364" t="inlineStr"/>
+      <c r="BZ364" t="inlineStr"/>
+      <c r="CA364" t="inlineStr"/>
+      <c r="CB364" t="inlineStr"/>
+      <c r="CC364" t="inlineStr"/>
+      <c r="CD364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="inlineStr">
@@ -30221,6 +32797,13 @@
       <c r="BU365" t="inlineStr"/>
       <c r="BV365" t="inlineStr"/>
       <c r="BW365" t="inlineStr"/>
+      <c r="BX365" t="inlineStr"/>
+      <c r="BY365" t="inlineStr"/>
+      <c r="BZ365" t="inlineStr"/>
+      <c r="CA365" t="inlineStr"/>
+      <c r="CB365" t="inlineStr"/>
+      <c r="CC365" t="inlineStr"/>
+      <c r="CD365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="inlineStr">
@@ -30302,6 +32885,13 @@
       <c r="BU366" t="inlineStr"/>
       <c r="BV366" t="inlineStr"/>
       <c r="BW366" t="inlineStr"/>
+      <c r="BX366" t="inlineStr"/>
+      <c r="BY366" t="inlineStr"/>
+      <c r="BZ366" t="inlineStr"/>
+      <c r="CA366" t="inlineStr"/>
+      <c r="CB366" t="inlineStr"/>
+      <c r="CC366" t="inlineStr"/>
+      <c r="CD366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="inlineStr">
@@ -30383,6 +32973,13 @@
       <c r="BU367" t="inlineStr"/>
       <c r="BV367" t="inlineStr"/>
       <c r="BW367" t="inlineStr"/>
+      <c r="BX367" t="inlineStr"/>
+      <c r="BY367" t="inlineStr"/>
+      <c r="BZ367" t="inlineStr"/>
+      <c r="CA367" t="inlineStr"/>
+      <c r="CB367" t="inlineStr"/>
+      <c r="CC367" t="inlineStr"/>
+      <c r="CD367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="inlineStr">
@@ -30464,6 +33061,13 @@
       <c r="BU368" t="inlineStr"/>
       <c r="BV368" t="inlineStr"/>
       <c r="BW368" t="inlineStr"/>
+      <c r="BX368" t="inlineStr"/>
+      <c r="BY368" t="inlineStr"/>
+      <c r="BZ368" t="inlineStr"/>
+      <c r="CA368" t="inlineStr"/>
+      <c r="CB368" t="inlineStr"/>
+      <c r="CC368" t="inlineStr"/>
+      <c r="CD368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="inlineStr">
@@ -30545,6 +33149,13 @@
       <c r="BU369" t="inlineStr"/>
       <c r="BV369" t="inlineStr"/>
       <c r="BW369" t="inlineStr"/>
+      <c r="BX369" t="inlineStr"/>
+      <c r="BY369" t="inlineStr"/>
+      <c r="BZ369" t="inlineStr"/>
+      <c r="CA369" t="inlineStr"/>
+      <c r="CB369" t="inlineStr"/>
+      <c r="CC369" t="inlineStr"/>
+      <c r="CD369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="inlineStr">
@@ -30626,6 +33237,13 @@
       <c r="BU370" t="inlineStr"/>
       <c r="BV370" t="inlineStr"/>
       <c r="BW370" t="inlineStr"/>
+      <c r="BX370" t="inlineStr"/>
+      <c r="BY370" t="inlineStr"/>
+      <c r="BZ370" t="inlineStr"/>
+      <c r="CA370" t="inlineStr"/>
+      <c r="CB370" t="inlineStr"/>
+      <c r="CC370" t="inlineStr"/>
+      <c r="CD370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="1" t="inlineStr">
@@ -30707,6 +33325,13 @@
       <c r="BU371" t="inlineStr"/>
       <c r="BV371" t="inlineStr"/>
       <c r="BW371" t="inlineStr"/>
+      <c r="BX371" t="inlineStr"/>
+      <c r="BY371" t="inlineStr"/>
+      <c r="BZ371" t="inlineStr"/>
+      <c r="CA371" t="inlineStr"/>
+      <c r="CB371" t="inlineStr"/>
+      <c r="CC371" t="inlineStr"/>
+      <c r="CD371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="inlineStr">
@@ -30788,6 +33413,13 @@
       <c r="BU372" t="inlineStr"/>
       <c r="BV372" t="inlineStr"/>
       <c r="BW372" t="inlineStr"/>
+      <c r="BX372" t="inlineStr"/>
+      <c r="BY372" t="inlineStr"/>
+      <c r="BZ372" t="inlineStr"/>
+      <c r="CA372" t="inlineStr"/>
+      <c r="CB372" t="inlineStr"/>
+      <c r="CC372" t="inlineStr"/>
+      <c r="CD372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="inlineStr">
@@ -30869,6 +33501,13 @@
       <c r="BU373" t="inlineStr"/>
       <c r="BV373" t="inlineStr"/>
       <c r="BW373" t="inlineStr"/>
+      <c r="BX373" t="inlineStr"/>
+      <c r="BY373" t="inlineStr"/>
+      <c r="BZ373" t="inlineStr"/>
+      <c r="CA373" t="inlineStr"/>
+      <c r="CB373" t="inlineStr"/>
+      <c r="CC373" t="inlineStr"/>
+      <c r="CD373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="1" t="inlineStr">
@@ -30950,6 +33589,13 @@
       <c r="BU374" t="inlineStr"/>
       <c r="BV374" t="inlineStr"/>
       <c r="BW374" t="inlineStr"/>
+      <c r="BX374" t="inlineStr"/>
+      <c r="BY374" t="inlineStr"/>
+      <c r="BZ374" t="inlineStr"/>
+      <c r="CA374" t="inlineStr"/>
+      <c r="CB374" t="inlineStr"/>
+      <c r="CC374" t="inlineStr"/>
+      <c r="CD374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="1" t="inlineStr">
@@ -31031,6 +33677,13 @@
       <c r="BU375" t="inlineStr"/>
       <c r="BV375" t="inlineStr"/>
       <c r="BW375" t="inlineStr"/>
+      <c r="BX375" t="inlineStr"/>
+      <c r="BY375" t="inlineStr"/>
+      <c r="BZ375" t="inlineStr"/>
+      <c r="CA375" t="inlineStr"/>
+      <c r="CB375" t="inlineStr"/>
+      <c r="CC375" t="inlineStr"/>
+      <c r="CD375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" s="1" t="inlineStr">
@@ -31112,6 +33765,13 @@
       <c r="BU376" t="inlineStr"/>
       <c r="BV376" t="inlineStr"/>
       <c r="BW376" t="inlineStr"/>
+      <c r="BX376" t="inlineStr"/>
+      <c r="BY376" t="inlineStr"/>
+      <c r="BZ376" t="inlineStr"/>
+      <c r="CA376" t="inlineStr"/>
+      <c r="CB376" t="inlineStr"/>
+      <c r="CC376" t="inlineStr"/>
+      <c r="CD376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" s="1" t="inlineStr">
@@ -31193,6 +33853,13 @@
       <c r="BU377" t="inlineStr"/>
       <c r="BV377" t="inlineStr"/>
       <c r="BW377" t="inlineStr"/>
+      <c r="BX377" t="inlineStr"/>
+      <c r="BY377" t="inlineStr"/>
+      <c r="BZ377" t="inlineStr"/>
+      <c r="CA377" t="inlineStr"/>
+      <c r="CB377" t="inlineStr"/>
+      <c r="CC377" t="inlineStr"/>
+      <c r="CD377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" s="1" t="inlineStr">
@@ -31274,6 +33941,13 @@
       <c r="BU378" t="inlineStr"/>
       <c r="BV378" t="inlineStr"/>
       <c r="BW378" t="inlineStr"/>
+      <c r="BX378" t="inlineStr"/>
+      <c r="BY378" t="inlineStr"/>
+      <c r="BZ378" t="inlineStr"/>
+      <c r="CA378" t="inlineStr"/>
+      <c r="CB378" t="inlineStr"/>
+      <c r="CC378" t="inlineStr"/>
+      <c r="CD378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" s="1" t="inlineStr">
@@ -31355,6 +34029,13 @@
       <c r="BU379" t="inlineStr"/>
       <c r="BV379" t="inlineStr"/>
       <c r="BW379" t="inlineStr"/>
+      <c r="BX379" t="inlineStr"/>
+      <c r="BY379" t="inlineStr"/>
+      <c r="BZ379" t="inlineStr"/>
+      <c r="CA379" t="inlineStr"/>
+      <c r="CB379" t="inlineStr"/>
+      <c r="CC379" t="inlineStr"/>
+      <c r="CD379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" s="1" t="inlineStr">
@@ -31436,6 +34117,13 @@
       <c r="BU380" t="inlineStr"/>
       <c r="BV380" t="inlineStr"/>
       <c r="BW380" t="inlineStr"/>
+      <c r="BX380" t="inlineStr"/>
+      <c r="BY380" t="inlineStr"/>
+      <c r="BZ380" t="inlineStr"/>
+      <c r="CA380" t="inlineStr"/>
+      <c r="CB380" t="inlineStr"/>
+      <c r="CC380" t="inlineStr"/>
+      <c r="CD380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" s="1" t="inlineStr">
@@ -31517,6 +34205,13 @@
       <c r="BU381" t="inlineStr"/>
       <c r="BV381" t="inlineStr"/>
       <c r="BW381" t="inlineStr"/>
+      <c r="BX381" t="inlineStr"/>
+      <c r="BY381" t="inlineStr"/>
+      <c r="BZ381" t="inlineStr"/>
+      <c r="CA381" t="inlineStr"/>
+      <c r="CB381" t="inlineStr"/>
+      <c r="CC381" t="inlineStr"/>
+      <c r="CD381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" s="1" t="inlineStr">
@@ -31598,6 +34293,13 @@
       <c r="BU382" t="inlineStr"/>
       <c r="BV382" t="inlineStr"/>
       <c r="BW382" t="inlineStr"/>
+      <c r="BX382" t="inlineStr"/>
+      <c r="BY382" t="inlineStr"/>
+      <c r="BZ382" t="inlineStr"/>
+      <c r="CA382" t="inlineStr"/>
+      <c r="CB382" t="inlineStr"/>
+      <c r="CC382" t="inlineStr"/>
+      <c r="CD382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" s="1" t="inlineStr">
@@ -31679,6 +34381,13 @@
       <c r="BU383" t="inlineStr"/>
       <c r="BV383" t="inlineStr"/>
       <c r="BW383" t="inlineStr"/>
+      <c r="BX383" t="inlineStr"/>
+      <c r="BY383" t="inlineStr"/>
+      <c r="BZ383" t="inlineStr"/>
+      <c r="CA383" t="inlineStr"/>
+      <c r="CB383" t="inlineStr"/>
+      <c r="CC383" t="inlineStr"/>
+      <c r="CD383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" s="1" t="inlineStr">
@@ -31760,6 +34469,13 @@
       <c r="BU384" t="inlineStr"/>
       <c r="BV384" t="inlineStr"/>
       <c r="BW384" t="inlineStr"/>
+      <c r="BX384" t="inlineStr"/>
+      <c r="BY384" t="inlineStr"/>
+      <c r="BZ384" t="inlineStr"/>
+      <c r="CA384" t="inlineStr"/>
+      <c r="CB384" t="inlineStr"/>
+      <c r="CC384" t="inlineStr"/>
+      <c r="CD384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" s="1" t="inlineStr">
@@ -31841,6 +34557,13 @@
       <c r="BU385" t="inlineStr"/>
       <c r="BV385" t="inlineStr"/>
       <c r="BW385" t="inlineStr"/>
+      <c r="BX385" t="inlineStr"/>
+      <c r="BY385" t="inlineStr"/>
+      <c r="BZ385" t="inlineStr"/>
+      <c r="CA385" t="inlineStr"/>
+      <c r="CB385" t="inlineStr"/>
+      <c r="CC385" t="inlineStr"/>
+      <c r="CD385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" s="1" t="inlineStr">
@@ -31922,6 +34645,13 @@
       <c r="BU386" t="inlineStr"/>
       <c r="BV386" t="inlineStr"/>
       <c r="BW386" t="inlineStr"/>
+      <c r="BX386" t="inlineStr"/>
+      <c r="BY386" t="inlineStr"/>
+      <c r="BZ386" t="inlineStr"/>
+      <c r="CA386" t="inlineStr"/>
+      <c r="CB386" t="inlineStr"/>
+      <c r="CC386" t="inlineStr"/>
+      <c r="CD386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" s="1" t="inlineStr">
@@ -32003,6 +34733,13 @@
       <c r="BU387" t="inlineStr"/>
       <c r="BV387" t="inlineStr"/>
       <c r="BW387" t="inlineStr"/>
+      <c r="BX387" t="inlineStr"/>
+      <c r="BY387" t="inlineStr"/>
+      <c r="BZ387" t="inlineStr"/>
+      <c r="CA387" t="inlineStr"/>
+      <c r="CB387" t="inlineStr"/>
+      <c r="CC387" t="inlineStr"/>
+      <c r="CD387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" s="1" t="inlineStr">
@@ -32084,6 +34821,13 @@
       <c r="BU388" t="inlineStr"/>
       <c r="BV388" t="inlineStr"/>
       <c r="BW388" t="inlineStr"/>
+      <c r="BX388" t="inlineStr"/>
+      <c r="BY388" t="inlineStr"/>
+      <c r="BZ388" t="inlineStr"/>
+      <c r="CA388" t="inlineStr"/>
+      <c r="CB388" t="inlineStr"/>
+      <c r="CC388" t="inlineStr"/>
+      <c r="CD388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" s="1" t="inlineStr">
@@ -32165,6 +34909,13 @@
       <c r="BU389" t="inlineStr"/>
       <c r="BV389" t="inlineStr"/>
       <c r="BW389" t="inlineStr"/>
+      <c r="BX389" t="inlineStr"/>
+      <c r="BY389" t="inlineStr"/>
+      <c r="BZ389" t="inlineStr"/>
+      <c r="CA389" t="inlineStr"/>
+      <c r="CB389" t="inlineStr"/>
+      <c r="CC389" t="inlineStr"/>
+      <c r="CD389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" s="1" t="inlineStr">
@@ -32246,6 +34997,13 @@
       <c r="BU390" t="inlineStr"/>
       <c r="BV390" t="inlineStr"/>
       <c r="BW390" t="inlineStr"/>
+      <c r="BX390" t="inlineStr"/>
+      <c r="BY390" t="inlineStr"/>
+      <c r="BZ390" t="inlineStr"/>
+      <c r="CA390" t="inlineStr"/>
+      <c r="CB390" t="inlineStr"/>
+      <c r="CC390" t="inlineStr"/>
+      <c r="CD390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" s="1" t="inlineStr">
@@ -32327,6 +35085,13 @@
       <c r="BU391" t="inlineStr"/>
       <c r="BV391" t="inlineStr"/>
       <c r="BW391" t="inlineStr"/>
+      <c r="BX391" t="inlineStr"/>
+      <c r="BY391" t="inlineStr"/>
+      <c r="BZ391" t="inlineStr"/>
+      <c r="CA391" t="inlineStr"/>
+      <c r="CB391" t="inlineStr"/>
+      <c r="CC391" t="inlineStr"/>
+      <c r="CD391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" s="1" t="inlineStr">
@@ -32408,6 +35173,13 @@
       <c r="BU392" t="inlineStr"/>
       <c r="BV392" t="inlineStr"/>
       <c r="BW392" t="inlineStr"/>
+      <c r="BX392" t="inlineStr"/>
+      <c r="BY392" t="inlineStr"/>
+      <c r="BZ392" t="inlineStr"/>
+      <c r="CA392" t="inlineStr"/>
+      <c r="CB392" t="inlineStr"/>
+      <c r="CC392" t="inlineStr"/>
+      <c r="CD392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" s="1" t="inlineStr">
@@ -32489,6 +35261,13 @@
       <c r="BU393" t="inlineStr"/>
       <c r="BV393" t="inlineStr"/>
       <c r="BW393" t="inlineStr"/>
+      <c r="BX393" t="inlineStr"/>
+      <c r="BY393" t="inlineStr"/>
+      <c r="BZ393" t="inlineStr"/>
+      <c r="CA393" t="inlineStr"/>
+      <c r="CB393" t="inlineStr"/>
+      <c r="CC393" t="inlineStr"/>
+      <c r="CD393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" s="1" t="inlineStr">
@@ -32570,6 +35349,13 @@
       <c r="BU394" t="inlineStr"/>
       <c r="BV394" t="inlineStr"/>
       <c r="BW394" t="inlineStr"/>
+      <c r="BX394" t="inlineStr"/>
+      <c r="BY394" t="inlineStr"/>
+      <c r="BZ394" t="inlineStr"/>
+      <c r="CA394" t="inlineStr"/>
+      <c r="CB394" t="inlineStr"/>
+      <c r="CC394" t="inlineStr"/>
+      <c r="CD394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" s="1" t="inlineStr">
@@ -32651,6 +35437,13 @@
       <c r="BU395" t="inlineStr"/>
       <c r="BV395" t="inlineStr"/>
       <c r="BW395" t="inlineStr"/>
+      <c r="BX395" t="inlineStr"/>
+      <c r="BY395" t="inlineStr"/>
+      <c r="BZ395" t="inlineStr"/>
+      <c r="CA395" t="inlineStr"/>
+      <c r="CB395" t="inlineStr"/>
+      <c r="CC395" t="inlineStr"/>
+      <c r="CD395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" s="1" t="inlineStr">
@@ -32732,6 +35525,13 @@
       <c r="BU396" t="inlineStr"/>
       <c r="BV396" t="inlineStr"/>
       <c r="BW396" t="inlineStr"/>
+      <c r="BX396" t="inlineStr"/>
+      <c r="BY396" t="inlineStr"/>
+      <c r="BZ396" t="inlineStr"/>
+      <c r="CA396" t="inlineStr"/>
+      <c r="CB396" t="inlineStr"/>
+      <c r="CC396" t="inlineStr"/>
+      <c r="CD396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" s="1" t="inlineStr">
@@ -32813,6 +35613,13 @@
       <c r="BU397" t="inlineStr"/>
       <c r="BV397" t="inlineStr"/>
       <c r="BW397" t="inlineStr"/>
+      <c r="BX397" t="inlineStr"/>
+      <c r="BY397" t="inlineStr"/>
+      <c r="BZ397" t="inlineStr"/>
+      <c r="CA397" t="inlineStr"/>
+      <c r="CB397" t="inlineStr"/>
+      <c r="CC397" t="inlineStr"/>
+      <c r="CD397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" s="1" t="inlineStr">
@@ -32894,6 +35701,13 @@
       <c r="BU398" t="inlineStr"/>
       <c r="BV398" t="inlineStr"/>
       <c r="BW398" t="inlineStr"/>
+      <c r="BX398" t="inlineStr"/>
+      <c r="BY398" t="inlineStr"/>
+      <c r="BZ398" t="inlineStr"/>
+      <c r="CA398" t="inlineStr"/>
+      <c r="CB398" t="inlineStr"/>
+      <c r="CC398" t="inlineStr"/>
+      <c r="CD398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" s="1" t="inlineStr">
@@ -32975,6 +35789,13 @@
       <c r="BU399" t="inlineStr"/>
       <c r="BV399" t="inlineStr"/>
       <c r="BW399" t="inlineStr"/>
+      <c r="BX399" t="inlineStr"/>
+      <c r="BY399" t="inlineStr"/>
+      <c r="BZ399" t="inlineStr"/>
+      <c r="CA399" t="inlineStr"/>
+      <c r="CB399" t="inlineStr"/>
+      <c r="CC399" t="inlineStr"/>
+      <c r="CD399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" s="1" t="inlineStr">
@@ -33056,6 +35877,13 @@
       <c r="BU400" t="inlineStr"/>
       <c r="BV400" t="inlineStr"/>
       <c r="BW400" t="inlineStr"/>
+      <c r="BX400" t="inlineStr"/>
+      <c r="BY400" t="inlineStr"/>
+      <c r="BZ400" t="inlineStr"/>
+      <c r="CA400" t="inlineStr"/>
+      <c r="CB400" t="inlineStr"/>
+      <c r="CC400" t="inlineStr"/>
+      <c r="CD400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" s="1" t="inlineStr">
@@ -33137,6 +35965,13 @@
       <c r="BU401" t="inlineStr"/>
       <c r="BV401" t="inlineStr"/>
       <c r="BW401" t="inlineStr"/>
+      <c r="BX401" t="inlineStr"/>
+      <c r="BY401" t="inlineStr"/>
+      <c r="BZ401" t="inlineStr"/>
+      <c r="CA401" t="inlineStr"/>
+      <c r="CB401" t="inlineStr"/>
+      <c r="CC401" t="inlineStr"/>
+      <c r="CD401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" s="1" t="inlineStr">
@@ -33218,6 +36053,13 @@
       <c r="BU402" t="inlineStr"/>
       <c r="BV402" t="inlineStr"/>
       <c r="BW402" t="inlineStr"/>
+      <c r="BX402" t="inlineStr"/>
+      <c r="BY402" t="inlineStr"/>
+      <c r="BZ402" t="inlineStr"/>
+      <c r="CA402" t="inlineStr"/>
+      <c r="CB402" t="inlineStr"/>
+      <c r="CC402" t="inlineStr"/>
+      <c r="CD402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" s="1" t="inlineStr">
@@ -33299,6 +36141,13 @@
       <c r="BU403" t="inlineStr"/>
       <c r="BV403" t="inlineStr"/>
       <c r="BW403" t="inlineStr"/>
+      <c r="BX403" t="inlineStr"/>
+      <c r="BY403" t="inlineStr"/>
+      <c r="BZ403" t="inlineStr"/>
+      <c r="CA403" t="inlineStr"/>
+      <c r="CB403" t="inlineStr"/>
+      <c r="CC403" t="inlineStr"/>
+      <c r="CD403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" s="1" t="inlineStr">
@@ -33380,6 +36229,13 @@
       <c r="BU404" t="inlineStr"/>
       <c r="BV404" t="inlineStr"/>
       <c r="BW404" t="inlineStr"/>
+      <c r="BX404" t="inlineStr"/>
+      <c r="BY404" t="inlineStr"/>
+      <c r="BZ404" t="inlineStr"/>
+      <c r="CA404" t="inlineStr"/>
+      <c r="CB404" t="inlineStr"/>
+      <c r="CC404" t="inlineStr"/>
+      <c r="CD404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" s="1" t="inlineStr">
@@ -33461,6 +36317,13 @@
       <c r="BU405" t="inlineStr"/>
       <c r="BV405" t="inlineStr"/>
       <c r="BW405" t="inlineStr"/>
+      <c r="BX405" t="inlineStr"/>
+      <c r="BY405" t="inlineStr"/>
+      <c r="BZ405" t="inlineStr"/>
+      <c r="CA405" t="inlineStr"/>
+      <c r="CB405" t="inlineStr"/>
+      <c r="CC405" t="inlineStr"/>
+      <c r="CD405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" s="1" t="inlineStr">
@@ -33542,6 +36405,13 @@
       <c r="BU406" t="inlineStr"/>
       <c r="BV406" t="inlineStr"/>
       <c r="BW406" t="inlineStr"/>
+      <c r="BX406" t="inlineStr"/>
+      <c r="BY406" t="inlineStr"/>
+      <c r="BZ406" t="inlineStr"/>
+      <c r="CA406" t="inlineStr"/>
+      <c r="CB406" t="inlineStr"/>
+      <c r="CC406" t="inlineStr"/>
+      <c r="CD406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" s="1" t="inlineStr">
@@ -33623,6 +36493,13 @@
       <c r="BU407" t="inlineStr"/>
       <c r="BV407" t="inlineStr"/>
       <c r="BW407" t="inlineStr"/>
+      <c r="BX407" t="inlineStr"/>
+      <c r="BY407" t="inlineStr"/>
+      <c r="BZ407" t="inlineStr"/>
+      <c r="CA407" t="inlineStr"/>
+      <c r="CB407" t="inlineStr"/>
+      <c r="CC407" t="inlineStr"/>
+      <c r="CD407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" s="1" t="inlineStr">
@@ -33704,6 +36581,13 @@
       <c r="BU408" t="inlineStr"/>
       <c r="BV408" t="inlineStr"/>
       <c r="BW408" t="inlineStr"/>
+      <c r="BX408" t="inlineStr"/>
+      <c r="BY408" t="inlineStr"/>
+      <c r="BZ408" t="inlineStr"/>
+      <c r="CA408" t="inlineStr"/>
+      <c r="CB408" t="inlineStr"/>
+      <c r="CC408" t="inlineStr"/>
+      <c r="CD408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" s="1" t="inlineStr">
@@ -33785,6 +36669,13 @@
       <c r="BU409" t="inlineStr"/>
       <c r="BV409" t="inlineStr"/>
       <c r="BW409" t="inlineStr"/>
+      <c r="BX409" t="inlineStr"/>
+      <c r="BY409" t="inlineStr"/>
+      <c r="BZ409" t="inlineStr"/>
+      <c r="CA409" t="inlineStr"/>
+      <c r="CB409" t="inlineStr"/>
+      <c r="CC409" t="inlineStr"/>
+      <c r="CD409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" s="1" t="inlineStr">
@@ -33866,6 +36757,13 @@
       <c r="BU410" t="inlineStr"/>
       <c r="BV410" t="inlineStr"/>
       <c r="BW410" t="inlineStr"/>
+      <c r="BX410" t="inlineStr"/>
+      <c r="BY410" t="inlineStr"/>
+      <c r="BZ410" t="inlineStr"/>
+      <c r="CA410" t="inlineStr"/>
+      <c r="CB410" t="inlineStr"/>
+      <c r="CC410" t="inlineStr"/>
+      <c r="CD410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" s="1" t="inlineStr">
@@ -33947,6 +36845,13 @@
       <c r="BU411" t="inlineStr"/>
       <c r="BV411" t="inlineStr"/>
       <c r="BW411" t="inlineStr"/>
+      <c r="BX411" t="inlineStr"/>
+      <c r="BY411" t="inlineStr"/>
+      <c r="BZ411" t="inlineStr"/>
+      <c r="CA411" t="inlineStr"/>
+      <c r="CB411" t="inlineStr"/>
+      <c r="CC411" t="inlineStr"/>
+      <c r="CD411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" s="1" t="inlineStr">
@@ -34028,6 +36933,13 @@
       <c r="BU412" t="inlineStr"/>
       <c r="BV412" t="inlineStr"/>
       <c r="BW412" t="inlineStr"/>
+      <c r="BX412" t="inlineStr"/>
+      <c r="BY412" t="inlineStr"/>
+      <c r="BZ412" t="inlineStr"/>
+      <c r="CA412" t="inlineStr"/>
+      <c r="CB412" t="inlineStr"/>
+      <c r="CC412" t="inlineStr"/>
+      <c r="CD412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" s="1" t="inlineStr">
@@ -34109,6 +37021,13 @@
       <c r="BU413" t="inlineStr"/>
       <c r="BV413" t="inlineStr"/>
       <c r="BW413" t="inlineStr"/>
+      <c r="BX413" t="inlineStr"/>
+      <c r="BY413" t="inlineStr"/>
+      <c r="BZ413" t="inlineStr"/>
+      <c r="CA413" t="inlineStr"/>
+      <c r="CB413" t="inlineStr"/>
+      <c r="CC413" t="inlineStr"/>
+      <c r="CD413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" s="1" t="inlineStr">
@@ -34190,6 +37109,13 @@
       <c r="BU414" t="inlineStr"/>
       <c r="BV414" t="inlineStr"/>
       <c r="BW414" t="inlineStr"/>
+      <c r="BX414" t="inlineStr"/>
+      <c r="BY414" t="inlineStr"/>
+      <c r="BZ414" t="inlineStr"/>
+      <c r="CA414" t="inlineStr"/>
+      <c r="CB414" t="inlineStr"/>
+      <c r="CC414" t="inlineStr"/>
+      <c r="CD414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" s="1" t="inlineStr">
@@ -34271,6 +37197,13 @@
       <c r="BU415" t="inlineStr"/>
       <c r="BV415" t="inlineStr"/>
       <c r="BW415" t="inlineStr"/>
+      <c r="BX415" t="inlineStr"/>
+      <c r="BY415" t="inlineStr"/>
+      <c r="BZ415" t="inlineStr"/>
+      <c r="CA415" t="inlineStr"/>
+      <c r="CB415" t="inlineStr"/>
+      <c r="CC415" t="inlineStr"/>
+      <c r="CD415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" s="1" t="inlineStr">
@@ -34352,6 +37285,13 @@
       <c r="BU416" t="inlineStr"/>
       <c r="BV416" t="inlineStr"/>
       <c r="BW416" t="inlineStr"/>
+      <c r="BX416" t="inlineStr"/>
+      <c r="BY416" t="inlineStr"/>
+      <c r="BZ416" t="inlineStr"/>
+      <c r="CA416" t="inlineStr"/>
+      <c r="CB416" t="inlineStr"/>
+      <c r="CC416" t="inlineStr"/>
+      <c r="CD416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" s="1" t="inlineStr">
@@ -34433,6 +37373,13 @@
       <c r="BU417" t="inlineStr"/>
       <c r="BV417" t="inlineStr"/>
       <c r="BW417" t="inlineStr"/>
+      <c r="BX417" t="inlineStr"/>
+      <c r="BY417" t="inlineStr"/>
+      <c r="BZ417" t="inlineStr"/>
+      <c r="CA417" t="inlineStr"/>
+      <c r="CB417" t="inlineStr"/>
+      <c r="CC417" t="inlineStr"/>
+      <c r="CD417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" s="1" t="inlineStr">
@@ -34514,6 +37461,13 @@
       <c r="BU418" t="inlineStr"/>
       <c r="BV418" t="inlineStr"/>
       <c r="BW418" t="inlineStr"/>
+      <c r="BX418" t="inlineStr"/>
+      <c r="BY418" t="inlineStr"/>
+      <c r="BZ418" t="inlineStr"/>
+      <c r="CA418" t="inlineStr"/>
+      <c r="CB418" t="inlineStr"/>
+      <c r="CC418" t="inlineStr"/>
+      <c r="CD418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" s="1" t="inlineStr">
@@ -34595,6 +37549,13 @@
       <c r="BU419" t="inlineStr"/>
       <c r="BV419" t="inlineStr"/>
       <c r="BW419" t="inlineStr"/>
+      <c r="BX419" t="inlineStr"/>
+      <c r="BY419" t="inlineStr"/>
+      <c r="BZ419" t="inlineStr"/>
+      <c r="CA419" t="inlineStr"/>
+      <c r="CB419" t="inlineStr"/>
+      <c r="CC419" t="inlineStr"/>
+      <c r="CD419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" s="1" t="inlineStr">
@@ -34676,6 +37637,13 @@
       <c r="BU420" t="inlineStr"/>
       <c r="BV420" t="inlineStr"/>
       <c r="BW420" t="inlineStr"/>
+      <c r="BX420" t="inlineStr"/>
+      <c r="BY420" t="inlineStr"/>
+      <c r="BZ420" t="inlineStr"/>
+      <c r="CA420" t="inlineStr"/>
+      <c r="CB420" t="inlineStr"/>
+      <c r="CC420" t="inlineStr"/>
+      <c r="CD420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" s="1" t="inlineStr">
@@ -34757,6 +37725,13 @@
       <c r="BU421" t="inlineStr"/>
       <c r="BV421" t="inlineStr"/>
       <c r="BW421" t="inlineStr"/>
+      <c r="BX421" t="inlineStr"/>
+      <c r="BY421" t="inlineStr"/>
+      <c r="BZ421" t="inlineStr"/>
+      <c r="CA421" t="inlineStr"/>
+      <c r="CB421" t="inlineStr"/>
+      <c r="CC421" t="inlineStr"/>
+      <c r="CD421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" s="1" t="inlineStr">
@@ -34838,6 +37813,13 @@
       <c r="BU422" t="inlineStr"/>
       <c r="BV422" t="inlineStr"/>
       <c r="BW422" t="inlineStr"/>
+      <c r="BX422" t="inlineStr"/>
+      <c r="BY422" t="inlineStr"/>
+      <c r="BZ422" t="inlineStr"/>
+      <c r="CA422" t="inlineStr"/>
+      <c r="CB422" t="inlineStr"/>
+      <c r="CC422" t="inlineStr"/>
+      <c r="CD422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" s="1" t="inlineStr">
@@ -34919,6 +37901,13 @@
       <c r="BU423" t="inlineStr"/>
       <c r="BV423" t="inlineStr"/>
       <c r="BW423" t="inlineStr"/>
+      <c r="BX423" t="inlineStr"/>
+      <c r="BY423" t="inlineStr"/>
+      <c r="BZ423" t="inlineStr"/>
+      <c r="CA423" t="inlineStr"/>
+      <c r="CB423" t="inlineStr"/>
+      <c r="CC423" t="inlineStr"/>
+      <c r="CD423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" s="1" t="inlineStr">
@@ -35000,6 +37989,13 @@
       <c r="BU424" t="inlineStr"/>
       <c r="BV424" t="inlineStr"/>
       <c r="BW424" t="inlineStr"/>
+      <c r="BX424" t="inlineStr"/>
+      <c r="BY424" t="inlineStr"/>
+      <c r="BZ424" t="inlineStr"/>
+      <c r="CA424" t="inlineStr"/>
+      <c r="CB424" t="inlineStr"/>
+      <c r="CC424" t="inlineStr"/>
+      <c r="CD424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" s="1" t="inlineStr">
@@ -35081,6 +38077,13 @@
       <c r="BU425" t="inlineStr"/>
       <c r="BV425" t="inlineStr"/>
       <c r="BW425" t="inlineStr"/>
+      <c r="BX425" t="inlineStr"/>
+      <c r="BY425" t="inlineStr"/>
+      <c r="BZ425" t="inlineStr"/>
+      <c r="CA425" t="inlineStr"/>
+      <c r="CB425" t="inlineStr"/>
+      <c r="CC425" t="inlineStr"/>
+      <c r="CD425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" s="1" t="inlineStr">
@@ -35162,6 +38165,13 @@
       <c r="BU426" t="inlineStr"/>
       <c r="BV426" t="inlineStr"/>
       <c r="BW426" t="inlineStr"/>
+      <c r="BX426" t="inlineStr"/>
+      <c r="BY426" t="inlineStr"/>
+      <c r="BZ426" t="inlineStr"/>
+      <c r="CA426" t="inlineStr"/>
+      <c r="CB426" t="inlineStr"/>
+      <c r="CC426" t="inlineStr"/>
+      <c r="CD426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" s="1" t="inlineStr">
@@ -35243,6 +38253,13 @@
       <c r="BU427" t="inlineStr"/>
       <c r="BV427" t="inlineStr"/>
       <c r="BW427" t="inlineStr"/>
+      <c r="BX427" t="inlineStr"/>
+      <c r="BY427" t="inlineStr"/>
+      <c r="BZ427" t="inlineStr"/>
+      <c r="CA427" t="inlineStr"/>
+      <c r="CB427" t="inlineStr"/>
+      <c r="CC427" t="inlineStr"/>
+      <c r="CD427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" s="1" t="inlineStr">
@@ -35324,6 +38341,13 @@
       <c r="BU428" t="inlineStr"/>
       <c r="BV428" t="inlineStr"/>
       <c r="BW428" t="inlineStr"/>
+      <c r="BX428" t="inlineStr"/>
+      <c r="BY428" t="inlineStr"/>
+      <c r="BZ428" t="inlineStr"/>
+      <c r="CA428" t="inlineStr"/>
+      <c r="CB428" t="inlineStr"/>
+      <c r="CC428" t="inlineStr"/>
+      <c r="CD428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" s="1" t="inlineStr">
@@ -35405,6 +38429,13 @@
       <c r="BU429" t="inlineStr"/>
       <c r="BV429" t="inlineStr"/>
       <c r="BW429" t="inlineStr"/>
+      <c r="BX429" t="inlineStr"/>
+      <c r="BY429" t="inlineStr"/>
+      <c r="BZ429" t="inlineStr"/>
+      <c r="CA429" t="inlineStr"/>
+      <c r="CB429" t="inlineStr"/>
+      <c r="CC429" t="inlineStr"/>
+      <c r="CD429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" s="1" t="inlineStr">
@@ -35486,6 +38517,13 @@
       <c r="BU430" t="inlineStr"/>
       <c r="BV430" t="inlineStr"/>
       <c r="BW430" t="inlineStr"/>
+      <c r="BX430" t="inlineStr"/>
+      <c r="BY430" t="inlineStr"/>
+      <c r="BZ430" t="inlineStr"/>
+      <c r="CA430" t="inlineStr"/>
+      <c r="CB430" t="inlineStr"/>
+      <c r="CC430" t="inlineStr"/>
+      <c r="CD430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" s="1" t="inlineStr">
@@ -35567,6 +38605,13 @@
       <c r="BU431" t="inlineStr"/>
       <c r="BV431" t="inlineStr"/>
       <c r="BW431" t="inlineStr"/>
+      <c r="BX431" t="inlineStr"/>
+      <c r="BY431" t="inlineStr"/>
+      <c r="BZ431" t="inlineStr"/>
+      <c r="CA431" t="inlineStr"/>
+      <c r="CB431" t="inlineStr"/>
+      <c r="CC431" t="inlineStr"/>
+      <c r="CD431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" s="1" t="inlineStr">
@@ -35648,6 +38693,13 @@
       <c r="BU432" t="inlineStr"/>
       <c r="BV432" t="inlineStr"/>
       <c r="BW432" t="inlineStr"/>
+      <c r="BX432" t="inlineStr"/>
+      <c r="BY432" t="inlineStr"/>
+      <c r="BZ432" t="inlineStr"/>
+      <c r="CA432" t="inlineStr"/>
+      <c r="CB432" t="inlineStr"/>
+      <c r="CC432" t="inlineStr"/>
+      <c r="CD432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" s="1" t="inlineStr">
@@ -35729,6 +38781,13 @@
       <c r="BU433" t="inlineStr"/>
       <c r="BV433" t="inlineStr"/>
       <c r="BW433" t="inlineStr"/>
+      <c r="BX433" t="inlineStr"/>
+      <c r="BY433" t="inlineStr"/>
+      <c r="BZ433" t="inlineStr"/>
+      <c r="CA433" t="inlineStr"/>
+      <c r="CB433" t="inlineStr"/>
+      <c r="CC433" t="inlineStr"/>
+      <c r="CD433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" s="1" t="inlineStr">
@@ -35810,6 +38869,13 @@
       <c r="BU434" t="inlineStr"/>
       <c r="BV434" t="inlineStr"/>
       <c r="BW434" t="inlineStr"/>
+      <c r="BX434" t="inlineStr"/>
+      <c r="BY434" t="inlineStr"/>
+      <c r="BZ434" t="inlineStr"/>
+      <c r="CA434" t="inlineStr"/>
+      <c r="CB434" t="inlineStr"/>
+      <c r="CC434" t="inlineStr"/>
+      <c r="CD434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" s="1" t="inlineStr">
@@ -35891,6 +38957,13 @@
       <c r="BU435" t="inlineStr"/>
       <c r="BV435" t="inlineStr"/>
       <c r="BW435" t="inlineStr"/>
+      <c r="BX435" t="inlineStr"/>
+      <c r="BY435" t="inlineStr"/>
+      <c r="BZ435" t="inlineStr"/>
+      <c r="CA435" t="inlineStr"/>
+      <c r="CB435" t="inlineStr"/>
+      <c r="CC435" t="inlineStr"/>
+      <c r="CD435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" s="1" t="inlineStr">
@@ -35972,6 +39045,13 @@
       <c r="BU436" t="inlineStr"/>
       <c r="BV436" t="inlineStr"/>
       <c r="BW436" t="inlineStr"/>
+      <c r="BX436" t="inlineStr"/>
+      <c r="BY436" t="inlineStr"/>
+      <c r="BZ436" t="inlineStr"/>
+      <c r="CA436" t="inlineStr"/>
+      <c r="CB436" t="inlineStr"/>
+      <c r="CC436" t="inlineStr"/>
+      <c r="CD436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" s="1" t="inlineStr">
@@ -36053,6 +39133,13 @@
       <c r="BU437" t="inlineStr"/>
       <c r="BV437" t="inlineStr"/>
       <c r="BW437" t="inlineStr"/>
+      <c r="BX437" t="inlineStr"/>
+      <c r="BY437" t="inlineStr"/>
+      <c r="BZ437" t="inlineStr"/>
+      <c r="CA437" t="inlineStr"/>
+      <c r="CB437" t="inlineStr"/>
+      <c r="CC437" t="inlineStr"/>
+      <c r="CD437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" s="1" t="inlineStr">
@@ -36134,6 +39221,13 @@
       <c r="BU438" t="inlineStr"/>
       <c r="BV438" t="inlineStr"/>
       <c r="BW438" t="inlineStr"/>
+      <c r="BX438" t="inlineStr"/>
+      <c r="BY438" t="inlineStr"/>
+      <c r="BZ438" t="inlineStr"/>
+      <c r="CA438" t="inlineStr"/>
+      <c r="CB438" t="inlineStr"/>
+      <c r="CC438" t="inlineStr"/>
+      <c r="CD438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" s="1" t="inlineStr">
@@ -36215,6 +39309,13 @@
       <c r="BU439" t="inlineStr"/>
       <c r="BV439" t="inlineStr"/>
       <c r="BW439" t="inlineStr"/>
+      <c r="BX439" t="inlineStr"/>
+      <c r="BY439" t="inlineStr"/>
+      <c r="BZ439" t="inlineStr"/>
+      <c r="CA439" t="inlineStr"/>
+      <c r="CB439" t="inlineStr"/>
+      <c r="CC439" t="inlineStr"/>
+      <c r="CD439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" s="1" t="inlineStr">
@@ -36296,6 +39397,13 @@
       <c r="BU440" t="inlineStr"/>
       <c r="BV440" t="inlineStr"/>
       <c r="BW440" t="inlineStr"/>
+      <c r="BX440" t="inlineStr"/>
+      <c r="BY440" t="inlineStr"/>
+      <c r="BZ440" t="inlineStr"/>
+      <c r="CA440" t="inlineStr"/>
+      <c r="CB440" t="inlineStr"/>
+      <c r="CC440" t="inlineStr"/>
+      <c r="CD440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" s="1" t="inlineStr">
@@ -36377,6 +39485,13 @@
       <c r="BU441" t="inlineStr"/>
       <c r="BV441" t="inlineStr"/>
       <c r="BW441" t="inlineStr"/>
+      <c r="BX441" t="inlineStr"/>
+      <c r="BY441" t="inlineStr"/>
+      <c r="BZ441" t="inlineStr"/>
+      <c r="CA441" t="inlineStr"/>
+      <c r="CB441" t="inlineStr"/>
+      <c r="CC441" t="inlineStr"/>
+      <c r="CD441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" s="1" t="inlineStr">
@@ -36458,6 +39573,13 @@
       <c r="BU442" t="inlineStr"/>
       <c r="BV442" t="inlineStr"/>
       <c r="BW442" t="inlineStr"/>
+      <c r="BX442" t="inlineStr"/>
+      <c r="BY442" t="inlineStr"/>
+      <c r="BZ442" t="inlineStr"/>
+      <c r="CA442" t="inlineStr"/>
+      <c r="CB442" t="inlineStr"/>
+      <c r="CC442" t="inlineStr"/>
+      <c r="CD442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" s="1" t="inlineStr">
@@ -36539,6 +39661,13 @@
       <c r="BU443" t="inlineStr"/>
       <c r="BV443" t="inlineStr"/>
       <c r="BW443" t="inlineStr"/>
+      <c r="BX443" t="inlineStr"/>
+      <c r="BY443" t="inlineStr"/>
+      <c r="BZ443" t="inlineStr"/>
+      <c r="CA443" t="inlineStr"/>
+      <c r="CB443" t="inlineStr"/>
+      <c r="CC443" t="inlineStr"/>
+      <c r="CD443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" s="1" t="inlineStr">
@@ -36620,6 +39749,13 @@
       <c r="BU444" t="inlineStr"/>
       <c r="BV444" t="inlineStr"/>
       <c r="BW444" t="inlineStr"/>
+      <c r="BX444" t="inlineStr"/>
+      <c r="BY444" t="inlineStr"/>
+      <c r="BZ444" t="inlineStr"/>
+      <c r="CA444" t="inlineStr"/>
+      <c r="CB444" t="inlineStr"/>
+      <c r="CC444" t="inlineStr"/>
+      <c r="CD444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" s="1" t="inlineStr">
@@ -36701,6 +39837,13 @@
       <c r="BU445" t="inlineStr"/>
       <c r="BV445" t="inlineStr"/>
       <c r="BW445" t="inlineStr"/>
+      <c r="BX445" t="inlineStr"/>
+      <c r="BY445" t="inlineStr"/>
+      <c r="BZ445" t="inlineStr"/>
+      <c r="CA445" t="inlineStr"/>
+      <c r="CB445" t="inlineStr"/>
+      <c r="CC445" t="inlineStr"/>
+      <c r="CD445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" s="1" t="inlineStr">
@@ -36782,6 +39925,13 @@
       <c r="BU446" t="inlineStr"/>
       <c r="BV446" t="inlineStr"/>
       <c r="BW446" t="inlineStr"/>
+      <c r="BX446" t="inlineStr"/>
+      <c r="BY446" t="inlineStr"/>
+      <c r="BZ446" t="inlineStr"/>
+      <c r="CA446" t="inlineStr"/>
+      <c r="CB446" t="inlineStr"/>
+      <c r="CC446" t="inlineStr"/>
+      <c r="CD446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" s="1" t="inlineStr">
@@ -36863,6 +40013,13 @@
       <c r="BU447" t="inlineStr"/>
       <c r="BV447" t="inlineStr"/>
       <c r="BW447" t="inlineStr"/>
+      <c r="BX447" t="inlineStr"/>
+      <c r="BY447" t="inlineStr"/>
+      <c r="BZ447" t="inlineStr"/>
+      <c r="CA447" t="inlineStr"/>
+      <c r="CB447" t="inlineStr"/>
+      <c r="CC447" t="inlineStr"/>
+      <c r="CD447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" s="1" t="inlineStr">
@@ -36944,6 +40101,13 @@
       <c r="BU448" t="inlineStr"/>
       <c r="BV448" t="inlineStr"/>
       <c r="BW448" t="inlineStr"/>
+      <c r="BX448" t="inlineStr"/>
+      <c r="BY448" t="inlineStr"/>
+      <c r="BZ448" t="inlineStr"/>
+      <c r="CA448" t="inlineStr"/>
+      <c r="CB448" t="inlineStr"/>
+      <c r="CC448" t="inlineStr"/>
+      <c r="CD448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" s="1" t="inlineStr">
@@ -37025,6 +40189,13 @@
       <c r="BU449" t="inlineStr"/>
       <c r="BV449" t="inlineStr"/>
       <c r="BW449" t="inlineStr"/>
+      <c r="BX449" t="inlineStr"/>
+      <c r="BY449" t="inlineStr"/>
+      <c r="BZ449" t="inlineStr"/>
+      <c r="CA449" t="inlineStr"/>
+      <c r="CB449" t="inlineStr"/>
+      <c r="CC449" t="inlineStr"/>
+      <c r="CD449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" s="1" t="inlineStr">
@@ -37106,6 +40277,13 @@
       <c r="BU450" t="inlineStr"/>
       <c r="BV450" t="inlineStr"/>
       <c r="BW450" t="inlineStr"/>
+      <c r="BX450" t="inlineStr"/>
+      <c r="BY450" t="inlineStr"/>
+      <c r="BZ450" t="inlineStr"/>
+      <c r="CA450" t="inlineStr"/>
+      <c r="CB450" t="inlineStr"/>
+      <c r="CC450" t="inlineStr"/>
+      <c r="CD450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" s="1" t="inlineStr">
@@ -37187,6 +40365,13 @@
       <c r="BU451" t="inlineStr"/>
       <c r="BV451" t="inlineStr"/>
       <c r="BW451" t="inlineStr"/>
+      <c r="BX451" t="inlineStr"/>
+      <c r="BY451" t="inlineStr"/>
+      <c r="BZ451" t="inlineStr"/>
+      <c r="CA451" t="inlineStr"/>
+      <c r="CB451" t="inlineStr"/>
+      <c r="CC451" t="inlineStr"/>
+      <c r="CD451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" s="1" t="inlineStr">
@@ -37268,6 +40453,13 @@
       <c r="BU452" t="inlineStr"/>
       <c r="BV452" t="inlineStr"/>
       <c r="BW452" t="inlineStr"/>
+      <c r="BX452" t="inlineStr"/>
+      <c r="BY452" t="inlineStr"/>
+      <c r="BZ452" t="inlineStr"/>
+      <c r="CA452" t="inlineStr"/>
+      <c r="CB452" t="inlineStr"/>
+      <c r="CC452" t="inlineStr"/>
+      <c r="CD452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" s="1" t="inlineStr">
@@ -37349,6 +40541,13 @@
       <c r="BU453" t="inlineStr"/>
       <c r="BV453" t="inlineStr"/>
       <c r="BW453" t="inlineStr"/>
+      <c r="BX453" t="inlineStr"/>
+      <c r="BY453" t="inlineStr"/>
+      <c r="BZ453" t="inlineStr"/>
+      <c r="CA453" t="inlineStr"/>
+      <c r="CB453" t="inlineStr"/>
+      <c r="CC453" t="inlineStr"/>
+      <c r="CD453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" s="1" t="inlineStr">
@@ -37430,6 +40629,13 @@
       <c r="BU454" t="inlineStr"/>
       <c r="BV454" t="inlineStr"/>
       <c r="BW454" t="inlineStr"/>
+      <c r="BX454" t="inlineStr"/>
+      <c r="BY454" t="inlineStr"/>
+      <c r="BZ454" t="inlineStr"/>
+      <c r="CA454" t="inlineStr"/>
+      <c r="CB454" t="inlineStr"/>
+      <c r="CC454" t="inlineStr"/>
+      <c r="CD454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" s="1" t="inlineStr">
@@ -37511,6 +40717,13 @@
       <c r="BU455" t="inlineStr"/>
       <c r="BV455" t="inlineStr"/>
       <c r="BW455" t="inlineStr"/>
+      <c r="BX455" t="inlineStr"/>
+      <c r="BY455" t="inlineStr"/>
+      <c r="BZ455" t="inlineStr"/>
+      <c r="CA455" t="inlineStr"/>
+      <c r="CB455" t="inlineStr"/>
+      <c r="CC455" t="inlineStr"/>
+      <c r="CD455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" s="1" t="inlineStr">
@@ -37592,6 +40805,13 @@
       <c r="BU456" t="inlineStr"/>
       <c r="BV456" t="inlineStr"/>
       <c r="BW456" t="inlineStr"/>
+      <c r="BX456" t="inlineStr"/>
+      <c r="BY456" t="inlineStr"/>
+      <c r="BZ456" t="inlineStr"/>
+      <c r="CA456" t="inlineStr"/>
+      <c r="CB456" t="inlineStr"/>
+      <c r="CC456" t="inlineStr"/>
+      <c r="CD456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" s="1" t="inlineStr">
@@ -37673,6 +40893,13 @@
       <c r="BU457" t="inlineStr"/>
       <c r="BV457" t="inlineStr"/>
       <c r="BW457" t="inlineStr"/>
+      <c r="BX457" t="inlineStr"/>
+      <c r="BY457" t="inlineStr"/>
+      <c r="BZ457" t="inlineStr"/>
+      <c r="CA457" t="inlineStr"/>
+      <c r="CB457" t="inlineStr"/>
+      <c r="CC457" t="inlineStr"/>
+      <c r="CD457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" s="1" t="inlineStr">
@@ -37754,6 +40981,13 @@
       <c r="BU458" t="inlineStr"/>
       <c r="BV458" t="inlineStr"/>
       <c r="BW458" t="inlineStr"/>
+      <c r="BX458" t="inlineStr"/>
+      <c r="BY458" t="inlineStr"/>
+      <c r="BZ458" t="inlineStr"/>
+      <c r="CA458" t="inlineStr"/>
+      <c r="CB458" t="inlineStr"/>
+      <c r="CC458" t="inlineStr"/>
+      <c r="CD458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" s="1" t="inlineStr">
@@ -37835,6 +41069,13 @@
       <c r="BU459" t="inlineStr"/>
       <c r="BV459" t="inlineStr"/>
       <c r="BW459" t="inlineStr"/>
+      <c r="BX459" t="inlineStr"/>
+      <c r="BY459" t="inlineStr"/>
+      <c r="BZ459" t="inlineStr"/>
+      <c r="CA459" t="inlineStr"/>
+      <c r="CB459" t="inlineStr"/>
+      <c r="CC459" t="inlineStr"/>
+      <c r="CD459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" s="1" t="inlineStr">
@@ -37916,6 +41157,13 @@
       <c r="BU460" t="inlineStr"/>
       <c r="BV460" t="inlineStr"/>
       <c r="BW460" t="inlineStr"/>
+      <c r="BX460" t="inlineStr"/>
+      <c r="BY460" t="inlineStr"/>
+      <c r="BZ460" t="inlineStr"/>
+      <c r="CA460" t="inlineStr"/>
+      <c r="CB460" t="inlineStr"/>
+      <c r="CC460" t="inlineStr"/>
+      <c r="CD460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" s="1" t="inlineStr">
@@ -37997,6 +41245,13 @@
       <c r="BU461" t="inlineStr"/>
       <c r="BV461" t="inlineStr"/>
       <c r="BW461" t="inlineStr"/>
+      <c r="BX461" t="inlineStr"/>
+      <c r="BY461" t="inlineStr"/>
+      <c r="BZ461" t="inlineStr"/>
+      <c r="CA461" t="inlineStr"/>
+      <c r="CB461" t="inlineStr"/>
+      <c r="CC461" t="inlineStr"/>
+      <c r="CD461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" s="1" t="inlineStr">
@@ -38078,6 +41333,13 @@
       <c r="BU462" t="inlineStr"/>
       <c r="BV462" t="inlineStr"/>
       <c r="BW462" t="inlineStr"/>
+      <c r="BX462" t="inlineStr"/>
+      <c r="BY462" t="inlineStr"/>
+      <c r="BZ462" t="inlineStr"/>
+      <c r="CA462" t="inlineStr"/>
+      <c r="CB462" t="inlineStr"/>
+      <c r="CC462" t="inlineStr"/>
+      <c r="CD462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" s="1" t="inlineStr">
@@ -38159,6 +41421,13 @@
       <c r="BU463" t="inlineStr"/>
       <c r="BV463" t="inlineStr"/>
       <c r="BW463" t="inlineStr"/>
+      <c r="BX463" t="inlineStr"/>
+      <c r="BY463" t="inlineStr"/>
+      <c r="BZ463" t="inlineStr"/>
+      <c r="CA463" t="inlineStr"/>
+      <c r="CB463" t="inlineStr"/>
+      <c r="CC463" t="inlineStr"/>
+      <c r="CD463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" s="1" t="inlineStr">
@@ -38240,6 +41509,13 @@
       <c r="BU464" t="inlineStr"/>
       <c r="BV464" t="inlineStr"/>
       <c r="BW464" t="inlineStr"/>
+      <c r="BX464" t="inlineStr"/>
+      <c r="BY464" t="inlineStr"/>
+      <c r="BZ464" t="inlineStr"/>
+      <c r="CA464" t="inlineStr"/>
+      <c r="CB464" t="inlineStr"/>
+      <c r="CC464" t="inlineStr"/>
+      <c r="CD464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" s="1" t="inlineStr">
@@ -38321,6 +41597,13 @@
       <c r="BU465" t="inlineStr"/>
       <c r="BV465" t="inlineStr"/>
       <c r="BW465" t="inlineStr"/>
+      <c r="BX465" t="inlineStr"/>
+      <c r="BY465" t="inlineStr"/>
+      <c r="BZ465" t="inlineStr"/>
+      <c r="CA465" t="inlineStr"/>
+      <c r="CB465" t="inlineStr"/>
+      <c r="CC465" t="inlineStr"/>
+      <c r="CD465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" s="1" t="inlineStr">
@@ -38402,6 +41685,13 @@
       <c r="BU466" t="inlineStr"/>
       <c r="BV466" t="inlineStr"/>
       <c r="BW466" t="inlineStr"/>
+      <c r="BX466" t="inlineStr"/>
+      <c r="BY466" t="inlineStr"/>
+      <c r="BZ466" t="inlineStr"/>
+      <c r="CA466" t="inlineStr"/>
+      <c r="CB466" t="inlineStr"/>
+      <c r="CC466" t="inlineStr"/>
+      <c r="CD466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" s="1" t="inlineStr">
@@ -38483,6 +41773,13 @@
       <c r="BU467" t="inlineStr"/>
       <c r="BV467" t="inlineStr"/>
       <c r="BW467" t="inlineStr"/>
+      <c r="BX467" t="inlineStr"/>
+      <c r="BY467" t="inlineStr"/>
+      <c r="BZ467" t="inlineStr"/>
+      <c r="CA467" t="inlineStr"/>
+      <c r="CB467" t="inlineStr"/>
+      <c r="CC467" t="inlineStr"/>
+      <c r="CD467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" s="1" t="inlineStr">
@@ -38564,6 +41861,13 @@
       <c r="BU468" t="inlineStr"/>
       <c r="BV468" t="inlineStr"/>
       <c r="BW468" t="inlineStr"/>
+      <c r="BX468" t="inlineStr"/>
+      <c r="BY468" t="inlineStr"/>
+      <c r="BZ468" t="inlineStr"/>
+      <c r="CA468" t="inlineStr"/>
+      <c r="CB468" t="inlineStr"/>
+      <c r="CC468" t="inlineStr"/>
+      <c r="CD468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" s="1" t="inlineStr">
@@ -38645,6 +41949,13 @@
       <c r="BU469" t="inlineStr"/>
       <c r="BV469" t="inlineStr"/>
       <c r="BW469" t="inlineStr"/>
+      <c r="BX469" t="inlineStr"/>
+      <c r="BY469" t="inlineStr"/>
+      <c r="BZ469" t="inlineStr"/>
+      <c r="CA469" t="inlineStr"/>
+      <c r="CB469" t="inlineStr"/>
+      <c r="CC469" t="inlineStr"/>
+      <c r="CD469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" s="1" t="inlineStr">
@@ -38726,6 +42037,13 @@
       <c r="BU470" t="inlineStr"/>
       <c r="BV470" t="inlineStr"/>
       <c r="BW470" t="inlineStr"/>
+      <c r="BX470" t="inlineStr"/>
+      <c r="BY470" t="inlineStr"/>
+      <c r="BZ470" t="inlineStr"/>
+      <c r="CA470" t="inlineStr"/>
+      <c r="CB470" t="inlineStr"/>
+      <c r="CC470" t="inlineStr"/>
+      <c r="CD470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" s="1" t="inlineStr">
@@ -38807,6 +42125,13 @@
       <c r="BU471" t="inlineStr"/>
       <c r="BV471" t="inlineStr"/>
       <c r="BW471" t="inlineStr"/>
+      <c r="BX471" t="inlineStr"/>
+      <c r="BY471" t="inlineStr"/>
+      <c r="BZ471" t="inlineStr"/>
+      <c r="CA471" t="inlineStr"/>
+      <c r="CB471" t="inlineStr"/>
+      <c r="CC471" t="inlineStr"/>
+      <c r="CD471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" s="1" t="inlineStr">
@@ -38888,6 +42213,13 @@
       <c r="BU472" t="inlineStr"/>
       <c r="BV472" t="inlineStr"/>
       <c r="BW472" t="inlineStr"/>
+      <c r="BX472" t="inlineStr"/>
+      <c r="BY472" t="inlineStr"/>
+      <c r="BZ472" t="inlineStr"/>
+      <c r="CA472" t="inlineStr"/>
+      <c r="CB472" t="inlineStr"/>
+      <c r="CC472" t="inlineStr"/>
+      <c r="CD472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" s="1" t="inlineStr">
@@ -38969,6 +42301,13 @@
       <c r="BU473" t="inlineStr"/>
       <c r="BV473" t="inlineStr"/>
       <c r="BW473" t="inlineStr"/>
+      <c r="BX473" t="inlineStr"/>
+      <c r="BY473" t="inlineStr"/>
+      <c r="BZ473" t="inlineStr"/>
+      <c r="CA473" t="inlineStr"/>
+      <c r="CB473" t="inlineStr"/>
+      <c r="CC473" t="inlineStr"/>
+      <c r="CD473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" s="1" t="inlineStr">
@@ -39050,6 +42389,13 @@
       <c r="BU474" t="inlineStr"/>
       <c r="BV474" t="inlineStr"/>
       <c r="BW474" t="inlineStr"/>
+      <c r="BX474" t="inlineStr"/>
+      <c r="BY474" t="inlineStr"/>
+      <c r="BZ474" t="inlineStr"/>
+      <c r="CA474" t="inlineStr"/>
+      <c r="CB474" t="inlineStr"/>
+      <c r="CC474" t="inlineStr"/>
+      <c r="CD474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" s="1" t="inlineStr">
@@ -39131,6 +42477,13 @@
       <c r="BU475" t="inlineStr"/>
       <c r="BV475" t="inlineStr"/>
       <c r="BW475" t="inlineStr"/>
+      <c r="BX475" t="inlineStr"/>
+      <c r="BY475" t="inlineStr"/>
+      <c r="BZ475" t="inlineStr"/>
+      <c r="CA475" t="inlineStr"/>
+      <c r="CB475" t="inlineStr"/>
+      <c r="CC475" t="inlineStr"/>
+      <c r="CD475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" s="1" t="inlineStr">
@@ -39212,6 +42565,13 @@
       <c r="BU476" t="inlineStr"/>
       <c r="BV476" t="inlineStr"/>
       <c r="BW476" t="inlineStr"/>
+      <c r="BX476" t="inlineStr"/>
+      <c r="BY476" t="inlineStr"/>
+      <c r="BZ476" t="inlineStr"/>
+      <c r="CA476" t="inlineStr"/>
+      <c r="CB476" t="inlineStr"/>
+      <c r="CC476" t="inlineStr"/>
+      <c r="CD476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" s="1" t="inlineStr">
@@ -39293,6 +42653,13 @@
       <c r="BU477" t="inlineStr"/>
       <c r="BV477" t="inlineStr"/>
       <c r="BW477" t="inlineStr"/>
+      <c r="BX477" t="inlineStr"/>
+      <c r="BY477" t="inlineStr"/>
+      <c r="BZ477" t="inlineStr"/>
+      <c r="CA477" t="inlineStr"/>
+      <c r="CB477" t="inlineStr"/>
+      <c r="CC477" t="inlineStr"/>
+      <c r="CD477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" s="1" t="inlineStr">
@@ -39374,6 +42741,13 @@
       <c r="BU478" t="inlineStr"/>
       <c r="BV478" t="inlineStr"/>
       <c r="BW478" t="inlineStr"/>
+      <c r="BX478" t="inlineStr"/>
+      <c r="BY478" t="inlineStr"/>
+      <c r="BZ478" t="inlineStr"/>
+      <c r="CA478" t="inlineStr"/>
+      <c r="CB478" t="inlineStr"/>
+      <c r="CC478" t="inlineStr"/>
+      <c r="CD478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" s="1" t="inlineStr">
@@ -39455,6 +42829,13 @@
       <c r="BU479" t="inlineStr"/>
       <c r="BV479" t="inlineStr"/>
       <c r="BW479" t="inlineStr"/>
+      <c r="BX479" t="inlineStr"/>
+      <c r="BY479" t="inlineStr"/>
+      <c r="BZ479" t="inlineStr"/>
+      <c r="CA479" t="inlineStr"/>
+      <c r="CB479" t="inlineStr"/>
+      <c r="CC479" t="inlineStr"/>
+      <c r="CD479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" s="1" t="inlineStr">
@@ -39536,6 +42917,13 @@
       <c r="BU480" t="inlineStr"/>
       <c r="BV480" t="inlineStr"/>
       <c r="BW480" t="inlineStr"/>
+      <c r="BX480" t="inlineStr"/>
+      <c r="BY480" t="inlineStr"/>
+      <c r="BZ480" t="inlineStr"/>
+      <c r="CA480" t="inlineStr"/>
+      <c r="CB480" t="inlineStr"/>
+      <c r="CC480" t="inlineStr"/>
+      <c r="CD480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" s="1" t="inlineStr">
@@ -39617,6 +43005,13 @@
       <c r="BU481" t="inlineStr"/>
       <c r="BV481" t="inlineStr"/>
       <c r="BW481" t="inlineStr"/>
+      <c r="BX481" t="inlineStr"/>
+      <c r="BY481" t="inlineStr"/>
+      <c r="BZ481" t="inlineStr"/>
+      <c r="CA481" t="inlineStr"/>
+      <c r="CB481" t="inlineStr"/>
+      <c r="CC481" t="inlineStr"/>
+      <c r="CD481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" s="1" t="inlineStr">
@@ -39698,6 +43093,13 @@
       <c r="BU482" t="inlineStr"/>
       <c r="BV482" t="inlineStr"/>
       <c r="BW482" t="inlineStr"/>
+      <c r="BX482" t="inlineStr"/>
+      <c r="BY482" t="inlineStr"/>
+      <c r="BZ482" t="inlineStr"/>
+      <c r="CA482" t="inlineStr"/>
+      <c r="CB482" t="inlineStr"/>
+      <c r="CC482" t="inlineStr"/>
+      <c r="CD482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" s="1" t="inlineStr">
@@ -39779,6 +43181,13 @@
       <c r="BU483" t="inlineStr"/>
       <c r="BV483" t="inlineStr"/>
       <c r="BW483" t="inlineStr"/>
+      <c r="BX483" t="inlineStr"/>
+      <c r="BY483" t="inlineStr"/>
+      <c r="BZ483" t="inlineStr"/>
+      <c r="CA483" t="inlineStr"/>
+      <c r="CB483" t="inlineStr"/>
+      <c r="CC483" t="inlineStr"/>
+      <c r="CD483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" s="1" t="inlineStr">
@@ -39860,6 +43269,13 @@
       <c r="BU484" t="inlineStr"/>
       <c r="BV484" t="inlineStr"/>
       <c r="BW484" t="inlineStr"/>
+      <c r="BX484" t="inlineStr"/>
+      <c r="BY484" t="inlineStr"/>
+      <c r="BZ484" t="inlineStr"/>
+      <c r="CA484" t="inlineStr"/>
+      <c r="CB484" t="inlineStr"/>
+      <c r="CC484" t="inlineStr"/>
+      <c r="CD484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" s="1" t="inlineStr">
@@ -39941,6 +43357,13 @@
       <c r="BU485" t="inlineStr"/>
       <c r="BV485" t="inlineStr"/>
       <c r="BW485" t="inlineStr"/>
+      <c r="BX485" t="inlineStr"/>
+      <c r="BY485" t="inlineStr"/>
+      <c r="BZ485" t="inlineStr"/>
+      <c r="CA485" t="inlineStr"/>
+      <c r="CB485" t="inlineStr"/>
+      <c r="CC485" t="inlineStr"/>
+      <c r="CD485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" s="1" t="inlineStr">
@@ -40022,6 +43445,13 @@
       <c r="BU486" t="inlineStr"/>
       <c r="BV486" t="inlineStr"/>
       <c r="BW486" t="inlineStr"/>
+      <c r="BX486" t="inlineStr"/>
+      <c r="BY486" t="inlineStr"/>
+      <c r="BZ486" t="inlineStr"/>
+      <c r="CA486" t="inlineStr"/>
+      <c r="CB486" t="inlineStr"/>
+      <c r="CC486" t="inlineStr"/>
+      <c r="CD486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" s="1" t="inlineStr">
@@ -40103,6 +43533,13 @@
       <c r="BU487" t="inlineStr"/>
       <c r="BV487" t="inlineStr"/>
       <c r="BW487" t="inlineStr"/>
+      <c r="BX487" t="inlineStr"/>
+      <c r="BY487" t="inlineStr"/>
+      <c r="BZ487" t="inlineStr"/>
+      <c r="CA487" t="inlineStr"/>
+      <c r="CB487" t="inlineStr"/>
+      <c r="CC487" t="inlineStr"/>
+      <c r="CD487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" s="1" t="inlineStr">
@@ -40184,6 +43621,13 @@
       <c r="BU488" t="inlineStr"/>
       <c r="BV488" t="inlineStr"/>
       <c r="BW488" t="inlineStr"/>
+      <c r="BX488" t="inlineStr"/>
+      <c r="BY488" t="inlineStr"/>
+      <c r="BZ488" t="inlineStr"/>
+      <c r="CA488" t="inlineStr"/>
+      <c r="CB488" t="inlineStr"/>
+      <c r="CC488" t="inlineStr"/>
+      <c r="CD488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" s="1" t="inlineStr">
@@ -40265,6 +43709,13 @@
       <c r="BU489" t="inlineStr"/>
       <c r="BV489" t="inlineStr"/>
       <c r="BW489" t="inlineStr"/>
+      <c r="BX489" t="inlineStr"/>
+      <c r="BY489" t="inlineStr"/>
+      <c r="BZ489" t="inlineStr"/>
+      <c r="CA489" t="inlineStr"/>
+      <c r="CB489" t="inlineStr"/>
+      <c r="CC489" t="inlineStr"/>
+      <c r="CD489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" s="1" t="inlineStr">
@@ -40346,6 +43797,13 @@
       <c r="BU490" t="inlineStr"/>
       <c r="BV490" t="inlineStr"/>
       <c r="BW490" t="inlineStr"/>
+      <c r="BX490" t="inlineStr"/>
+      <c r="BY490" t="inlineStr"/>
+      <c r="BZ490" t="inlineStr"/>
+      <c r="CA490" t="inlineStr"/>
+      <c r="CB490" t="inlineStr"/>
+      <c r="CC490" t="inlineStr"/>
+      <c r="CD490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" s="1" t="inlineStr">
@@ -40427,6 +43885,13 @@
       <c r="BU491" t="inlineStr"/>
       <c r="BV491" t="inlineStr"/>
       <c r="BW491" t="inlineStr"/>
+      <c r="BX491" t="inlineStr"/>
+      <c r="BY491" t="inlineStr"/>
+      <c r="BZ491" t="inlineStr"/>
+      <c r="CA491" t="inlineStr"/>
+      <c r="CB491" t="inlineStr"/>
+      <c r="CC491" t="inlineStr"/>
+      <c r="CD491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" s="1" t="inlineStr">
@@ -40508,6 +43973,13 @@
       <c r="BU492" t="inlineStr"/>
       <c r="BV492" t="inlineStr"/>
       <c r="BW492" t="inlineStr"/>
+      <c r="BX492" t="inlineStr"/>
+      <c r="BY492" t="inlineStr"/>
+      <c r="BZ492" t="inlineStr"/>
+      <c r="CA492" t="inlineStr"/>
+      <c r="CB492" t="inlineStr"/>
+      <c r="CC492" t="inlineStr"/>
+      <c r="CD492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" s="1" t="inlineStr">
@@ -40589,6 +44061,13 @@
       <c r="BU493" t="inlineStr"/>
       <c r="BV493" t="inlineStr"/>
       <c r="BW493" t="inlineStr"/>
+      <c r="BX493" t="inlineStr"/>
+      <c r="BY493" t="inlineStr"/>
+      <c r="BZ493" t="inlineStr"/>
+      <c r="CA493" t="inlineStr"/>
+      <c r="CB493" t="inlineStr"/>
+      <c r="CC493" t="inlineStr"/>
+      <c r="CD493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" s="1" t="inlineStr">
@@ -40670,6 +44149,13 @@
       <c r="BU494" t="inlineStr"/>
       <c r="BV494" t="inlineStr"/>
       <c r="BW494" t="inlineStr"/>
+      <c r="BX494" t="inlineStr"/>
+      <c r="BY494" t="inlineStr"/>
+      <c r="BZ494" t="inlineStr"/>
+      <c r="CA494" t="inlineStr"/>
+      <c r="CB494" t="inlineStr"/>
+      <c r="CC494" t="inlineStr"/>
+      <c r="CD494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" s="1" t="inlineStr">
@@ -40751,6 +44237,13 @@
       <c r="BU495" t="inlineStr"/>
       <c r="BV495" t="inlineStr"/>
       <c r="BW495" t="inlineStr"/>
+      <c r="BX495" t="inlineStr"/>
+      <c r="BY495" t="inlineStr"/>
+      <c r="BZ495" t="inlineStr"/>
+      <c r="CA495" t="inlineStr"/>
+      <c r="CB495" t="inlineStr"/>
+      <c r="CC495" t="inlineStr"/>
+      <c r="CD495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" s="1" t="inlineStr">
@@ -40832,6 +44325,13 @@
       <c r="BU496" t="inlineStr"/>
       <c r="BV496" t="inlineStr"/>
       <c r="BW496" t="inlineStr"/>
+      <c r="BX496" t="inlineStr"/>
+      <c r="BY496" t="inlineStr"/>
+      <c r="BZ496" t="inlineStr"/>
+      <c r="CA496" t="inlineStr"/>
+      <c r="CB496" t="inlineStr"/>
+      <c r="CC496" t="inlineStr"/>
+      <c r="CD496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" s="1" t="inlineStr">
@@ -40913,6 +44413,13 @@
       <c r="BU497" t="inlineStr"/>
       <c r="BV497" t="inlineStr"/>
       <c r="BW497" t="inlineStr"/>
+      <c r="BX497" t="inlineStr"/>
+      <c r="BY497" t="inlineStr"/>
+      <c r="BZ497" t="inlineStr"/>
+      <c r="CA497" t="inlineStr"/>
+      <c r="CB497" t="inlineStr"/>
+      <c r="CC497" t="inlineStr"/>
+      <c r="CD497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" s="1" t="inlineStr">
@@ -40994,6 +44501,13 @@
       <c r="BU498" t="inlineStr"/>
       <c r="BV498" t="inlineStr"/>
       <c r="BW498" t="inlineStr"/>
+      <c r="BX498" t="inlineStr"/>
+      <c r="BY498" t="inlineStr"/>
+      <c r="BZ498" t="inlineStr"/>
+      <c r="CA498" t="inlineStr"/>
+      <c r="CB498" t="inlineStr"/>
+      <c r="CC498" t="inlineStr"/>
+      <c r="CD498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" s="1" t="inlineStr">
@@ -41075,6 +44589,13 @@
       <c r="BU499" t="inlineStr"/>
       <c r="BV499" t="inlineStr"/>
       <c r="BW499" t="inlineStr"/>
+      <c r="BX499" t="inlineStr"/>
+      <c r="BY499" t="inlineStr"/>
+      <c r="BZ499" t="inlineStr"/>
+      <c r="CA499" t="inlineStr"/>
+      <c r="CB499" t="inlineStr"/>
+      <c r="CC499" t="inlineStr"/>
+      <c r="CD499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" s="1" t="inlineStr">
@@ -41156,6 +44677,13 @@
       <c r="BU500" t="inlineStr"/>
       <c r="BV500" t="inlineStr"/>
       <c r="BW500" t="inlineStr"/>
+      <c r="BX500" t="inlineStr"/>
+      <c r="BY500" t="inlineStr"/>
+      <c r="BZ500" t="inlineStr"/>
+      <c r="CA500" t="inlineStr"/>
+      <c r="CB500" t="inlineStr"/>
+      <c r="CC500" t="inlineStr"/>
+      <c r="CD500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" s="1" t="inlineStr">
@@ -41237,6 +44765,13 @@
       <c r="BU501" t="inlineStr"/>
       <c r="BV501" t="inlineStr"/>
       <c r="BW501" t="inlineStr"/>
+      <c r="BX501" t="inlineStr"/>
+      <c r="BY501" t="inlineStr"/>
+      <c r="BZ501" t="inlineStr"/>
+      <c r="CA501" t="inlineStr"/>
+      <c r="CB501" t="inlineStr"/>
+      <c r="CC501" t="inlineStr"/>
+      <c r="CD501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" s="1" t="inlineStr">
@@ -41318,6 +44853,13 @@
       <c r="BU502" t="inlineStr"/>
       <c r="BV502" t="inlineStr"/>
       <c r="BW502" t="inlineStr"/>
+      <c r="BX502" t="inlineStr"/>
+      <c r="BY502" t="inlineStr"/>
+      <c r="BZ502" t="inlineStr"/>
+      <c r="CA502" t="inlineStr"/>
+      <c r="CB502" t="inlineStr"/>
+      <c r="CC502" t="inlineStr"/>
+      <c r="CD502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" s="1" t="inlineStr">
@@ -41399,6 +44941,13 @@
       <c r="BU503" t="inlineStr"/>
       <c r="BV503" t="inlineStr"/>
       <c r="BW503" t="inlineStr"/>
+      <c r="BX503" t="inlineStr"/>
+      <c r="BY503" t="inlineStr"/>
+      <c r="BZ503" t="inlineStr"/>
+      <c r="CA503" t="inlineStr"/>
+      <c r="CB503" t="inlineStr"/>
+      <c r="CC503" t="inlineStr"/>
+      <c r="CD503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" s="1" t="inlineStr">
@@ -41480,6 +45029,13 @@
       <c r="BU504" t="inlineStr"/>
       <c r="BV504" t="inlineStr"/>
       <c r="BW504" t="inlineStr"/>
+      <c r="BX504" t="inlineStr"/>
+      <c r="BY504" t="inlineStr"/>
+      <c r="BZ504" t="inlineStr"/>
+      <c r="CA504" t="inlineStr"/>
+      <c r="CB504" t="inlineStr"/>
+      <c r="CC504" t="inlineStr"/>
+      <c r="CD504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" s="1" t="inlineStr">
@@ -41561,6 +45117,13 @@
       <c r="BU505" t="inlineStr"/>
       <c r="BV505" t="inlineStr"/>
       <c r="BW505" t="inlineStr"/>
+      <c r="BX505" t="inlineStr"/>
+      <c r="BY505" t="inlineStr"/>
+      <c r="BZ505" t="inlineStr"/>
+      <c r="CA505" t="inlineStr"/>
+      <c r="CB505" t="inlineStr"/>
+      <c r="CC505" t="inlineStr"/>
+      <c r="CD505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" s="1" t="inlineStr">
@@ -41642,6 +45205,13 @@
       <c r="BU506" t="inlineStr"/>
       <c r="BV506" t="inlineStr"/>
       <c r="BW506" t="inlineStr"/>
+      <c r="BX506" t="inlineStr"/>
+      <c r="BY506" t="inlineStr"/>
+      <c r="BZ506" t="inlineStr"/>
+      <c r="CA506" t="inlineStr"/>
+      <c r="CB506" t="inlineStr"/>
+      <c r="CC506" t="inlineStr"/>
+      <c r="CD506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" s="1" t="inlineStr">
@@ -41723,6 +45293,13 @@
       <c r="BU507" t="inlineStr"/>
       <c r="BV507" t="inlineStr"/>
       <c r="BW507" t="inlineStr"/>
+      <c r="BX507" t="inlineStr"/>
+      <c r="BY507" t="inlineStr"/>
+      <c r="BZ507" t="inlineStr"/>
+      <c r="CA507" t="inlineStr"/>
+      <c r="CB507" t="inlineStr"/>
+      <c r="CC507" t="inlineStr"/>
+      <c r="CD507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" s="1" t="inlineStr">
@@ -41804,6 +45381,13 @@
       <c r="BU508" t="inlineStr"/>
       <c r="BV508" t="inlineStr"/>
       <c r="BW508" t="inlineStr"/>
+      <c r="BX508" t="inlineStr"/>
+      <c r="BY508" t="inlineStr"/>
+      <c r="BZ508" t="inlineStr"/>
+      <c r="CA508" t="inlineStr"/>
+      <c r="CB508" t="inlineStr"/>
+      <c r="CC508" t="inlineStr"/>
+      <c r="CD508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" s="1" t="inlineStr">
@@ -41885,6 +45469,13 @@
       <c r="BU509" t="inlineStr"/>
       <c r="BV509" t="inlineStr"/>
       <c r="BW509" t="inlineStr"/>
+      <c r="BX509" t="inlineStr"/>
+      <c r="BY509" t="inlineStr"/>
+      <c r="BZ509" t="inlineStr"/>
+      <c r="CA509" t="inlineStr"/>
+      <c r="CB509" t="inlineStr"/>
+      <c r="CC509" t="inlineStr"/>
+      <c r="CD509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" s="1" t="inlineStr">
@@ -41966,6 +45557,13 @@
       <c r="BU510" t="inlineStr"/>
       <c r="BV510" t="inlineStr"/>
       <c r="BW510" t="inlineStr"/>
+      <c r="BX510" t="inlineStr"/>
+      <c r="BY510" t="inlineStr"/>
+      <c r="BZ510" t="inlineStr"/>
+      <c r="CA510" t="inlineStr"/>
+      <c r="CB510" t="inlineStr"/>
+      <c r="CC510" t="inlineStr"/>
+      <c r="CD510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" s="1" t="inlineStr">
@@ -42047,6 +45645,13 @@
       <c r="BU511" t="inlineStr"/>
       <c r="BV511" t="inlineStr"/>
       <c r="BW511" t="inlineStr"/>
+      <c r="BX511" t="inlineStr"/>
+      <c r="BY511" t="inlineStr"/>
+      <c r="BZ511" t="inlineStr"/>
+      <c r="CA511" t="inlineStr"/>
+      <c r="CB511" t="inlineStr"/>
+      <c r="CC511" t="inlineStr"/>
+      <c r="CD511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" s="1" t="inlineStr">
@@ -42128,6 +45733,13 @@
       <c r="BU512" t="inlineStr"/>
       <c r="BV512" t="inlineStr"/>
       <c r="BW512" t="inlineStr"/>
+      <c r="BX512" t="inlineStr"/>
+      <c r="BY512" t="inlineStr"/>
+      <c r="BZ512" t="inlineStr"/>
+      <c r="CA512" t="inlineStr"/>
+      <c r="CB512" t="inlineStr"/>
+      <c r="CC512" t="inlineStr"/>
+      <c r="CD512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" s="1" t="inlineStr">
@@ -42209,6 +45821,13 @@
       <c r="BU513" t="inlineStr"/>
       <c r="BV513" t="inlineStr"/>
       <c r="BW513" t="inlineStr"/>
+      <c r="BX513" t="inlineStr"/>
+      <c r="BY513" t="inlineStr"/>
+      <c r="BZ513" t="inlineStr"/>
+      <c r="CA513" t="inlineStr"/>
+      <c r="CB513" t="inlineStr"/>
+      <c r="CC513" t="inlineStr"/>
+      <c r="CD513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" s="1" t="inlineStr">
@@ -42290,6 +45909,13 @@
       <c r="BU514" t="inlineStr"/>
       <c r="BV514" t="inlineStr"/>
       <c r="BW514" t="inlineStr"/>
+      <c r="BX514" t="inlineStr"/>
+      <c r="BY514" t="inlineStr"/>
+      <c r="BZ514" t="inlineStr"/>
+      <c r="CA514" t="inlineStr"/>
+      <c r="CB514" t="inlineStr"/>
+      <c r="CC514" t="inlineStr"/>
+      <c r="CD514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" s="1" t="inlineStr">
@@ -42371,6 +45997,13 @@
       <c r="BU515" t="inlineStr"/>
       <c r="BV515" t="inlineStr"/>
       <c r="BW515" t="inlineStr"/>
+      <c r="BX515" t="inlineStr"/>
+      <c r="BY515" t="inlineStr"/>
+      <c r="BZ515" t="inlineStr"/>
+      <c r="CA515" t="inlineStr"/>
+      <c r="CB515" t="inlineStr"/>
+      <c r="CC515" t="inlineStr"/>
+      <c r="CD515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" s="1" t="inlineStr">
@@ -42452,6 +46085,13 @@
       <c r="BU516" t="inlineStr"/>
       <c r="BV516" t="inlineStr"/>
       <c r="BW516" t="inlineStr"/>
+      <c r="BX516" t="inlineStr"/>
+      <c r="BY516" t="inlineStr"/>
+      <c r="BZ516" t="inlineStr"/>
+      <c r="CA516" t="inlineStr"/>
+      <c r="CB516" t="inlineStr"/>
+      <c r="CC516" t="inlineStr"/>
+      <c r="CD516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" s="1" t="inlineStr">
@@ -42533,6 +46173,13 @@
       <c r="BU517" t="inlineStr"/>
       <c r="BV517" t="inlineStr"/>
       <c r="BW517" t="inlineStr"/>
+      <c r="BX517" t="inlineStr"/>
+      <c r="BY517" t="inlineStr"/>
+      <c r="BZ517" t="inlineStr"/>
+      <c r="CA517" t="inlineStr"/>
+      <c r="CB517" t="inlineStr"/>
+      <c r="CC517" t="inlineStr"/>
+      <c r="CD517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" s="1" t="inlineStr">
@@ -42614,6 +46261,13 @@
       <c r="BU518" t="inlineStr"/>
       <c r="BV518" t="inlineStr"/>
       <c r="BW518" t="inlineStr"/>
+      <c r="BX518" t="inlineStr"/>
+      <c r="BY518" t="inlineStr"/>
+      <c r="BZ518" t="inlineStr"/>
+      <c r="CA518" t="inlineStr"/>
+      <c r="CB518" t="inlineStr"/>
+      <c r="CC518" t="inlineStr"/>
+      <c r="CD518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" s="1" t="inlineStr">
@@ -42695,6 +46349,13 @@
       <c r="BU519" t="inlineStr"/>
       <c r="BV519" t="inlineStr"/>
       <c r="BW519" t="inlineStr"/>
+      <c r="BX519" t="inlineStr"/>
+      <c r="BY519" t="inlineStr"/>
+      <c r="BZ519" t="inlineStr"/>
+      <c r="CA519" t="inlineStr"/>
+      <c r="CB519" t="inlineStr"/>
+      <c r="CC519" t="inlineStr"/>
+      <c r="CD519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" s="1" t="inlineStr">
@@ -42776,6 +46437,13 @@
       <c r="BU520" t="inlineStr"/>
       <c r="BV520" t="inlineStr"/>
       <c r="BW520" t="inlineStr"/>
+      <c r="BX520" t="inlineStr"/>
+      <c r="BY520" t="inlineStr"/>
+      <c r="BZ520" t="inlineStr"/>
+      <c r="CA520" t="inlineStr"/>
+      <c r="CB520" t="inlineStr"/>
+      <c r="CC520" t="inlineStr"/>
+      <c r="CD520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" s="1" t="inlineStr">
@@ -42857,6 +46525,13 @@
       <c r="BU521" t="inlineStr"/>
       <c r="BV521" t="inlineStr"/>
       <c r="BW521" t="inlineStr"/>
+      <c r="BX521" t="inlineStr"/>
+      <c r="BY521" t="inlineStr"/>
+      <c r="BZ521" t="inlineStr"/>
+      <c r="CA521" t="inlineStr"/>
+      <c r="CB521" t="inlineStr"/>
+      <c r="CC521" t="inlineStr"/>
+      <c r="CD521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" s="1" t="inlineStr">
@@ -42938,6 +46613,13 @@
       <c r="BU522" t="inlineStr"/>
       <c r="BV522" t="inlineStr"/>
       <c r="BW522" t="inlineStr"/>
+      <c r="BX522" t="inlineStr"/>
+      <c r="BY522" t="inlineStr"/>
+      <c r="BZ522" t="inlineStr"/>
+      <c r="CA522" t="inlineStr"/>
+      <c r="CB522" t="inlineStr"/>
+      <c r="CC522" t="inlineStr"/>
+      <c r="CD522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" s="1" t="inlineStr">
@@ -43019,6 +46701,13 @@
       <c r="BU523" t="inlineStr"/>
       <c r="BV523" t="inlineStr"/>
       <c r="BW523" t="inlineStr"/>
+      <c r="BX523" t="inlineStr"/>
+      <c r="BY523" t="inlineStr"/>
+      <c r="BZ523" t="inlineStr"/>
+      <c r="CA523" t="inlineStr"/>
+      <c r="CB523" t="inlineStr"/>
+      <c r="CC523" t="inlineStr"/>
+      <c r="CD523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" s="1" t="inlineStr">
@@ -43100,6 +46789,13 @@
       <c r="BU524" t="inlineStr"/>
       <c r="BV524" t="inlineStr"/>
       <c r="BW524" t="inlineStr"/>
+      <c r="BX524" t="inlineStr"/>
+      <c r="BY524" t="inlineStr"/>
+      <c r="BZ524" t="inlineStr"/>
+      <c r="CA524" t="inlineStr"/>
+      <c r="CB524" t="inlineStr"/>
+      <c r="CC524" t="inlineStr"/>
+      <c r="CD524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" s="1" t="inlineStr">
@@ -43181,6 +46877,13 @@
       <c r="BU525" t="inlineStr"/>
       <c r="BV525" t="inlineStr"/>
       <c r="BW525" t="inlineStr"/>
+      <c r="BX525" t="inlineStr"/>
+      <c r="BY525" t="inlineStr"/>
+      <c r="BZ525" t="inlineStr"/>
+      <c r="CA525" t="inlineStr"/>
+      <c r="CB525" t="inlineStr"/>
+      <c r="CC525" t="inlineStr"/>
+      <c r="CD525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" s="1" t="inlineStr">
@@ -43262,6 +46965,13 @@
       <c r="BU526" t="inlineStr"/>
       <c r="BV526" t="inlineStr"/>
       <c r="BW526" t="inlineStr"/>
+      <c r="BX526" t="inlineStr"/>
+      <c r="BY526" t="inlineStr"/>
+      <c r="BZ526" t="inlineStr"/>
+      <c r="CA526" t="inlineStr"/>
+      <c r="CB526" t="inlineStr"/>
+      <c r="CC526" t="inlineStr"/>
+      <c r="CD526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" s="1" t="inlineStr">
@@ -43343,6 +47053,13 @@
       <c r="BU527" t="inlineStr"/>
       <c r="BV527" t="inlineStr"/>
       <c r="BW527" t="inlineStr"/>
+      <c r="BX527" t="inlineStr"/>
+      <c r="BY527" t="inlineStr"/>
+      <c r="BZ527" t="inlineStr"/>
+      <c r="CA527" t="inlineStr"/>
+      <c r="CB527" t="inlineStr"/>
+      <c r="CC527" t="inlineStr"/>
+      <c r="CD527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" s="1" t="inlineStr">
@@ -43424,6 +47141,13 @@
       <c r="BU528" t="inlineStr"/>
       <c r="BV528" t="inlineStr"/>
       <c r="BW528" t="inlineStr"/>
+      <c r="BX528" t="inlineStr"/>
+      <c r="BY528" t="inlineStr"/>
+      <c r="BZ528" t="inlineStr"/>
+      <c r="CA528" t="inlineStr"/>
+      <c r="CB528" t="inlineStr"/>
+      <c r="CC528" t="inlineStr"/>
+      <c r="CD528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" s="1" t="inlineStr">
@@ -43505,6 +47229,13 @@
       <c r="BU529" t="inlineStr"/>
       <c r="BV529" t="inlineStr"/>
       <c r="BW529" t="inlineStr"/>
+      <c r="BX529" t="inlineStr"/>
+      <c r="BY529" t="inlineStr"/>
+      <c r="BZ529" t="inlineStr"/>
+      <c r="CA529" t="inlineStr"/>
+      <c r="CB529" t="inlineStr"/>
+      <c r="CC529" t="inlineStr"/>
+      <c r="CD529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" s="1" t="inlineStr">
@@ -43586,6 +47317,13 @@
       <c r="BU530" t="inlineStr"/>
       <c r="BV530" t="inlineStr"/>
       <c r="BW530" t="inlineStr"/>
+      <c r="BX530" t="inlineStr"/>
+      <c r="BY530" t="inlineStr"/>
+      <c r="BZ530" t="inlineStr"/>
+      <c r="CA530" t="inlineStr"/>
+      <c r="CB530" t="inlineStr"/>
+      <c r="CC530" t="inlineStr"/>
+      <c r="CD530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" s="1" t="inlineStr">
@@ -43667,6 +47405,13 @@
       <c r="BU531" t="inlineStr"/>
       <c r="BV531" t="inlineStr"/>
       <c r="BW531" t="inlineStr"/>
+      <c r="BX531" t="inlineStr"/>
+      <c r="BY531" t="inlineStr"/>
+      <c r="BZ531" t="inlineStr"/>
+      <c r="CA531" t="inlineStr"/>
+      <c r="CB531" t="inlineStr"/>
+      <c r="CC531" t="inlineStr"/>
+      <c r="CD531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" s="1" t="inlineStr">
@@ -43748,6 +47493,13 @@
       <c r="BU532" t="inlineStr"/>
       <c r="BV532" t="inlineStr"/>
       <c r="BW532" t="inlineStr"/>
+      <c r="BX532" t="inlineStr"/>
+      <c r="BY532" t="inlineStr"/>
+      <c r="BZ532" t="inlineStr"/>
+      <c r="CA532" t="inlineStr"/>
+      <c r="CB532" t="inlineStr"/>
+      <c r="CC532" t="inlineStr"/>
+      <c r="CD532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" s="1" t="inlineStr">
@@ -43829,6 +47581,13 @@
       <c r="BU533" t="inlineStr"/>
       <c r="BV533" t="inlineStr"/>
       <c r="BW533" t="inlineStr"/>
+      <c r="BX533" t="inlineStr"/>
+      <c r="BY533" t="inlineStr"/>
+      <c r="BZ533" t="inlineStr"/>
+      <c r="CA533" t="inlineStr"/>
+      <c r="CB533" t="inlineStr"/>
+      <c r="CC533" t="inlineStr"/>
+      <c r="CD533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" s="1" t="inlineStr">
@@ -43910,6 +47669,13 @@
       <c r="BU534" t="inlineStr"/>
       <c r="BV534" t="inlineStr"/>
       <c r="BW534" t="inlineStr"/>
+      <c r="BX534" t="inlineStr"/>
+      <c r="BY534" t="inlineStr"/>
+      <c r="BZ534" t="inlineStr"/>
+      <c r="CA534" t="inlineStr"/>
+      <c r="CB534" t="inlineStr"/>
+      <c r="CC534" t="inlineStr"/>
+      <c r="CD534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" s="1" t="inlineStr">
@@ -43991,6 +47757,13 @@
       <c r="BU535" t="inlineStr"/>
       <c r="BV535" t="inlineStr"/>
       <c r="BW535" t="inlineStr"/>
+      <c r="BX535" t="inlineStr"/>
+      <c r="BY535" t="inlineStr"/>
+      <c r="BZ535" t="inlineStr"/>
+      <c r="CA535" t="inlineStr"/>
+      <c r="CB535" t="inlineStr"/>
+      <c r="CC535" t="inlineStr"/>
+      <c r="CD535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" s="1" t="inlineStr">
@@ -44072,6 +47845,13 @@
       <c r="BU536" t="inlineStr"/>
       <c r="BV536" t="inlineStr"/>
       <c r="BW536" t="inlineStr"/>
+      <c r="BX536" t="inlineStr"/>
+      <c r="BY536" t="inlineStr"/>
+      <c r="BZ536" t="inlineStr"/>
+      <c r="CA536" t="inlineStr"/>
+      <c r="CB536" t="inlineStr"/>
+      <c r="CC536" t="inlineStr"/>
+      <c r="CD536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" s="1" t="inlineStr">
@@ -44153,6 +47933,13 @@
       <c r="BU537" t="inlineStr"/>
       <c r="BV537" t="inlineStr"/>
       <c r="BW537" t="inlineStr"/>
+      <c r="BX537" t="inlineStr"/>
+      <c r="BY537" t="inlineStr"/>
+      <c r="BZ537" t="inlineStr"/>
+      <c r="CA537" t="inlineStr"/>
+      <c r="CB537" t="inlineStr"/>
+      <c r="CC537" t="inlineStr"/>
+      <c r="CD537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" s="1" t="inlineStr">
@@ -44234,6 +48021,13 @@
       <c r="BU538" t="inlineStr"/>
       <c r="BV538" t="inlineStr"/>
       <c r="BW538" t="inlineStr"/>
+      <c r="BX538" t="inlineStr"/>
+      <c r="BY538" t="inlineStr"/>
+      <c r="BZ538" t="inlineStr"/>
+      <c r="CA538" t="inlineStr"/>
+      <c r="CB538" t="inlineStr"/>
+      <c r="CC538" t="inlineStr"/>
+      <c r="CD538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" s="1" t="inlineStr">
@@ -44315,6 +48109,13 @@
       <c r="BU539" t="inlineStr"/>
       <c r="BV539" t="inlineStr"/>
       <c r="BW539" t="inlineStr"/>
+      <c r="BX539" t="inlineStr"/>
+      <c r="BY539" t="inlineStr"/>
+      <c r="BZ539" t="inlineStr"/>
+      <c r="CA539" t="inlineStr"/>
+      <c r="CB539" t="inlineStr"/>
+      <c r="CC539" t="inlineStr"/>
+      <c r="CD539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" s="1" t="inlineStr">
@@ -44396,6 +48197,13 @@
       <c r="BU540" t="inlineStr"/>
       <c r="BV540" t="inlineStr"/>
       <c r="BW540" t="inlineStr"/>
+      <c r="BX540" t="inlineStr"/>
+      <c r="BY540" t="inlineStr"/>
+      <c r="BZ540" t="inlineStr"/>
+      <c r="CA540" t="inlineStr"/>
+      <c r="CB540" t="inlineStr"/>
+      <c r="CC540" t="inlineStr"/>
+      <c r="CD540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" s="1" t="inlineStr">
@@ -44477,6 +48285,13 @@
       <c r="BU541" t="inlineStr"/>
       <c r="BV541" t="inlineStr"/>
       <c r="BW541" t="inlineStr"/>
+      <c r="BX541" t="inlineStr"/>
+      <c r="BY541" t="inlineStr"/>
+      <c r="BZ541" t="inlineStr"/>
+      <c r="CA541" t="inlineStr"/>
+      <c r="CB541" t="inlineStr"/>
+      <c r="CC541" t="inlineStr"/>
+      <c r="CD541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" s="1" t="inlineStr">
@@ -44558,6 +48373,13 @@
       <c r="BU542" t="inlineStr"/>
       <c r="BV542" t="inlineStr"/>
       <c r="BW542" t="inlineStr"/>
+      <c r="BX542" t="inlineStr"/>
+      <c r="BY542" t="inlineStr"/>
+      <c r="BZ542" t="inlineStr"/>
+      <c r="CA542" t="inlineStr"/>
+      <c r="CB542" t="inlineStr"/>
+      <c r="CC542" t="inlineStr"/>
+      <c r="CD542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" s="1" t="inlineStr">
@@ -44639,6 +48461,13 @@
       <c r="BU543" t="inlineStr"/>
       <c r="BV543" t="inlineStr"/>
       <c r="BW543" t="inlineStr"/>
+      <c r="BX543" t="inlineStr"/>
+      <c r="BY543" t="inlineStr"/>
+      <c r="BZ543" t="inlineStr"/>
+      <c r="CA543" t="inlineStr"/>
+      <c r="CB543" t="inlineStr"/>
+      <c r="CC543" t="inlineStr"/>
+      <c r="CD543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" s="1" t="inlineStr">
@@ -44720,6 +48549,13 @@
       <c r="BU544" t="inlineStr"/>
       <c r="BV544" t="inlineStr"/>
       <c r="BW544" t="inlineStr"/>
+      <c r="BX544" t="inlineStr"/>
+      <c r="BY544" t="inlineStr"/>
+      <c r="BZ544" t="inlineStr"/>
+      <c r="CA544" t="inlineStr"/>
+      <c r="CB544" t="inlineStr"/>
+      <c r="CC544" t="inlineStr"/>
+      <c r="CD544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" s="1" t="inlineStr">
@@ -44801,6 +48637,13 @@
       <c r="BU545" t="inlineStr"/>
       <c r="BV545" t="inlineStr"/>
       <c r="BW545" t="inlineStr"/>
+      <c r="BX545" t="inlineStr"/>
+      <c r="BY545" t="inlineStr"/>
+      <c r="BZ545" t="inlineStr"/>
+      <c r="CA545" t="inlineStr"/>
+      <c r="CB545" t="inlineStr"/>
+      <c r="CC545" t="inlineStr"/>
+      <c r="CD545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" s="1" t="inlineStr">
@@ -44882,6 +48725,13 @@
       <c r="BU546" t="inlineStr"/>
       <c r="BV546" t="inlineStr"/>
       <c r="BW546" t="inlineStr"/>
+      <c r="BX546" t="inlineStr"/>
+      <c r="BY546" t="inlineStr"/>
+      <c r="BZ546" t="inlineStr"/>
+      <c r="CA546" t="inlineStr"/>
+      <c r="CB546" t="inlineStr"/>
+      <c r="CC546" t="inlineStr"/>
+      <c r="CD546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" s="1" t="inlineStr">
@@ -44963,6 +48813,13 @@
       <c r="BU547" t="inlineStr"/>
       <c r="BV547" t="inlineStr"/>
       <c r="BW547" t="inlineStr"/>
+      <c r="BX547" t="inlineStr"/>
+      <c r="BY547" t="inlineStr"/>
+      <c r="BZ547" t="inlineStr"/>
+      <c r="CA547" t="inlineStr"/>
+      <c r="CB547" t="inlineStr"/>
+      <c r="CC547" t="inlineStr"/>
+      <c r="CD547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" s="1" t="inlineStr">
@@ -45044,6 +48901,13 @@
       <c r="BU548" t="inlineStr"/>
       <c r="BV548" t="inlineStr"/>
       <c r="BW548" t="inlineStr"/>
+      <c r="BX548" t="inlineStr"/>
+      <c r="BY548" t="inlineStr"/>
+      <c r="BZ548" t="inlineStr"/>
+      <c r="CA548" t="inlineStr"/>
+      <c r="CB548" t="inlineStr"/>
+      <c r="CC548" t="inlineStr"/>
+      <c r="CD548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" s="1" t="inlineStr">
@@ -45125,6 +48989,13 @@
       <c r="BU549" t="inlineStr"/>
       <c r="BV549" t="inlineStr"/>
       <c r="BW549" t="inlineStr"/>
+      <c r="BX549" t="inlineStr"/>
+      <c r="BY549" t="inlineStr"/>
+      <c r="BZ549" t="inlineStr"/>
+      <c r="CA549" t="inlineStr"/>
+      <c r="CB549" t="inlineStr"/>
+      <c r="CC549" t="inlineStr"/>
+      <c r="CD549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" s="1" t="inlineStr">
@@ -45206,6 +49077,13 @@
       <c r="BU550" t="inlineStr"/>
       <c r="BV550" t="inlineStr"/>
       <c r="BW550" t="inlineStr"/>
+      <c r="BX550" t="inlineStr"/>
+      <c r="BY550" t="inlineStr"/>
+      <c r="BZ550" t="inlineStr"/>
+      <c r="CA550" t="inlineStr"/>
+      <c r="CB550" t="inlineStr"/>
+      <c r="CC550" t="inlineStr"/>
+      <c r="CD550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" s="1" t="inlineStr">
@@ -45287,6 +49165,13 @@
       <c r="BU551" t="inlineStr"/>
       <c r="BV551" t="inlineStr"/>
       <c r="BW551" t="inlineStr"/>
+      <c r="BX551" t="inlineStr"/>
+      <c r="BY551" t="inlineStr"/>
+      <c r="BZ551" t="inlineStr"/>
+      <c r="CA551" t="inlineStr"/>
+      <c r="CB551" t="inlineStr"/>
+      <c r="CC551" t="inlineStr"/>
+      <c r="CD551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" s="1" t="inlineStr">
@@ -45368,6 +49253,13 @@
       <c r="BU552" t="inlineStr"/>
       <c r="BV552" t="inlineStr"/>
       <c r="BW552" t="inlineStr"/>
+      <c r="BX552" t="inlineStr"/>
+      <c r="BY552" t="inlineStr"/>
+      <c r="BZ552" t="inlineStr"/>
+      <c r="CA552" t="inlineStr"/>
+      <c r="CB552" t="inlineStr"/>
+      <c r="CC552" t="inlineStr"/>
+      <c r="CD552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" s="1" t="inlineStr">
@@ -45449,6 +49341,13 @@
       <c r="BU553" t="inlineStr"/>
       <c r="BV553" t="inlineStr"/>
       <c r="BW553" t="inlineStr"/>
+      <c r="BX553" t="inlineStr"/>
+      <c r="BY553" t="inlineStr"/>
+      <c r="BZ553" t="inlineStr"/>
+      <c r="CA553" t="inlineStr"/>
+      <c r="CB553" t="inlineStr"/>
+      <c r="CC553" t="inlineStr"/>
+      <c r="CD553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" s="1" t="inlineStr">
@@ -45530,6 +49429,13 @@
       <c r="BU554" t="inlineStr"/>
       <c r="BV554" t="inlineStr"/>
       <c r="BW554" t="inlineStr"/>
+      <c r="BX554" t="inlineStr"/>
+      <c r="BY554" t="inlineStr"/>
+      <c r="BZ554" t="inlineStr"/>
+      <c r="CA554" t="inlineStr"/>
+      <c r="CB554" t="inlineStr"/>
+      <c r="CC554" t="inlineStr"/>
+      <c r="CD554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" s="1" t="inlineStr">
@@ -45611,6 +49517,13 @@
       <c r="BU555" t="inlineStr"/>
       <c r="BV555" t="inlineStr"/>
       <c r="BW555" t="inlineStr"/>
+      <c r="BX555" t="inlineStr"/>
+      <c r="BY555" t="inlineStr"/>
+      <c r="BZ555" t="inlineStr"/>
+      <c r="CA555" t="inlineStr"/>
+      <c r="CB555" t="inlineStr"/>
+      <c r="CC555" t="inlineStr"/>
+      <c r="CD555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" s="1" t="inlineStr">
@@ -45692,6 +49605,13 @@
       <c r="BU556" t="inlineStr"/>
       <c r="BV556" t="inlineStr"/>
       <c r="BW556" t="inlineStr"/>
+      <c r="BX556" t="inlineStr"/>
+      <c r="BY556" t="inlineStr"/>
+      <c r="BZ556" t="inlineStr"/>
+      <c r="CA556" t="inlineStr"/>
+      <c r="CB556" t="inlineStr"/>
+      <c r="CC556" t="inlineStr"/>
+      <c r="CD556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" s="1" t="inlineStr">
@@ -45773,6 +49693,13 @@
       <c r="BU557" t="inlineStr"/>
       <c r="BV557" t="inlineStr"/>
       <c r="BW557" t="inlineStr"/>
+      <c r="BX557" t="inlineStr"/>
+      <c r="BY557" t="inlineStr"/>
+      <c r="BZ557" t="inlineStr"/>
+      <c r="CA557" t="inlineStr"/>
+      <c r="CB557" t="inlineStr"/>
+      <c r="CC557" t="inlineStr"/>
+      <c r="CD557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" s="1" t="inlineStr">
@@ -45854,6 +49781,13 @@
       <c r="BU558" t="inlineStr"/>
       <c r="BV558" t="inlineStr"/>
       <c r="BW558" t="inlineStr"/>
+      <c r="BX558" t="inlineStr"/>
+      <c r="BY558" t="inlineStr"/>
+      <c r="BZ558" t="inlineStr"/>
+      <c r="CA558" t="inlineStr"/>
+      <c r="CB558" t="inlineStr"/>
+      <c r="CC558" t="inlineStr"/>
+      <c r="CD558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" s="1" t="inlineStr">
@@ -45935,6 +49869,13 @@
       <c r="BU559" t="inlineStr"/>
       <c r="BV559" t="inlineStr"/>
       <c r="BW559" t="inlineStr"/>
+      <c r="BX559" t="inlineStr"/>
+      <c r="BY559" t="inlineStr"/>
+      <c r="BZ559" t="inlineStr"/>
+      <c r="CA559" t="inlineStr"/>
+      <c r="CB559" t="inlineStr"/>
+      <c r="CC559" t="inlineStr"/>
+      <c r="CD559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" s="1" t="inlineStr">
@@ -46016,6 +49957,13 @@
       <c r="BU560" t="inlineStr"/>
       <c r="BV560" t="inlineStr"/>
       <c r="BW560" t="inlineStr"/>
+      <c r="BX560" t="inlineStr"/>
+      <c r="BY560" t="inlineStr"/>
+      <c r="BZ560" t="inlineStr"/>
+      <c r="CA560" t="inlineStr"/>
+      <c r="CB560" t="inlineStr"/>
+      <c r="CC560" t="inlineStr"/>
+      <c r="CD560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" s="1" t="inlineStr">
@@ -46097,6 +50045,13 @@
       <c r="BU561" t="inlineStr"/>
       <c r="BV561" t="inlineStr"/>
       <c r="BW561" t="inlineStr"/>
+      <c r="BX561" t="inlineStr"/>
+      <c r="BY561" t="inlineStr"/>
+      <c r="BZ561" t="inlineStr"/>
+      <c r="CA561" t="inlineStr"/>
+      <c r="CB561" t="inlineStr"/>
+      <c r="CC561" t="inlineStr"/>
+      <c r="CD561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" s="1" t="inlineStr">
@@ -46178,6 +50133,13 @@
       <c r="BU562" t="inlineStr"/>
       <c r="BV562" t="inlineStr"/>
       <c r="BW562" t="inlineStr"/>
+      <c r="BX562" t="inlineStr"/>
+      <c r="BY562" t="inlineStr"/>
+      <c r="BZ562" t="inlineStr"/>
+      <c r="CA562" t="inlineStr"/>
+      <c r="CB562" t="inlineStr"/>
+      <c r="CC562" t="inlineStr"/>
+      <c r="CD562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" s="1" t="inlineStr">
@@ -46259,6 +50221,13 @@
       <c r="BU563" t="inlineStr"/>
       <c r="BV563" t="inlineStr"/>
       <c r="BW563" t="inlineStr"/>
+      <c r="BX563" t="inlineStr"/>
+      <c r="BY563" t="inlineStr"/>
+      <c r="BZ563" t="inlineStr"/>
+      <c r="CA563" t="inlineStr"/>
+      <c r="CB563" t="inlineStr"/>
+      <c r="CC563" t="inlineStr"/>
+      <c r="CD563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" s="1" t="inlineStr">
@@ -46340,6 +50309,13 @@
       <c r="BU564" t="inlineStr"/>
       <c r="BV564" t="inlineStr"/>
       <c r="BW564" t="inlineStr"/>
+      <c r="BX564" t="inlineStr"/>
+      <c r="BY564" t="inlineStr"/>
+      <c r="BZ564" t="inlineStr"/>
+      <c r="CA564" t="inlineStr"/>
+      <c r="CB564" t="inlineStr"/>
+      <c r="CC564" t="inlineStr"/>
+      <c r="CD564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" s="1" t="inlineStr">
@@ -46421,6 +50397,13 @@
       <c r="BU565" t="inlineStr"/>
       <c r="BV565" t="inlineStr"/>
       <c r="BW565" t="inlineStr"/>
+      <c r="BX565" t="inlineStr"/>
+      <c r="BY565" t="inlineStr"/>
+      <c r="BZ565" t="inlineStr"/>
+      <c r="CA565" t="inlineStr"/>
+      <c r="CB565" t="inlineStr"/>
+      <c r="CC565" t="inlineStr"/>
+      <c r="CD565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" s="1" t="inlineStr">
@@ -46502,6 +50485,13 @@
       <c r="BU566" t="inlineStr"/>
       <c r="BV566" t="inlineStr"/>
       <c r="BW566" t="inlineStr"/>
+      <c r="BX566" t="inlineStr"/>
+      <c r="BY566" t="inlineStr"/>
+      <c r="BZ566" t="inlineStr"/>
+      <c r="CA566" t="inlineStr"/>
+      <c r="CB566" t="inlineStr"/>
+      <c r="CC566" t="inlineStr"/>
+      <c r="CD566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" s="1" t="inlineStr">
@@ -46583,6 +50573,13 @@
       <c r="BU567" t="inlineStr"/>
       <c r="BV567" t="inlineStr"/>
       <c r="BW567" t="inlineStr"/>
+      <c r="BX567" t="inlineStr"/>
+      <c r="BY567" t="inlineStr"/>
+      <c r="BZ567" t="inlineStr"/>
+      <c r="CA567" t="inlineStr"/>
+      <c r="CB567" t="inlineStr"/>
+      <c r="CC567" t="inlineStr"/>
+      <c r="CD567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" s="1" t="inlineStr">
@@ -46664,6 +50661,13 @@
       <c r="BU568" t="inlineStr"/>
       <c r="BV568" t="inlineStr"/>
       <c r="BW568" t="inlineStr"/>
+      <c r="BX568" t="inlineStr"/>
+      <c r="BY568" t="inlineStr"/>
+      <c r="BZ568" t="inlineStr"/>
+      <c r="CA568" t="inlineStr"/>
+      <c r="CB568" t="inlineStr"/>
+      <c r="CC568" t="inlineStr"/>
+      <c r="CD568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" s="1" t="inlineStr">
@@ -46745,6 +50749,13 @@
       <c r="BU569" t="inlineStr"/>
       <c r="BV569" t="inlineStr"/>
       <c r="BW569" t="inlineStr"/>
+      <c r="BX569" t="inlineStr"/>
+      <c r="BY569" t="inlineStr"/>
+      <c r="BZ569" t="inlineStr"/>
+      <c r="CA569" t="inlineStr"/>
+      <c r="CB569" t="inlineStr"/>
+      <c r="CC569" t="inlineStr"/>
+      <c r="CD569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" s="1" t="inlineStr">
@@ -46826,6 +50837,13 @@
       <c r="BU570" t="inlineStr"/>
       <c r="BV570" t="inlineStr"/>
       <c r="BW570" t="inlineStr"/>
+      <c r="BX570" t="inlineStr"/>
+      <c r="BY570" t="inlineStr"/>
+      <c r="BZ570" t="inlineStr"/>
+      <c r="CA570" t="inlineStr"/>
+      <c r="CB570" t="inlineStr"/>
+      <c r="CC570" t="inlineStr"/>
+      <c r="CD570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" s="1" t="inlineStr">
@@ -46907,6 +50925,13 @@
       <c r="BU571" t="inlineStr"/>
       <c r="BV571" t="inlineStr"/>
       <c r="BW571" t="inlineStr"/>
+      <c r="BX571" t="inlineStr"/>
+      <c r="BY571" t="inlineStr"/>
+      <c r="BZ571" t="inlineStr"/>
+      <c r="CA571" t="inlineStr"/>
+      <c r="CB571" t="inlineStr"/>
+      <c r="CC571" t="inlineStr"/>
+      <c r="CD571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" s="1" t="inlineStr">
@@ -46988,6 +51013,13 @@
       <c r="BU572" t="inlineStr"/>
       <c r="BV572" t="inlineStr"/>
       <c r="BW572" t="inlineStr"/>
+      <c r="BX572" t="inlineStr"/>
+      <c r="BY572" t="inlineStr"/>
+      <c r="BZ572" t="inlineStr"/>
+      <c r="CA572" t="inlineStr"/>
+      <c r="CB572" t="inlineStr"/>
+      <c r="CC572" t="inlineStr"/>
+      <c r="CD572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" s="1" t="inlineStr">
@@ -47069,6 +51101,13 @@
       <c r="BU573" t="inlineStr"/>
       <c r="BV573" t="inlineStr"/>
       <c r="BW573" t="inlineStr"/>
+      <c r="BX573" t="inlineStr"/>
+      <c r="BY573" t="inlineStr"/>
+      <c r="BZ573" t="inlineStr"/>
+      <c r="CA573" t="inlineStr"/>
+      <c r="CB573" t="inlineStr"/>
+      <c r="CC573" t="inlineStr"/>
+      <c r="CD573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" s="1" t="inlineStr">
@@ -47150,6 +51189,13 @@
       <c r="BU574" t="inlineStr"/>
       <c r="BV574" t="inlineStr"/>
       <c r="BW574" t="inlineStr"/>
+      <c r="BX574" t="inlineStr"/>
+      <c r="BY574" t="inlineStr"/>
+      <c r="BZ574" t="inlineStr"/>
+      <c r="CA574" t="inlineStr"/>
+      <c r="CB574" t="inlineStr"/>
+      <c r="CC574" t="inlineStr"/>
+      <c r="CD574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" s="1" t="inlineStr">
@@ -47231,6 +51277,13 @@
       <c r="BU575" t="inlineStr"/>
       <c r="BV575" t="inlineStr"/>
       <c r="BW575" t="inlineStr"/>
+      <c r="BX575" t="inlineStr"/>
+      <c r="BY575" t="inlineStr"/>
+      <c r="BZ575" t="inlineStr"/>
+      <c r="CA575" t="inlineStr"/>
+      <c r="CB575" t="inlineStr"/>
+      <c r="CC575" t="inlineStr"/>
+      <c r="CD575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" s="1" t="inlineStr">
@@ -47312,6 +51365,13 @@
       <c r="BU576" t="inlineStr"/>
       <c r="BV576" t="inlineStr"/>
       <c r="BW576" t="inlineStr"/>
+      <c r="BX576" t="inlineStr"/>
+      <c r="BY576" t="inlineStr"/>
+      <c r="BZ576" t="inlineStr"/>
+      <c r="CA576" t="inlineStr"/>
+      <c r="CB576" t="inlineStr"/>
+      <c r="CC576" t="inlineStr"/>
+      <c r="CD576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" s="1" t="inlineStr">
@@ -47393,6 +51453,13 @@
       <c r="BU577" t="inlineStr"/>
       <c r="BV577" t="inlineStr"/>
       <c r="BW577" t="inlineStr"/>
+      <c r="BX577" t="inlineStr"/>
+      <c r="BY577" t="inlineStr"/>
+      <c r="BZ577" t="inlineStr"/>
+      <c r="CA577" t="inlineStr"/>
+      <c r="CB577" t="inlineStr"/>
+      <c r="CC577" t="inlineStr"/>
+      <c r="CD577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" s="1" t="inlineStr">
@@ -47474,6 +51541,13 @@
       <c r="BU578" t="inlineStr"/>
       <c r="BV578" t="inlineStr"/>
       <c r="BW578" t="inlineStr"/>
+      <c r="BX578" t="inlineStr"/>
+      <c r="BY578" t="inlineStr"/>
+      <c r="BZ578" t="inlineStr"/>
+      <c r="CA578" t="inlineStr"/>
+      <c r="CB578" t="inlineStr"/>
+      <c r="CC578" t="inlineStr"/>
+      <c r="CD578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" s="1" t="inlineStr">
@@ -47555,6 +51629,13 @@
       <c r="BU579" t="inlineStr"/>
       <c r="BV579" t="inlineStr"/>
       <c r="BW579" t="inlineStr"/>
+      <c r="BX579" t="inlineStr"/>
+      <c r="BY579" t="inlineStr"/>
+      <c r="BZ579" t="inlineStr"/>
+      <c r="CA579" t="inlineStr"/>
+      <c r="CB579" t="inlineStr"/>
+      <c r="CC579" t="inlineStr"/>
+      <c r="CD579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" s="1" t="inlineStr">
@@ -47636,6 +51717,13 @@
       <c r="BU580" t="inlineStr"/>
       <c r="BV580" t="inlineStr"/>
       <c r="BW580" t="inlineStr"/>
+      <c r="BX580" t="inlineStr"/>
+      <c r="BY580" t="inlineStr"/>
+      <c r="BZ580" t="inlineStr"/>
+      <c r="CA580" t="inlineStr"/>
+      <c r="CB580" t="inlineStr"/>
+      <c r="CC580" t="inlineStr"/>
+      <c r="CD580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" s="1" t="inlineStr">
@@ -47717,6 +51805,13 @@
       <c r="BU581" t="inlineStr"/>
       <c r="BV581" t="inlineStr"/>
       <c r="BW581" t="inlineStr"/>
+      <c r="BX581" t="inlineStr"/>
+      <c r="BY581" t="inlineStr"/>
+      <c r="BZ581" t="inlineStr"/>
+      <c r="CA581" t="inlineStr"/>
+      <c r="CB581" t="inlineStr"/>
+      <c r="CC581" t="inlineStr"/>
+      <c r="CD581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" s="1" t="inlineStr">
@@ -47798,6 +51893,13 @@
       <c r="BU582" t="inlineStr"/>
       <c r="BV582" t="inlineStr"/>
       <c r="BW582" t="inlineStr"/>
+      <c r="BX582" t="inlineStr"/>
+      <c r="BY582" t="inlineStr"/>
+      <c r="BZ582" t="inlineStr"/>
+      <c r="CA582" t="inlineStr"/>
+      <c r="CB582" t="inlineStr"/>
+      <c r="CC582" t="inlineStr"/>
+      <c r="CD582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" s="1" t="inlineStr">
@@ -47879,6 +51981,13 @@
       <c r="BU583" t="inlineStr"/>
       <c r="BV583" t="inlineStr"/>
       <c r="BW583" t="inlineStr"/>
+      <c r="BX583" t="inlineStr"/>
+      <c r="BY583" t="inlineStr"/>
+      <c r="BZ583" t="inlineStr"/>
+      <c r="CA583" t="inlineStr"/>
+      <c r="CB583" t="inlineStr"/>
+      <c r="CC583" t="inlineStr"/>
+      <c r="CD583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" s="1" t="inlineStr">
@@ -47960,6 +52069,13 @@
       <c r="BU584" t="inlineStr"/>
       <c r="BV584" t="inlineStr"/>
       <c r="BW584" t="inlineStr"/>
+      <c r="BX584" t="inlineStr"/>
+      <c r="BY584" t="inlineStr"/>
+      <c r="BZ584" t="inlineStr"/>
+      <c r="CA584" t="inlineStr"/>
+      <c r="CB584" t="inlineStr"/>
+      <c r="CC584" t="inlineStr"/>
+      <c r="CD584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" s="1" t="inlineStr">
@@ -48041,6 +52157,13 @@
       <c r="BU585" t="inlineStr"/>
       <c r="BV585" t="inlineStr"/>
       <c r="BW585" t="inlineStr"/>
+      <c r="BX585" t="inlineStr"/>
+      <c r="BY585" t="inlineStr"/>
+      <c r="BZ585" t="inlineStr"/>
+      <c r="CA585" t="inlineStr"/>
+      <c r="CB585" t="inlineStr"/>
+      <c r="CC585" t="inlineStr"/>
+      <c r="CD585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" s="1" t="inlineStr">
@@ -48122,6 +52245,13 @@
       <c r="BU586" t="inlineStr"/>
       <c r="BV586" t="inlineStr"/>
       <c r="BW586" t="inlineStr"/>
+      <c r="BX586" t="inlineStr"/>
+      <c r="BY586" t="inlineStr"/>
+      <c r="BZ586" t="inlineStr"/>
+      <c r="CA586" t="inlineStr"/>
+      <c r="CB586" t="inlineStr"/>
+      <c r="CC586" t="inlineStr"/>
+      <c r="CD586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" s="1" t="inlineStr">
@@ -48203,6 +52333,13 @@
       <c r="BU587" t="inlineStr"/>
       <c r="BV587" t="inlineStr"/>
       <c r="BW587" t="inlineStr"/>
+      <c r="BX587" t="inlineStr"/>
+      <c r="BY587" t="inlineStr"/>
+      <c r="BZ587" t="inlineStr"/>
+      <c r="CA587" t="inlineStr"/>
+      <c r="CB587" t="inlineStr"/>
+      <c r="CC587" t="inlineStr"/>
+      <c r="CD587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" s="1" t="inlineStr">
@@ -48284,6 +52421,13 @@
       <c r="BU588" t="inlineStr"/>
       <c r="BV588" t="inlineStr"/>
       <c r="BW588" t="inlineStr"/>
+      <c r="BX588" t="inlineStr"/>
+      <c r="BY588" t="inlineStr"/>
+      <c r="BZ588" t="inlineStr"/>
+      <c r="CA588" t="inlineStr"/>
+      <c r="CB588" t="inlineStr"/>
+      <c r="CC588" t="inlineStr"/>
+      <c r="CD588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" s="1" t="inlineStr">
@@ -48365,6 +52509,13 @@
       <c r="BU589" t="inlineStr"/>
       <c r="BV589" t="inlineStr"/>
       <c r="BW589" t="inlineStr"/>
+      <c r="BX589" t="inlineStr"/>
+      <c r="BY589" t="inlineStr"/>
+      <c r="BZ589" t="inlineStr"/>
+      <c r="CA589" t="inlineStr"/>
+      <c r="CB589" t="inlineStr"/>
+      <c r="CC589" t="inlineStr"/>
+      <c r="CD589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" s="1" t="inlineStr">
@@ -48446,6 +52597,13 @@
       <c r="BU590" t="inlineStr"/>
       <c r="BV590" t="inlineStr"/>
       <c r="BW590" t="inlineStr"/>
+      <c r="BX590" t="inlineStr"/>
+      <c r="BY590" t="inlineStr"/>
+      <c r="BZ590" t="inlineStr"/>
+      <c r="CA590" t="inlineStr"/>
+      <c r="CB590" t="inlineStr"/>
+      <c r="CC590" t="inlineStr"/>
+      <c r="CD590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" s="1" t="inlineStr">
@@ -48527,6 +52685,13 @@
       <c r="BU591" t="inlineStr"/>
       <c r="BV591" t="inlineStr"/>
       <c r="BW591" t="inlineStr"/>
+      <c r="BX591" t="inlineStr"/>
+      <c r="BY591" t="inlineStr"/>
+      <c r="BZ591" t="inlineStr"/>
+      <c r="CA591" t="inlineStr"/>
+      <c r="CB591" t="inlineStr"/>
+      <c r="CC591" t="inlineStr"/>
+      <c r="CD591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" s="1" t="inlineStr">
@@ -48608,6 +52773,13 @@
       <c r="BU592" t="inlineStr"/>
       <c r="BV592" t="inlineStr"/>
       <c r="BW592" t="inlineStr"/>
+      <c r="BX592" t="inlineStr"/>
+      <c r="BY592" t="inlineStr"/>
+      <c r="BZ592" t="inlineStr"/>
+      <c r="CA592" t="inlineStr"/>
+      <c r="CB592" t="inlineStr"/>
+      <c r="CC592" t="inlineStr"/>
+      <c r="CD592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" s="1" t="inlineStr">
@@ -48689,6 +52861,13 @@
       <c r="BU593" t="inlineStr"/>
       <c r="BV593" t="inlineStr"/>
       <c r="BW593" t="inlineStr"/>
+      <c r="BX593" t="inlineStr"/>
+      <c r="BY593" t="inlineStr"/>
+      <c r="BZ593" t="inlineStr"/>
+      <c r="CA593" t="inlineStr"/>
+      <c r="CB593" t="inlineStr"/>
+      <c r="CC593" t="inlineStr"/>
+      <c r="CD593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" s="1" t="inlineStr">
@@ -48770,6 +52949,13 @@
       <c r="BU594" t="inlineStr"/>
       <c r="BV594" t="inlineStr"/>
       <c r="BW594" t="inlineStr"/>
+      <c r="BX594" t="inlineStr"/>
+      <c r="BY594" t="inlineStr"/>
+      <c r="BZ594" t="inlineStr"/>
+      <c r="CA594" t="inlineStr"/>
+      <c r="CB594" t="inlineStr"/>
+      <c r="CC594" t="inlineStr"/>
+      <c r="CD594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" s="1" t="inlineStr">
@@ -48851,6 +53037,13 @@
       <c r="BU595" t="inlineStr"/>
       <c r="BV595" t="inlineStr"/>
       <c r="BW595" t="inlineStr"/>
+      <c r="BX595" t="inlineStr"/>
+      <c r="BY595" t="inlineStr"/>
+      <c r="BZ595" t="inlineStr"/>
+      <c r="CA595" t="inlineStr"/>
+      <c r="CB595" t="inlineStr"/>
+      <c r="CC595" t="inlineStr"/>
+      <c r="CD595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" s="1" t="inlineStr">
@@ -48932,6 +53125,13 @@
       <c r="BU596" t="inlineStr"/>
       <c r="BV596" t="inlineStr"/>
       <c r="BW596" t="inlineStr"/>
+      <c r="BX596" t="inlineStr"/>
+      <c r="BY596" t="inlineStr"/>
+      <c r="BZ596" t="inlineStr"/>
+      <c r="CA596" t="inlineStr"/>
+      <c r="CB596" t="inlineStr"/>
+      <c r="CC596" t="inlineStr"/>
+      <c r="CD596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" s="1" t="inlineStr">
@@ -49013,6 +53213,13 @@
       <c r="BU597" t="inlineStr"/>
       <c r="BV597" t="inlineStr"/>
       <c r="BW597" t="inlineStr"/>
+      <c r="BX597" t="inlineStr"/>
+      <c r="BY597" t="inlineStr"/>
+      <c r="BZ597" t="inlineStr"/>
+      <c r="CA597" t="inlineStr"/>
+      <c r="CB597" t="inlineStr"/>
+      <c r="CC597" t="inlineStr"/>
+      <c r="CD597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" s="1" t="inlineStr">
@@ -49094,6 +53301,13 @@
       <c r="BU598" t="inlineStr"/>
       <c r="BV598" t="inlineStr"/>
       <c r="BW598" t="inlineStr"/>
+      <c r="BX598" t="inlineStr"/>
+      <c r="BY598" t="inlineStr"/>
+      <c r="BZ598" t="inlineStr"/>
+      <c r="CA598" t="inlineStr"/>
+      <c r="CB598" t="inlineStr"/>
+      <c r="CC598" t="inlineStr"/>
+      <c r="CD598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" s="1" t="inlineStr">
@@ -49175,6 +53389,13 @@
       <c r="BU599" t="inlineStr"/>
       <c r="BV599" t="inlineStr"/>
       <c r="BW599" t="inlineStr"/>
+      <c r="BX599" t="inlineStr"/>
+      <c r="BY599" t="inlineStr"/>
+      <c r="BZ599" t="inlineStr"/>
+      <c r="CA599" t="inlineStr"/>
+      <c r="CB599" t="inlineStr"/>
+      <c r="CC599" t="inlineStr"/>
+      <c r="CD599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" s="1" t="inlineStr">
@@ -49256,6 +53477,13 @@
       <c r="BU600" t="inlineStr"/>
       <c r="BV600" t="inlineStr"/>
       <c r="BW600" t="inlineStr"/>
+      <c r="BX600" t="inlineStr"/>
+      <c r="BY600" t="inlineStr"/>
+      <c r="BZ600" t="inlineStr"/>
+      <c r="CA600" t="inlineStr"/>
+      <c r="CB600" t="inlineStr"/>
+      <c r="CC600" t="inlineStr"/>
+      <c r="CD600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" s="1" t="inlineStr">
@@ -49337,6 +53565,13 @@
       <c r="BU601" t="inlineStr"/>
       <c r="BV601" t="inlineStr"/>
       <c r="BW601" t="inlineStr"/>
+      <c r="BX601" t="inlineStr"/>
+      <c r="BY601" t="inlineStr"/>
+      <c r="BZ601" t="inlineStr"/>
+      <c r="CA601" t="inlineStr"/>
+      <c r="CB601" t="inlineStr"/>
+      <c r="CC601" t="inlineStr"/>
+      <c r="CD601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" s="1" t="inlineStr">
@@ -49418,6 +53653,13 @@
       <c r="BU602" t="inlineStr"/>
       <c r="BV602" t="inlineStr"/>
       <c r="BW602" t="inlineStr"/>
+      <c r="BX602" t="inlineStr"/>
+      <c r="BY602" t="inlineStr"/>
+      <c r="BZ602" t="inlineStr"/>
+      <c r="CA602" t="inlineStr"/>
+      <c r="CB602" t="inlineStr"/>
+      <c r="CC602" t="inlineStr"/>
+      <c r="CD602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" s="1" t="inlineStr">
@@ -49499,6 +53741,13 @@
       <c r="BU603" t="inlineStr"/>
       <c r="BV603" t="inlineStr"/>
       <c r="BW603" t="inlineStr"/>
+      <c r="BX603" t="inlineStr"/>
+      <c r="BY603" t="inlineStr"/>
+      <c r="BZ603" t="inlineStr"/>
+      <c r="CA603" t="inlineStr"/>
+      <c r="CB603" t="inlineStr"/>
+      <c r="CC603" t="inlineStr"/>
+      <c r="CD603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" s="1" t="inlineStr">
@@ -49580,6 +53829,13 @@
       <c r="BU604" t="inlineStr"/>
       <c r="BV604" t="inlineStr"/>
       <c r="BW604" t="inlineStr"/>
+      <c r="BX604" t="inlineStr"/>
+      <c r="BY604" t="inlineStr"/>
+      <c r="BZ604" t="inlineStr"/>
+      <c r="CA604" t="inlineStr"/>
+      <c r="CB604" t="inlineStr"/>
+      <c r="CC604" t="inlineStr"/>
+      <c r="CD604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" s="1" t="inlineStr">
@@ -49661,6 +53917,13 @@
       <c r="BU605" t="inlineStr"/>
       <c r="BV605" t="inlineStr"/>
       <c r="BW605" t="inlineStr"/>
+      <c r="BX605" t="inlineStr"/>
+      <c r="BY605" t="inlineStr"/>
+      <c r="BZ605" t="inlineStr"/>
+      <c r="CA605" t="inlineStr"/>
+      <c r="CB605" t="inlineStr"/>
+      <c r="CC605" t="inlineStr"/>
+      <c r="CD605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" s="1" t="inlineStr">
@@ -49742,6 +54005,13 @@
       <c r="BU606" t="inlineStr"/>
       <c r="BV606" t="inlineStr"/>
       <c r="BW606" t="inlineStr"/>
+      <c r="BX606" t="inlineStr"/>
+      <c r="BY606" t="inlineStr"/>
+      <c r="BZ606" t="inlineStr"/>
+      <c r="CA606" t="inlineStr"/>
+      <c r="CB606" t="inlineStr"/>
+      <c r="CC606" t="inlineStr"/>
+      <c r="CD606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" s="1" t="inlineStr">
@@ -49823,6 +54093,13 @@
       <c r="BU607" t="inlineStr"/>
       <c r="BV607" t="inlineStr"/>
       <c r="BW607" t="inlineStr"/>
+      <c r="BX607" t="inlineStr"/>
+      <c r="BY607" t="inlineStr"/>
+      <c r="BZ607" t="inlineStr"/>
+      <c r="CA607" t="inlineStr"/>
+      <c r="CB607" t="inlineStr"/>
+      <c r="CC607" t="inlineStr"/>
+      <c r="CD607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" s="1" t="inlineStr">
@@ -49904,6 +54181,13 @@
       <c r="BU608" t="inlineStr"/>
       <c r="BV608" t="inlineStr"/>
       <c r="BW608" t="inlineStr"/>
+      <c r="BX608" t="inlineStr"/>
+      <c r="BY608" t="inlineStr"/>
+      <c r="BZ608" t="inlineStr"/>
+      <c r="CA608" t="inlineStr"/>
+      <c r="CB608" t="inlineStr"/>
+      <c r="CC608" t="inlineStr"/>
+      <c r="CD608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" s="1" t="inlineStr">
@@ -49985,6 +54269,13 @@
       <c r="BU609" t="inlineStr"/>
       <c r="BV609" t="inlineStr"/>
       <c r="BW609" t="inlineStr"/>
+      <c r="BX609" t="inlineStr"/>
+      <c r="BY609" t="inlineStr"/>
+      <c r="BZ609" t="inlineStr"/>
+      <c r="CA609" t="inlineStr"/>
+      <c r="CB609" t="inlineStr"/>
+      <c r="CC609" t="inlineStr"/>
+      <c r="CD609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" s="1" t="inlineStr">
@@ -50066,6 +54357,13 @@
       <c r="BU610" t="inlineStr"/>
       <c r="BV610" t="inlineStr"/>
       <c r="BW610" t="inlineStr"/>
+      <c r="BX610" t="inlineStr"/>
+      <c r="BY610" t="inlineStr"/>
+      <c r="BZ610" t="inlineStr"/>
+      <c r="CA610" t="inlineStr"/>
+      <c r="CB610" t="inlineStr"/>
+      <c r="CC610" t="inlineStr"/>
+      <c r="CD610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" s="1" t="inlineStr">
@@ -50147,6 +54445,13 @@
       <c r="BU611" t="inlineStr"/>
       <c r="BV611" t="inlineStr"/>
       <c r="BW611" t="inlineStr"/>
+      <c r="BX611" t="inlineStr"/>
+      <c r="BY611" t="inlineStr"/>
+      <c r="BZ611" t="inlineStr"/>
+      <c r="CA611" t="inlineStr"/>
+      <c r="CB611" t="inlineStr"/>
+      <c r="CC611" t="inlineStr"/>
+      <c r="CD611" t="inlineStr"/>
     </row>
     <row r="612">
       <c r="A612" s="1" t="inlineStr">
@@ -50228,6 +54533,13 @@
       <c r="BU612" t="inlineStr"/>
       <c r="BV612" t="inlineStr"/>
       <c r="BW612" t="inlineStr"/>
+      <c r="BX612" t="inlineStr"/>
+      <c r="BY612" t="inlineStr"/>
+      <c r="BZ612" t="inlineStr"/>
+      <c r="CA612" t="inlineStr"/>
+      <c r="CB612" t="inlineStr"/>
+      <c r="CC612" t="inlineStr"/>
+      <c r="CD612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" s="1" t="inlineStr">
@@ -50309,6 +54621,13 @@
       <c r="BU613" t="inlineStr"/>
       <c r="BV613" t="inlineStr"/>
       <c r="BW613" t="inlineStr"/>
+      <c r="BX613" t="inlineStr"/>
+      <c r="BY613" t="inlineStr"/>
+      <c r="BZ613" t="inlineStr"/>
+      <c r="CA613" t="inlineStr"/>
+      <c r="CB613" t="inlineStr"/>
+      <c r="CC613" t="inlineStr"/>
+      <c r="CD613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" s="1" t="inlineStr">
@@ -50390,6 +54709,13 @@
       <c r="BU614" t="inlineStr"/>
       <c r="BV614" t="inlineStr"/>
       <c r="BW614" t="inlineStr"/>
+      <c r="BX614" t="inlineStr"/>
+      <c r="BY614" t="inlineStr"/>
+      <c r="BZ614" t="inlineStr"/>
+      <c r="CA614" t="inlineStr"/>
+      <c r="CB614" t="inlineStr"/>
+      <c r="CC614" t="inlineStr"/>
+      <c r="CD614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" s="1" t="inlineStr">
@@ -50471,6 +54797,13 @@
       <c r="BU615" t="inlineStr"/>
       <c r="BV615" t="inlineStr"/>
       <c r="BW615" t="inlineStr"/>
+      <c r="BX615" t="inlineStr"/>
+      <c r="BY615" t="inlineStr"/>
+      <c r="BZ615" t="inlineStr"/>
+      <c r="CA615" t="inlineStr"/>
+      <c r="CB615" t="inlineStr"/>
+      <c r="CC615" t="inlineStr"/>
+      <c r="CD615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" s="1" t="inlineStr">
@@ -50552,6 +54885,13 @@
       <c r="BU616" t="inlineStr"/>
       <c r="BV616" t="inlineStr"/>
       <c r="BW616" t="inlineStr"/>
+      <c r="BX616" t="inlineStr"/>
+      <c r="BY616" t="inlineStr"/>
+      <c r="BZ616" t="inlineStr"/>
+      <c r="CA616" t="inlineStr"/>
+      <c r="CB616" t="inlineStr"/>
+      <c r="CC616" t="inlineStr"/>
+      <c r="CD616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" s="1" t="inlineStr">
@@ -50633,6 +54973,13 @@
       <c r="BU617" t="inlineStr"/>
       <c r="BV617" t="inlineStr"/>
       <c r="BW617" t="inlineStr"/>
+      <c r="BX617" t="inlineStr"/>
+      <c r="BY617" t="inlineStr"/>
+      <c r="BZ617" t="inlineStr"/>
+      <c r="CA617" t="inlineStr"/>
+      <c r="CB617" t="inlineStr"/>
+      <c r="CC617" t="inlineStr"/>
+      <c r="CD617" t="inlineStr"/>
     </row>
     <row r="618">
       <c r="A618" s="1" t="inlineStr">
@@ -50714,6 +55061,13 @@
       <c r="BU618" t="inlineStr"/>
       <c r="BV618" t="inlineStr"/>
       <c r="BW618" t="inlineStr"/>
+      <c r="BX618" t="inlineStr"/>
+      <c r="BY618" t="inlineStr"/>
+      <c r="BZ618" t="inlineStr"/>
+      <c r="CA618" t="inlineStr"/>
+      <c r="CB618" t="inlineStr"/>
+      <c r="CC618" t="inlineStr"/>
+      <c r="CD618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" s="1" t="inlineStr">
@@ -50795,6 +55149,13 @@
       <c r="BU619" t="inlineStr"/>
       <c r="BV619" t="inlineStr"/>
       <c r="BW619" t="inlineStr"/>
+      <c r="BX619" t="inlineStr"/>
+      <c r="BY619" t="inlineStr"/>
+      <c r="BZ619" t="inlineStr"/>
+      <c r="CA619" t="inlineStr"/>
+      <c r="CB619" t="inlineStr"/>
+      <c r="CC619" t="inlineStr"/>
+      <c r="CD619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" s="1" t="inlineStr">
@@ -50876,6 +55237,13 @@
       <c r="BU620" t="inlineStr"/>
       <c r="BV620" t="inlineStr"/>
       <c r="BW620" t="inlineStr"/>
+      <c r="BX620" t="inlineStr"/>
+      <c r="BY620" t="inlineStr"/>
+      <c r="BZ620" t="inlineStr"/>
+      <c r="CA620" t="inlineStr"/>
+      <c r="CB620" t="inlineStr"/>
+      <c r="CC620" t="inlineStr"/>
+      <c r="CD620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" s="1" t="inlineStr">
@@ -50957,6 +55325,13 @@
       <c r="BU621" t="inlineStr"/>
       <c r="BV621" t="inlineStr"/>
       <c r="BW621" t="inlineStr"/>
+      <c r="BX621" t="inlineStr"/>
+      <c r="BY621" t="inlineStr"/>
+      <c r="BZ621" t="inlineStr"/>
+      <c r="CA621" t="inlineStr"/>
+      <c r="CB621" t="inlineStr"/>
+      <c r="CC621" t="inlineStr"/>
+      <c r="CD621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" s="1" t="inlineStr">
@@ -51038,6 +55413,13 @@
       <c r="BU622" t="inlineStr"/>
       <c r="BV622" t="inlineStr"/>
       <c r="BW622" t="inlineStr"/>
+      <c r="BX622" t="inlineStr"/>
+      <c r="BY622" t="inlineStr"/>
+      <c r="BZ622" t="inlineStr"/>
+      <c r="CA622" t="inlineStr"/>
+      <c r="CB622" t="inlineStr"/>
+      <c r="CC622" t="inlineStr"/>
+      <c r="CD622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" s="1" t="inlineStr">
@@ -51119,6 +55501,13 @@
       <c r="BU623" t="inlineStr"/>
       <c r="BV623" t="inlineStr"/>
       <c r="BW623" t="inlineStr"/>
+      <c r="BX623" t="inlineStr"/>
+      <c r="BY623" t="inlineStr"/>
+      <c r="BZ623" t="inlineStr"/>
+      <c r="CA623" t="inlineStr"/>
+      <c r="CB623" t="inlineStr"/>
+      <c r="CC623" t="inlineStr"/>
+      <c r="CD623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" s="1" t="inlineStr">
@@ -51200,6 +55589,13 @@
       <c r="BU624" t="inlineStr"/>
       <c r="BV624" t="inlineStr"/>
       <c r="BW624" t="inlineStr"/>
+      <c r="BX624" t="inlineStr"/>
+      <c r="BY624" t="inlineStr"/>
+      <c r="BZ624" t="inlineStr"/>
+      <c r="CA624" t="inlineStr"/>
+      <c r="CB624" t="inlineStr"/>
+      <c r="CC624" t="inlineStr"/>
+      <c r="CD624" t="inlineStr"/>
     </row>
     <row r="625">
       <c r="A625" s="1" t="inlineStr">
@@ -51281,6 +55677,13 @@
       <c r="BU625" t="inlineStr"/>
       <c r="BV625" t="inlineStr"/>
       <c r="BW625" t="inlineStr"/>
+      <c r="BX625" t="inlineStr"/>
+      <c r="BY625" t="inlineStr"/>
+      <c r="BZ625" t="inlineStr"/>
+      <c r="CA625" t="inlineStr"/>
+      <c r="CB625" t="inlineStr"/>
+      <c r="CC625" t="inlineStr"/>
+      <c r="CD625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" s="1" t="inlineStr">
@@ -51362,6 +55765,13 @@
       <c r="BU626" t="inlineStr"/>
       <c r="BV626" t="inlineStr"/>
       <c r="BW626" t="inlineStr"/>
+      <c r="BX626" t="inlineStr"/>
+      <c r="BY626" t="inlineStr"/>
+      <c r="BZ626" t="inlineStr"/>
+      <c r="CA626" t="inlineStr"/>
+      <c r="CB626" t="inlineStr"/>
+      <c r="CC626" t="inlineStr"/>
+      <c r="CD626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" s="1" t="inlineStr">
@@ -51443,6 +55853,13 @@
       <c r="BU627" t="inlineStr"/>
       <c r="BV627" t="inlineStr"/>
       <c r="BW627" t="inlineStr"/>
+      <c r="BX627" t="inlineStr"/>
+      <c r="BY627" t="inlineStr"/>
+      <c r="BZ627" t="inlineStr"/>
+      <c r="CA627" t="inlineStr"/>
+      <c r="CB627" t="inlineStr"/>
+      <c r="CC627" t="inlineStr"/>
+      <c r="CD627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" s="1" t="inlineStr">
@@ -51524,6 +55941,13 @@
       <c r="BU628" t="inlineStr"/>
       <c r="BV628" t="inlineStr"/>
       <c r="BW628" t="inlineStr"/>
+      <c r="BX628" t="inlineStr"/>
+      <c r="BY628" t="inlineStr"/>
+      <c r="BZ628" t="inlineStr"/>
+      <c r="CA628" t="inlineStr"/>
+      <c r="CB628" t="inlineStr"/>
+      <c r="CC628" t="inlineStr"/>
+      <c r="CD628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" s="1" t="inlineStr">
@@ -51605,6 +56029,13 @@
       <c r="BU629" t="inlineStr"/>
       <c r="BV629" t="inlineStr"/>
       <c r="BW629" t="inlineStr"/>
+      <c r="BX629" t="inlineStr"/>
+      <c r="BY629" t="inlineStr"/>
+      <c r="BZ629" t="inlineStr"/>
+      <c r="CA629" t="inlineStr"/>
+      <c r="CB629" t="inlineStr"/>
+      <c r="CC629" t="inlineStr"/>
+      <c r="CD629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" s="1" t="inlineStr">
@@ -51686,6 +56117,13 @@
       <c r="BU630" t="inlineStr"/>
       <c r="BV630" t="inlineStr"/>
       <c r="BW630" t="inlineStr"/>
+      <c r="BX630" t="inlineStr"/>
+      <c r="BY630" t="inlineStr"/>
+      <c r="BZ630" t="inlineStr"/>
+      <c r="CA630" t="inlineStr"/>
+      <c r="CB630" t="inlineStr"/>
+      <c r="CC630" t="inlineStr"/>
+      <c r="CD630" t="inlineStr"/>
     </row>
     <row r="631">
       <c r="A631" s="1" t="inlineStr">
@@ -51767,6 +56205,13 @@
       <c r="BU631" t="inlineStr"/>
       <c r="BV631" t="inlineStr"/>
       <c r="BW631" t="inlineStr"/>
+      <c r="BX631" t="inlineStr"/>
+      <c r="BY631" t="inlineStr"/>
+      <c r="BZ631" t="inlineStr"/>
+      <c r="CA631" t="inlineStr"/>
+      <c r="CB631" t="inlineStr"/>
+      <c r="CC631" t="inlineStr"/>
+      <c r="CD631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" s="1" t="inlineStr">
@@ -51848,6 +56293,13 @@
       <c r="BU632" t="inlineStr"/>
       <c r="BV632" t="inlineStr"/>
       <c r="BW632" t="inlineStr"/>
+      <c r="BX632" t="inlineStr"/>
+      <c r="BY632" t="inlineStr"/>
+      <c r="BZ632" t="inlineStr"/>
+      <c r="CA632" t="inlineStr"/>
+      <c r="CB632" t="inlineStr"/>
+      <c r="CC632" t="inlineStr"/>
+      <c r="CD632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" s="1" t="inlineStr">
@@ -51929,6 +56381,13 @@
       <c r="BU633" t="inlineStr"/>
       <c r="BV633" t="inlineStr"/>
       <c r="BW633" t="inlineStr"/>
+      <c r="BX633" t="inlineStr"/>
+      <c r="BY633" t="inlineStr"/>
+      <c r="BZ633" t="inlineStr"/>
+      <c r="CA633" t="inlineStr"/>
+      <c r="CB633" t="inlineStr"/>
+      <c r="CC633" t="inlineStr"/>
+      <c r="CD633" t="inlineStr"/>
     </row>
     <row r="634">
       <c r="A634" s="1" t="inlineStr">
@@ -52010,6 +56469,13 @@
       <c r="BU634" t="inlineStr"/>
       <c r="BV634" t="inlineStr"/>
       <c r="BW634" t="inlineStr"/>
+      <c r="BX634" t="inlineStr"/>
+      <c r="BY634" t="inlineStr"/>
+      <c r="BZ634" t="inlineStr"/>
+      <c r="CA634" t="inlineStr"/>
+      <c r="CB634" t="inlineStr"/>
+      <c r="CC634" t="inlineStr"/>
+      <c r="CD634" t="inlineStr"/>
     </row>
     <row r="635">
       <c r="A635" s="1" t="inlineStr">
@@ -52091,6 +56557,13 @@
       <c r="BU635" t="inlineStr"/>
       <c r="BV635" t="inlineStr"/>
       <c r="BW635" t="inlineStr"/>
+      <c r="BX635" t="inlineStr"/>
+      <c r="BY635" t="inlineStr"/>
+      <c r="BZ635" t="inlineStr"/>
+      <c r="CA635" t="inlineStr"/>
+      <c r="CB635" t="inlineStr"/>
+      <c r="CC635" t="inlineStr"/>
+      <c r="CD635" t="inlineStr"/>
     </row>
     <row r="636">
       <c r="A636" s="1" t="inlineStr">
@@ -52172,6 +56645,13 @@
       <c r="BU636" t="inlineStr"/>
       <c r="BV636" t="inlineStr"/>
       <c r="BW636" t="inlineStr"/>
+      <c r="BX636" t="inlineStr"/>
+      <c r="BY636" t="inlineStr"/>
+      <c r="BZ636" t="inlineStr"/>
+      <c r="CA636" t="inlineStr"/>
+      <c r="CB636" t="inlineStr"/>
+      <c r="CC636" t="inlineStr"/>
+      <c r="CD636" t="inlineStr"/>
     </row>
     <row r="637">
       <c r="A637" s="1" t="inlineStr">
@@ -52253,6 +56733,13 @@
       <c r="BU637" t="inlineStr"/>
       <c r="BV637" t="inlineStr"/>
       <c r="BW637" t="inlineStr"/>
+      <c r="BX637" t="inlineStr"/>
+      <c r="BY637" t="inlineStr"/>
+      <c r="BZ637" t="inlineStr"/>
+      <c r="CA637" t="inlineStr"/>
+      <c r="CB637" t="inlineStr"/>
+      <c r="CC637" t="inlineStr"/>
+      <c r="CD637" t="inlineStr"/>
     </row>
     <row r="638">
       <c r="A638" s="1" t="inlineStr">
@@ -52334,6 +56821,13 @@
       <c r="BU638" t="inlineStr"/>
       <c r="BV638" t="inlineStr"/>
       <c r="BW638" t="inlineStr"/>
+      <c r="BX638" t="inlineStr"/>
+      <c r="BY638" t="inlineStr"/>
+      <c r="BZ638" t="inlineStr"/>
+      <c r="CA638" t="inlineStr"/>
+      <c r="CB638" t="inlineStr"/>
+      <c r="CC638" t="inlineStr"/>
+      <c r="CD638" t="inlineStr"/>
     </row>
     <row r="639">
       <c r="A639" s="1" t="inlineStr">
@@ -52415,6 +56909,13 @@
       <c r="BU639" t="inlineStr"/>
       <c r="BV639" t="inlineStr"/>
       <c r="BW639" t="inlineStr"/>
+      <c r="BX639" t="inlineStr"/>
+      <c r="BY639" t="inlineStr"/>
+      <c r="BZ639" t="inlineStr"/>
+      <c r="CA639" t="inlineStr"/>
+      <c r="CB639" t="inlineStr"/>
+      <c r="CC639" t="inlineStr"/>
+      <c r="CD639" t="inlineStr"/>
     </row>
     <row r="640">
       <c r="A640" s="1" t="inlineStr">
@@ -52496,6 +56997,13 @@
       <c r="BU640" t="inlineStr"/>
       <c r="BV640" t="inlineStr"/>
       <c r="BW640" t="inlineStr"/>
+      <c r="BX640" t="inlineStr"/>
+      <c r="BY640" t="inlineStr"/>
+      <c r="BZ640" t="inlineStr"/>
+      <c r="CA640" t="inlineStr"/>
+      <c r="CB640" t="inlineStr"/>
+      <c r="CC640" t="inlineStr"/>
+      <c r="CD640" t="inlineStr"/>
     </row>
     <row r="641">
       <c r="A641" s="1" t="inlineStr">
@@ -52577,6 +57085,13 @@
       <c r="BU641" t="inlineStr"/>
       <c r="BV641" t="inlineStr"/>
       <c r="BW641" t="inlineStr"/>
+      <c r="BX641" t="inlineStr"/>
+      <c r="BY641" t="inlineStr"/>
+      <c r="BZ641" t="inlineStr"/>
+      <c r="CA641" t="inlineStr"/>
+      <c r="CB641" t="inlineStr"/>
+      <c r="CC641" t="inlineStr"/>
+      <c r="CD641" t="inlineStr"/>
     </row>
     <row r="642">
       <c r="A642" s="1" t="inlineStr">
@@ -52658,6 +57173,13 @@
       <c r="BU642" t="inlineStr"/>
       <c r="BV642" t="inlineStr"/>
       <c r="BW642" t="inlineStr"/>
+      <c r="BX642" t="inlineStr"/>
+      <c r="BY642" t="inlineStr"/>
+      <c r="BZ642" t="inlineStr"/>
+      <c r="CA642" t="inlineStr"/>
+      <c r="CB642" t="inlineStr"/>
+      <c r="CC642" t="inlineStr"/>
+      <c r="CD642" t="inlineStr"/>
     </row>
     <row r="643">
       <c r="A643" s="1" t="inlineStr">
@@ -52739,6 +57261,13 @@
       <c r="BU643" t="inlineStr"/>
       <c r="BV643" t="inlineStr"/>
       <c r="BW643" t="inlineStr"/>
+      <c r="BX643" t="inlineStr"/>
+      <c r="BY643" t="inlineStr"/>
+      <c r="BZ643" t="inlineStr"/>
+      <c r="CA643" t="inlineStr"/>
+      <c r="CB643" t="inlineStr"/>
+      <c r="CC643" t="inlineStr"/>
+      <c r="CD643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" s="1" t="inlineStr">
@@ -52820,6 +57349,13 @@
       <c r="BU644" t="inlineStr"/>
       <c r="BV644" t="inlineStr"/>
       <c r="BW644" t="inlineStr"/>
+      <c r="BX644" t="inlineStr"/>
+      <c r="BY644" t="inlineStr"/>
+      <c r="BZ644" t="inlineStr"/>
+      <c r="CA644" t="inlineStr"/>
+      <c r="CB644" t="inlineStr"/>
+      <c r="CC644" t="inlineStr"/>
+      <c r="CD644" t="inlineStr"/>
     </row>
     <row r="645">
       <c r="A645" s="1" t="inlineStr">
@@ -52901,6 +57437,13 @@
       <c r="BU645" t="inlineStr"/>
       <c r="BV645" t="inlineStr"/>
       <c r="BW645" t="inlineStr"/>
+      <c r="BX645" t="inlineStr"/>
+      <c r="BY645" t="inlineStr"/>
+      <c r="BZ645" t="inlineStr"/>
+      <c r="CA645" t="inlineStr"/>
+      <c r="CB645" t="inlineStr"/>
+      <c r="CC645" t="inlineStr"/>
+      <c r="CD645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" s="1" t="inlineStr">
@@ -52982,6 +57525,13 @@
       <c r="BU646" t="inlineStr"/>
       <c r="BV646" t="inlineStr"/>
       <c r="BW646" t="inlineStr"/>
+      <c r="BX646" t="inlineStr"/>
+      <c r="BY646" t="inlineStr"/>
+      <c r="BZ646" t="inlineStr"/>
+      <c r="CA646" t="inlineStr"/>
+      <c r="CB646" t="inlineStr"/>
+      <c r="CC646" t="inlineStr"/>
+      <c r="CD646" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
